--- a/shelley_rewards_wdv.xlsx
+++ b/shelley_rewards_wdv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uss\Documents\8. Cardano StakePool\Cardano Staking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3D0DB2-0428-4A3C-85C9-4C704D139D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7C97D-939D-40F3-8AFD-78405DC8AE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" xr2:uid="{0555CF38-D1C2-4BD8-9E20-82DC46488446}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="3" xr2:uid="{0555CF38-D1C2-4BD8-9E20-82DC46488446}"/>
   </bookViews>
   <sheets>
     <sheet name="Block Production" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
   <si>
     <t>k</t>
   </si>
@@ -293,21 +293,6 @@
     <t>Pool Reward per Epoch After Taxes (ADA)</t>
   </si>
   <si>
-    <t>Max ADA per block year 1</t>
-  </si>
-  <si>
-    <t>Max ADA per block year 2</t>
-  </si>
-  <si>
-    <t>Max ADA per block year 3</t>
-  </si>
-  <si>
-    <t>Max ADA per block year 4</t>
-  </si>
-  <si>
-    <t>Max ADA per block year 5</t>
-  </si>
-  <si>
     <t>Pool fee</t>
   </si>
   <si>
@@ -360,9 +345,6 @@
   </si>
   <si>
     <t>nOps</t>
-  </si>
-  <si>
-    <t>Expected Blocks</t>
   </si>
   <si>
     <t>variance</t>
@@ -422,9 +404,6 @@
     <t>Total Active Stake</t>
   </si>
   <si>
-    <t>Max. Rewards</t>
-  </si>
-  <si>
     <t>Total Stake</t>
   </si>
   <si>
@@ -447,6 +426,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rewards After Tr.Tax </t>
+  </si>
+  <si>
+    <t>Opt. Rewards</t>
+  </si>
+  <si>
+    <t>Exp. Blocks</t>
   </si>
 </sst>
 </file>
@@ -1273,45 +1258,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +1489,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1663,8 +1648,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.50695798478385545"/>
-          <c:y val="1.8261471328182823E-2"/>
+          <c:x val="0.3029744654083642"/>
+          <c:y val="2.0105793828373866E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1756,14 +1741,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Block Production'!$A$36:$A$81</c15:sqref>
+                    <c15:sqref>'Block Production'!$A$36:$A$96</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Block Production'!$A$36:$A$45,'Block Production'!$A$48:$A$81)</c:f>
+              <c:f>('Block Production'!$A$36:$A$45,'Block Production'!$A$48:$A$96)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1895,6 +1880,51 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,14 +1934,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Block Production'!$B$36:$B$81</c15:sqref>
+                    <c15:sqref>'Block Production'!$B$36:$B$96</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Block Production'!$B$36:$B$45,'Block Production'!$B$48:$B$81)</c:f>
+              <c:f>('Block Production'!$B$36:$B$45,'Block Production'!$B$48:$B$96)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>8.5787424742408191E-13</c:v>
                 </c:pt>
@@ -2043,6 +2073,51 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>6.1603189628761028E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6939762818308795E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1674213884455729E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2449375850702871E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0031799722954235E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.859822871446303E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0851512904328676E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1045181467362338E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7389685665080539E-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.926005610768005E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4643527860552566E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.1959660231094889E-7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.4733120122062147E-7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6471891289187305E-7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.6774537199950821E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.5179508953316216E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6095,10 +6170,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6398,8 +6469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354DE21C-EC63-427C-89FB-000C12D7D2E3}">
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6428,60 +6499,60 @@
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="156" t="s">
-        <v>129</v>
+      <c r="B1" s="143" t="s">
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N1" s="17"/>
-      <c r="O1" s="227" t="s">
+      <c r="O1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="227" t="s">
-        <v>123</v>
+      <c r="P1" s="214" t="s">
+        <v>116</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="157" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="157" t="s">
+      <c r="S1" s="144" t="s">
         <v>5</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="157" t="s">
+      <c r="U1" s="144" t="s">
         <v>6</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -6501,70 +6572,70 @@
         <f>rho!E6 * (1-tr_tax)</f>
         <v>28800000</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="182">
         <f>150 * 220000000</f>
         <v>33000000000</v>
       </c>
-      <c r="D2" s="195">
+      <c r="D2" s="182">
         <v>76550000</v>
       </c>
-      <c r="E2" s="195">
+      <c r="E2" s="182">
         <v>10177000000</v>
       </c>
-      <c r="F2" s="195">
+      <c r="F2" s="182">
         <v>250000</v>
       </c>
-      <c r="G2" s="154">
+      <c r="G2" s="141">
         <v>16</v>
       </c>
-      <c r="H2" s="198">
-        <f>MAX(1,M2*K2)</f>
+      <c r="H2" s="185">
+        <f t="shared" ref="H2:H21" si="0">MAX(1,M2*K2)</f>
         <v>51407.691872796619</v>
       </c>
-      <c r="I2" s="199">
-        <f>H2/G2</f>
+      <c r="I2" s="186">
+        <f t="shared" ref="I2:I21" si="1">H2/G2</f>
         <v>3212.9807420497887</v>
       </c>
-      <c r="J2" s="197"/>
-      <c r="K2" s="204">
-        <f>(((U2-((1-U2/T2)*V2))/T2*V2*P2)+U2) * B2/(1+P2)</f>
+      <c r="J2" s="184"/>
+      <c r="K2" s="191">
+        <f t="shared" ref="K2:K21" si="2">(((U2-((1-U2/T2)*V2))/T2*V2*P2)+U2) * B2/(1+P2)</f>
         <v>51407.691872796619</v>
       </c>
-      <c r="L2" s="205">
-        <f>D2/E2 * 21600 * (1-Q2)</f>
+      <c r="L2" s="192">
+        <f t="shared" ref="L2:L20" si="3">D2/E2 * 21600 * (1-Q2)</f>
         <v>16.247224132848576</v>
       </c>
-      <c r="M2" s="206">
+      <c r="M2" s="193">
         <f>IF(Q2&gt;=0.8,1,G2/L2)</f>
         <v>1</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="154">
+      <c r="O2" s="141">
         <v>150</v>
       </c>
-      <c r="P2" s="154">
+      <c r="P2" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="213">
+      <c r="Q2" s="200">
         <v>0.9</v>
       </c>
-      <c r="R2" s="214">
-        <f>F2/C2</f>
+      <c r="R2" s="201">
+        <f t="shared" ref="R2:R21" si="4">F2/C2</f>
         <v>7.5757575757575756E-6</v>
       </c>
-      <c r="S2" s="214">
-        <f>D2/C2</f>
+      <c r="S2" s="201">
+        <f t="shared" ref="S2:S21" si="5">D2/C2</f>
         <v>2.3196969696969699E-3</v>
       </c>
-      <c r="T2" s="215">
-        <f>1/O2</f>
+      <c r="T2" s="202">
+        <f t="shared" ref="T2:T21" si="6">1/O2</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U2" s="216">
+      <c r="U2" s="203">
         <f>MIN(S2,T2)</f>
         <v>2.3196969696969699E-3</v>
       </c>
-      <c r="V2" s="217">
+      <c r="V2" s="204">
         <f>MIN(R2,T2)</f>
         <v>7.5757575757575756E-6</v>
       </c>
@@ -6578,70 +6649,70 @@
         <v>28713600</v>
       </c>
       <c r="C3" s="30">
-        <f>C2+(B2/(1-tr_tax))</f>
+        <f t="shared" ref="C3:C21" si="7">C2+(B2/(1-tr_tax))</f>
         <v>33036000000</v>
       </c>
-      <c r="D3" s="195">
+      <c r="D3" s="182">
         <v>77590000</v>
       </c>
-      <c r="E3" s="195">
+      <c r="E3" s="182">
         <v>12100000000</v>
       </c>
-      <c r="F3" s="195">
+      <c r="F3" s="182">
         <v>250000</v>
       </c>
-      <c r="G3" s="154">
-        <v>2</v>
-      </c>
-      <c r="H3" s="200">
-        <f>MAX(1,M3*K3)</f>
+      <c r="G3" s="141">
+        <v>1</v>
+      </c>
+      <c r="H3" s="187">
+        <f t="shared" si="0"/>
         <v>51893.163643856351</v>
       </c>
-      <c r="I3" s="201">
-        <f>H3/G3</f>
-        <v>25946.581821928175</v>
-      </c>
-      <c r="J3" s="197"/>
-      <c r="K3" s="207">
-        <f>(((U3-((1-U3/T3)*V3))/T3*V3*P3)+U3) * B3/(1+P3)</f>
+      <c r="I3" s="188">
+        <f t="shared" si="1"/>
         <v>51893.163643856351</v>
       </c>
-      <c r="L3" s="208">
-        <f>D3/E3 * 21600 * (1-Q3)</f>
+      <c r="J3" s="184"/>
+      <c r="K3" s="194">
+        <f t="shared" si="2"/>
+        <v>51893.163643856351</v>
+      </c>
+      <c r="L3" s="195">
+        <f t="shared" si="3"/>
         <v>27.701553719008263</v>
       </c>
-      <c r="M3" s="209">
+      <c r="M3" s="196">
         <f>IF(Q3&gt;=0.8,1,G3/L3)</f>
         <v>1</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="154">
+      <c r="O3" s="141">
         <v>150</v>
       </c>
-      <c r="P3" s="154">
+      <c r="P3" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q3" s="218">
+      <c r="Q3" s="205">
         <v>0.8</v>
       </c>
       <c r="R3" s="130">
-        <f>F3/C3</f>
+        <f t="shared" si="4"/>
         <v>7.5675021189005936E-6</v>
       </c>
       <c r="S3" s="130">
-        <f>D3/C3</f>
+        <f t="shared" si="5"/>
         <v>2.3486499576219882E-3</v>
       </c>
-      <c r="T3" s="219">
-        <f>1/O3</f>
+      <c r="T3" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U3" s="220">
-        <f t="shared" ref="U3:U16" si="0">MIN(S3,T3)</f>
+      <c r="U3" s="207">
+        <f t="shared" ref="U3:U16" si="8">MIN(S3,T3)</f>
         <v>2.3486499576219882E-3</v>
       </c>
-      <c r="V3" s="221">
-        <f t="shared" ref="V3:V16" si="1">MIN(R3,T3)</f>
+      <c r="V3" s="208">
+        <f t="shared" ref="V3:V16" si="9">MIN(R3,T3)</f>
         <v>7.5675021189005936E-6</v>
       </c>
     </row>
@@ -6654,72 +6725,63 @@
         <v>28627459.200000003</v>
       </c>
       <c r="C4" s="30">
-        <f>C3+(B3/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33071892000</v>
       </c>
-      <c r="D4" s="195">
-        <v>80000000</v>
-      </c>
-      <c r="E4" s="195">
-        <f>E3</f>
-        <v>12100000000</v>
-      </c>
-      <c r="F4" s="195">
-        <v>250000</v>
-      </c>
-      <c r="G4" s="154">
-        <v>40</v>
-      </c>
-      <c r="H4" s="200">
-        <f>MAX(1,M4*K4)</f>
-        <v>67841.705082774744</v>
-      </c>
-      <c r="I4" s="201">
-        <f>H4/G4</f>
-        <v>1696.0426270693686</v>
-      </c>
-      <c r="J4" s="197"/>
-      <c r="K4" s="207">
-        <f>(((U4-((1-U4/T4)*V4))/T4*V4*P4)+U4) * B4/(1+P4)</f>
-        <v>53286.57562865215</v>
-      </c>
-      <c r="L4" s="208">
-        <f>D4/E4 * 21600 * (1-Q4)</f>
-        <v>31.418181818181814</v>
-      </c>
-      <c r="M4" s="209">
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="184"/>
+      <c r="K4" s="194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="196" t="e">
         <f>IF(Q4&gt;=0.8,1,G4/L4)</f>
-        <v>1.2731481481481484</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="154">
+      <c r="O4" s="141">
         <v>150</v>
       </c>
-      <c r="P4" s="154">
+      <c r="P4" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q4" s="218">
+      <c r="Q4" s="205">
         <v>0.78</v>
       </c>
       <c r="R4" s="130">
-        <f>F4/C4</f>
-        <v>7.5592893203690921E-6</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S4" s="130">
-        <f>D4/C4</f>
-        <v>2.4189725825181094E-3</v>
-      </c>
-      <c r="T4" s="219">
-        <f>1/O4</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U4" s="220">
-        <f t="shared" si="0"/>
-        <v>2.4189725825181094E-3</v>
-      </c>
-      <c r="V4" s="221">
-        <f t="shared" si="1"/>
-        <v>7.5592893203690921E-6</v>
+      <c r="U4" s="207">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="208">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -6731,63 +6793,63 @@
         <v>28541576.8224</v>
       </c>
       <c r="C5" s="30">
-        <f>C4+(B4/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33107676324</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="200" t="e">
-        <f>MAX(1,M5*K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="201" t="e">
-        <f>H5/G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="207">
-        <f>(((U5-((1-U5/T5)*V5))/T5*V5*P5)+U5) * B5/(1+P5)</f>
+      <c r="D5" s="145"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="184"/>
+      <c r="K5" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="208" t="e">
-        <f>D5/E5 * 21600 * (1-Q5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="209" t="e">
-        <f>IF(OR(A5=212, A5=211),1,G5/L5)</f>
+      <c r="L5" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="196" t="e">
+        <f t="shared" ref="M5:M21" si="10">IF(OR(A5=212, A5=211),1,G5/L5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="154">
+      <c r="O5" s="141">
         <v>150</v>
       </c>
-      <c r="P5" s="154">
+      <c r="P5" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="218">
+      <c r="Q5" s="205">
         <f>Q4-0.02</f>
         <v>0.76</v>
       </c>
       <c r="R5" s="130">
-        <f>F5/C5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S5" s="130">
-        <f>D5/C5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T5" s="219">
-        <f>1/O5</f>
+      <c r="T5" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U5" s="220">
-        <f t="shared" si="0"/>
+      <c r="U5" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V5" s="221">
-        <f t="shared" si="1"/>
+      <c r="V5" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6800,63 +6862,63 @@
         <v>28455952.091932803</v>
       </c>
       <c r="C6" s="30">
-        <f>C5+(B5/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33143353295.028</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="200" t="e">
-        <f>MAX(1,M6*K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="201" t="e">
-        <f>H6/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="197"/>
-      <c r="K6" s="207">
-        <f>(((U6-((1-U6/T6)*V6))/T6*V6*P6)+U6) * B6/(1+P6)</f>
+      <c r="D6" s="145"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="184"/>
+      <c r="K6" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="208" t="e">
-        <f>D6/E6 * 21600 * (1-Q6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="209" t="e">
-        <f>IF(OR(A6=212, A6=211),1,G6/L6)</f>
+      <c r="L6" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="154">
+      <c r="O6" s="141">
         <v>150</v>
       </c>
-      <c r="P6" s="154">
+      <c r="P6" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q6" s="218">
-        <f t="shared" ref="Q6:Q18" si="2">Q5-0.02</f>
+      <c r="Q6" s="205">
+        <f t="shared" ref="Q6:Q18" si="11">Q5-0.02</f>
         <v>0.74</v>
       </c>
       <c r="R6" s="130">
-        <f>F6/C6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S6" s="130">
-        <f>D6/C6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="219">
-        <f>1/O6</f>
+      <c r="T6" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U6" s="220">
-        <f t="shared" si="0"/>
+      <c r="U6" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V6" s="221">
-        <f t="shared" si="1"/>
+      <c r="V6" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6869,63 +6931,63 @@
         <v>28370584.235657003</v>
       </c>
       <c r="C7" s="30">
-        <f>C6+(B6/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33178923235.142918</v>
       </c>
-      <c r="D7" s="158"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="200" t="e">
-        <f>MAX(1,M7*K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="201" t="e">
-        <f>H7/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="197"/>
-      <c r="K7" s="207">
-        <f>(((U7-((1-U7/T7)*V7))/T7*V7*P7)+U7) * B7/(1+P7)</f>
+      <c r="D7" s="145"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="184"/>
+      <c r="K7" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="208" t="e">
-        <f>D7/E7 * 21600 * (1-Q7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="209" t="e">
-        <f>IF(OR(A7=212, A7=211),1,G7/L7)</f>
+      <c r="L7" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="154">
+      <c r="O7" s="141">
         <v>150</v>
       </c>
-      <c r="P7" s="154">
+      <c r="P7" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q7" s="205">
+        <f t="shared" si="11"/>
         <v>0.72</v>
       </c>
       <c r="R7" s="130">
-        <f>F7/C7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S7" s="130">
-        <f>D7/C7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T7" s="219">
-        <f>1/O7</f>
+      <c r="T7" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U7" s="220">
-        <f t="shared" si="0"/>
+      <c r="U7" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V7" s="221">
-        <f t="shared" si="1"/>
+      <c r="V7" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6938,63 +7000,63 @@
         <v>28285472.482950032</v>
       </c>
       <c r="C8" s="30">
-        <f>C7+(B7/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33214386465.437489</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="200" t="e">
-        <f>MAX(1,M8*K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="201" t="e">
-        <f>H8/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="197"/>
-      <c r="K8" s="207">
-        <f>(((U8-((1-U8/T8)*V8))/T8*V8*P8)+U8) * B8/(1+P8)</f>
+      <c r="D8" s="145"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="184"/>
+      <c r="K8" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="208" t="e">
-        <f>D8/E8 * 21600 * (1-Q8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="209" t="e">
-        <f>IF(OR(A8=212, A8=211),1,G8/L8)</f>
+      <c r="L8" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="154">
+      <c r="O8" s="141">
         <v>150</v>
       </c>
-      <c r="P8" s="154">
+      <c r="P8" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q8" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="205">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="R8" s="130">
-        <f>F8/C8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S8" s="130">
-        <f>D8/C8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="219">
-        <f>1/O8</f>
+      <c r="T8" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U8" s="220">
-        <f t="shared" si="0"/>
+      <c r="U8" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V8" s="221">
-        <f t="shared" si="1"/>
+      <c r="V8" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7007,63 +7069,63 @@
         <v>28200616.065501183</v>
       </c>
       <c r="C9" s="30">
-        <f>C8+(B8/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33249743306.041176</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="200" t="e">
-        <f>MAX(1,M9*K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="201" t="e">
-        <f>H9/G9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="197"/>
-      <c r="K9" s="207">
-        <f>(((U9-((1-U9/T9)*V9))/T9*V9*P9)+U9) * B9/(1+P9)</f>
+      <c r="D9" s="145"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="184"/>
+      <c r="K9" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="208" t="e">
-        <f>D9/E9 * 21600 * (1-Q9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="209" t="e">
-        <f>IF(OR(A9=212, A9=211),1,G9/L9)</f>
+      <c r="L9" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="154">
+      <c r="O9" s="141">
         <v>150</v>
       </c>
-      <c r="P9" s="154">
+      <c r="P9" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q9" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="205">
+        <f t="shared" si="11"/>
         <v>0.67999999999999994</v>
       </c>
       <c r="R9" s="130">
-        <f>F9/C9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S9" s="130">
-        <f>D9/C9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="219">
-        <f>1/O9</f>
+      <c r="T9" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U9" s="220">
-        <f t="shared" si="0"/>
+      <c r="U9" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V9" s="221">
-        <f t="shared" si="1"/>
+      <c r="V9" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7076,63 +7138,63 @@
         <v>28116014.217304677</v>
       </c>
       <c r="C10" s="30">
-        <f>C9+(B9/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33284994076.123051</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="200" t="e">
-        <f>MAX(1,M10*K10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="201" t="e">
-        <f>H10/G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="197"/>
-      <c r="K10" s="207">
-        <f>(((U10-((1-U10/T10)*V10))/T10*V10*P10)+U10) * B10/(1+P10)</f>
+      <c r="D10" s="145"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="184"/>
+      <c r="K10" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="208" t="e">
-        <f>D10/E10 * 21600 * (1-Q10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="209" t="e">
-        <f>IF(OR(A10=212, A10=211),1,G10/L10)</f>
+      <c r="L10" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="154">
+      <c r="O10" s="141">
         <v>150</v>
       </c>
-      <c r="P10" s="154">
+      <c r="P10" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q10" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="205">
+        <f t="shared" si="11"/>
         <v>0.65999999999999992</v>
       </c>
       <c r="R10" s="130">
-        <f>F10/C10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S10" s="130">
-        <f>D10/C10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="219">
-        <f>1/O10</f>
+      <c r="T10" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U10" s="220">
-        <f t="shared" si="0"/>
+      <c r="U10" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V10" s="221">
-        <f t="shared" si="1"/>
+      <c r="V10" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7145,63 +7207,63 @@
         <v>28031666.174652763</v>
       </c>
       <c r="C11" s="30">
-        <f>C10+(B10/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33320139093.89468</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="200" t="e">
-        <f>MAX(1,M11*K11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="201" t="e">
-        <f>H11/G11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="197"/>
-      <c r="K11" s="207">
-        <f>(((U11-((1-U11/T11)*V11))/T11*V11*P11)+U11) * B11/(1+P11)</f>
+      <c r="D11" s="145"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="184"/>
+      <c r="K11" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="208" t="e">
-        <f>D11/E11 * 21600 * (1-Q11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="209" t="e">
-        <f>IF(OR(A11=212, A11=211),1,G11/L11)</f>
+      <c r="L11" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="154">
+      <c r="O11" s="141">
         <v>150</v>
       </c>
-      <c r="P11" s="154">
+      <c r="P11" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q11" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q11" s="205">
+        <f t="shared" si="11"/>
         <v>0.6399999999999999</v>
       </c>
       <c r="R11" s="130">
-        <f>F11/C11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="130">
-        <f>D11/C11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="219">
-        <f>1/O11</f>
+      <c r="T11" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U11" s="220">
-        <f t="shared" si="0"/>
+      <c r="U11" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V11" s="221">
-        <f t="shared" si="1"/>
+      <c r="V11" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7214,63 +7276,63 @@
         <v>27947571.176128805</v>
       </c>
       <c r="C12" s="30">
-        <f>C11+(B11/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33355178676.612995</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="200" t="e">
-        <f>MAX(1,M12*K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="201" t="e">
-        <f>H12/G12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="197"/>
-      <c r="K12" s="207">
-        <f>(((U12-((1-U12/T12)*V12))/T12*V12*P12)+U12) * B12/(1+P12)</f>
+      <c r="D12" s="145"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="184"/>
+      <c r="K12" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="208" t="e">
-        <f>D12/E12 * 21600 * (1-Q12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="209" t="e">
-        <f>IF(OR(A12=212, A12=211),1,G12/L12)</f>
+      <c r="L12" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="154">
+      <c r="O12" s="141">
         <v>150</v>
       </c>
-      <c r="P12" s="154">
+      <c r="P12" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q12" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q12" s="205">
+        <f t="shared" si="11"/>
         <v>0.61999999999999988</v>
       </c>
       <c r="R12" s="130">
-        <f>F12/C12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S12" s="130">
-        <f>D12/C12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="219">
-        <f>1/O12</f>
+      <c r="T12" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U12" s="220">
-        <f t="shared" si="0"/>
+      <c r="U12" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V12" s="221">
-        <f t="shared" si="1"/>
+      <c r="V12" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7283,63 +7345,63 @@
         <v>27863728.462600425</v>
       </c>
       <c r="C13" s="30">
-        <f>C12+(B12/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33390113140.583157</v>
       </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="200" t="e">
-        <f>MAX(1,M13*K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="201" t="e">
-        <f>H13/G13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="197"/>
-      <c r="K13" s="207">
-        <f>(((U13-((1-U13/T13)*V13))/T13*V13*P13)+U13) * B13/(1+P13)</f>
+      <c r="D13" s="145"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="184"/>
+      <c r="K13" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="208" t="e">
-        <f>D13/E13 * 21600 * (1-Q13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="209" t="e">
-        <f>IF(OR(A13=212, A13=211),1,G13/L13)</f>
+      <c r="L13" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="154">
+      <c r="O13" s="141">
         <v>150</v>
       </c>
-      <c r="P13" s="154">
+      <c r="P13" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q13" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="205">
+        <f t="shared" si="11"/>
         <v>0.59999999999999987</v>
       </c>
       <c r="R13" s="130">
-        <f>F13/C13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S13" s="130">
-        <f>D13/C13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="219">
-        <f>1/O13</f>
+      <c r="T13" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U13" s="220">
-        <f t="shared" si="0"/>
+      <c r="U13" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V13" s="221">
-        <f t="shared" si="1"/>
+      <c r="V13" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7352,63 +7414,63 @@
         <v>27780137.27721262</v>
       </c>
       <c r="C14" s="30">
-        <f>C13+(B13/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33424942801.161407</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="200" t="e">
-        <f>MAX(1,M14*K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="201" t="e">
-        <f>H14/G14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="197"/>
-      <c r="K14" s="207">
-        <f>(((U14-((1-U14/T14)*V14))/T14*V14*P14)+U14) * B14/(1+P14)</f>
+      <c r="D14" s="145"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="184"/>
+      <c r="K14" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="208" t="e">
-        <f>D14/E14 * 21600 * (1-Q14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="209" t="e">
-        <f>IF(OR(A14=212, A14=211),1,G14/L14)</f>
+      <c r="L14" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="154">
+      <c r="O14" s="141">
         <v>150</v>
       </c>
-      <c r="P14" s="154">
+      <c r="P14" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q14" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q14" s="205">
+        <f t="shared" si="11"/>
         <v>0.57999999999999985</v>
       </c>
       <c r="R14" s="130">
-        <f>F14/C14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S14" s="130">
-        <f>D14/C14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="219">
-        <f>1/O14</f>
+      <c r="T14" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U14" s="220">
-        <f t="shared" si="0"/>
+      <c r="U14" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V14" s="221">
-        <f t="shared" si="1"/>
+      <c r="V14" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7421,63 +7483,63 @@
         <v>27696796.86538098</v>
       </c>
       <c r="C15" s="30">
-        <f>C14+(B14/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33459667972.757923</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="200" t="e">
-        <f>MAX(1,M15*K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="201" t="e">
-        <f>H15/G15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="197"/>
-      <c r="K15" s="207">
-        <f>(((U15-((1-U15/T15)*V15))/T15*V15*P15)+U15) * B15/(1+P15)</f>
+      <c r="D15" s="145"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="184"/>
+      <c r="K15" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="208" t="e">
-        <f>D15/E15 * 21600 * (1-Q15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="209" t="e">
-        <f>IF(OR(A15=212, A15=211),1,G15/L15)</f>
+      <c r="L15" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="154">
+      <c r="O15" s="141">
         <v>150</v>
       </c>
-      <c r="P15" s="154">
+      <c r="P15" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q15" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="205">
+        <f t="shared" si="11"/>
         <v>0.55999999999999983</v>
       </c>
       <c r="R15" s="130">
-        <f>F15/C15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S15" s="130">
-        <f>D15/C15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="219">
-        <f>1/O15</f>
+      <c r="T15" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U15" s="220">
-        <f t="shared" si="0"/>
+      <c r="U15" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V15" s="221">
-        <f t="shared" si="1"/>
+      <c r="V15" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7490,63 +7552,63 @@
         <v>27613706.47478484</v>
       </c>
       <c r="C16" s="30">
-        <f>C15+(B15/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33494288968.839649</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="200" t="e">
-        <f>MAX(1,M16*K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="201" t="e">
-        <f>H16/G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="197"/>
-      <c r="K16" s="207">
-        <f>(((U16-((1-U16/T16)*V16))/T16*V16*P16)+U16) * B16/(1+P16)</f>
+      <c r="D16" s="145"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="184"/>
+      <c r="K16" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="208" t="e">
-        <f>D16/E16 * 21600 * (1-Q16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="209" t="e">
-        <f>IF(OR(A16=212, A16=211),1,G16/L16)</f>
+      <c r="L16" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="154">
+      <c r="O16" s="141">
         <v>150</v>
       </c>
-      <c r="P16" s="154">
+      <c r="P16" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q16" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="205">
+        <f t="shared" si="11"/>
         <v>0.53999999999999981</v>
       </c>
       <c r="R16" s="130">
-        <f>F16/C16</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S16" s="130">
-        <f>D16/C16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="219">
-        <f>1/O16</f>
+      <c r="T16" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U16" s="220">
-        <f t="shared" si="0"/>
+      <c r="U16" s="207">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V16" s="221">
-        <f t="shared" si="1"/>
+      <c r="V16" s="208">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7559,63 +7621,63 @@
         <v>27530865.355360486</v>
       </c>
       <c r="C17" s="30">
-        <f>C16+(B16/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33528806101.933128</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="200" t="e">
-        <f>MAX(1,M17*K17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="201" t="e">
-        <f>H17/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="197"/>
-      <c r="K17" s="207">
-        <f>(((U17-((1-U17/T17)*V17))/T17*V17*P17)+U17) * B17/(1+P17)</f>
+      <c r="D17" s="145"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="184"/>
+      <c r="K17" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="208" t="e">
-        <f>D17/E17 * 21600 * (1-Q17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="209" t="e">
-        <f>IF(OR(A17=212, A17=211),1,G17/L17)</f>
+      <c r="L17" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="154">
+      <c r="O17" s="141">
         <v>150</v>
       </c>
-      <c r="P17" s="154">
+      <c r="P17" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q17" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="205">
+        <f t="shared" si="11"/>
         <v>0.5199999999999998</v>
       </c>
       <c r="R17" s="130">
-        <f>F17/C17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="130">
-        <f>D17/C17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="219">
-        <f>1/O17</f>
+      <c r="T17" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U17" s="220">
-        <f t="shared" ref="U17:U20" si="3">MIN(S17,T17)</f>
+      <c r="U17" s="207">
+        <f t="shared" ref="U17:U20" si="12">MIN(S17,T17)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="221">
-        <f t="shared" ref="V17:V20" si="4">MIN(R17,T17)</f>
+      <c r="V17" s="208">
+        <f t="shared" ref="V17:V20" si="13">MIN(R17,T17)</f>
         <v>0</v>
       </c>
     </row>
@@ -7628,63 +7690,63 @@
         <v>27448272.759294406</v>
       </c>
       <c r="C18" s="30">
-        <f>C17+(B17/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33563219683.627331</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="200" t="e">
-        <f>MAX(1,M18*K18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="201" t="e">
-        <f>H18/G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="197"/>
-      <c r="K18" s="207">
-        <f>(((U18-((1-U18/T18)*V18))/T18*V18*P18)+U18) * B18/(1+P18)</f>
+      <c r="D18" s="145"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="184"/>
+      <c r="K18" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="208" t="e">
-        <f>D18/E18 * 21600 * (1-Q18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="209" t="e">
-        <f>IF(OR(A18=212, A18=211),1,G18/L18)</f>
+      <c r="L18" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="6"/>
-      <c r="O18" s="154">
+      <c r="O18" s="141">
         <v>150</v>
       </c>
-      <c r="P18" s="154">
+      <c r="P18" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q18" s="218">
-        <f t="shared" si="2"/>
+      <c r="Q18" s="205">
+        <f t="shared" si="11"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="R18" s="130">
-        <f>F18/C18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18" s="130">
-        <f>D18/C18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="219">
-        <f>1/O18</f>
+      <c r="T18" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U18" s="220">
-        <f t="shared" si="3"/>
+      <c r="U18" s="207">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V18" s="221">
-        <f t="shared" si="4"/>
+      <c r="V18" s="208">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7697,62 +7759,62 @@
         <v>27365927.941016521</v>
       </c>
       <c r="C19" s="30">
-        <f>C18+(B18/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33597530024.57645</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="200" t="e">
-        <f>MAX(1,M19*K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="201" t="e">
-        <f>H19/G19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="197"/>
-      <c r="K19" s="207">
-        <f>(((U19-((1-U19/T19)*V19))/T19*V19*P19)+U19) * B19/(1+P19)</f>
+      <c r="D19" s="145"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="184"/>
+      <c r="K19" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="208" t="e">
-        <f>D19/E19 * 21600 * (1-Q19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="209" t="e">
-        <f>IF(OR(A19=212, A19=211),1,G19/L19)</f>
+      <c r="L19" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="154">
+      <c r="O19" s="141">
         <v>150</v>
       </c>
-      <c r="P19" s="154">
+      <c r="P19" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q19" s="218">
+      <c r="Q19" s="205">
         <v>0.5</v>
       </c>
       <c r="R19" s="130">
-        <f>F19/C19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19" s="130">
-        <f>D19/C19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="219">
-        <f>1/O19</f>
+      <c r="T19" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U19" s="220">
-        <f t="shared" si="3"/>
+      <c r="U19" s="207">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V19" s="221">
-        <f t="shared" si="4"/>
+      <c r="V19" s="208">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7765,62 +7827,62 @@
         <v>27283830.157193471</v>
       </c>
       <c r="C20" s="30">
-        <f>C19+(B19/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33631737434.50272</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="200" t="e">
-        <f>MAX(1,M20*K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="201" t="e">
-        <f>H20/G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="197"/>
-      <c r="K20" s="207">
-        <f>(((U20-((1-U20/T20)*V20))/T20*V20*P20)+U20) * B20/(1+P20)</f>
+      <c r="D20" s="145"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="187" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="188" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="184"/>
+      <c r="K20" s="194">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="208" t="e">
-        <f>D20/E20 * 21600 * (1-Q20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="209" t="e">
-        <f>IF(OR(A20=212, A20=211),1,G20/L20)</f>
+      <c r="L20" s="195" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="196" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="6"/>
-      <c r="O20" s="154">
+      <c r="O20" s="141">
         <v>150</v>
       </c>
-      <c r="P20" s="154">
+      <c r="P20" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q20" s="218">
+      <c r="Q20" s="205">
         <v>0.5</v>
       </c>
       <c r="R20" s="130">
-        <f>F20/C20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S20" s="130">
-        <f>D20/C20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="219">
-        <f>1/O20</f>
+      <c r="T20" s="206">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U20" s="220">
-        <f t="shared" si="3"/>
+      <c r="U20" s="207">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V20" s="221">
-        <f t="shared" si="4"/>
+      <c r="V20" s="208">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7833,62 +7895,62 @@
         <v>27201978.666721888</v>
       </c>
       <c r="C21" s="30">
-        <f>C20+(B20/(1-tr_tax))</f>
+        <f t="shared" si="7"/>
         <v>33665842222.199211</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="202" t="e">
-        <f>MAX(1,M21*K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="203" t="e">
-        <f>H21/G21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="197"/>
-      <c r="K21" s="210">
-        <f>(((U21-((1-U21/T21)*V21))/T21*V21*P21)+U21) * B21/(1+P21)</f>
+      <c r="D21" s="145"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="189" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="190" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="184"/>
+      <c r="K21" s="197">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="211" t="e">
+      <c r="L21" s="198" t="e">
         <f>D21/E21 * 21600 * (1-#REF!)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="212" t="e">
-        <f>IF(OR(A21=212, A21=211),1,G21/L21)</f>
+      <c r="M21" s="199" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="6"/>
-      <c r="O21" s="154">
+      <c r="O21" s="141">
         <v>150</v>
       </c>
-      <c r="P21" s="154">
+      <c r="P21" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q21" s="222">
+      <c r="Q21" s="209">
         <v>0.5</v>
       </c>
-      <c r="R21" s="223">
-        <f>F21/C21</f>
+      <c r="R21" s="210">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="223">
-        <f>D21/C21</f>
+      <c r="S21" s="210">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="224">
-        <f>1/O21</f>
+      <c r="T21" s="211">
+        <f t="shared" si="6"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U21" s="225">
-        <f t="shared" ref="U21" si="5">MIN(S21,T21)</f>
+      <c r="U21" s="212">
+        <f t="shared" ref="U21" si="14">MIN(S21,T21)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="226">
-        <f t="shared" ref="V21" si="6">MIN(R21,T21)</f>
+      <c r="V21" s="213">
+        <f t="shared" ref="V21" si="15">MIN(R21,T21)</f>
         <v>0</v>
       </c>
     </row>
@@ -7900,33 +7962,33 @@
     </row>
     <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="159"/>
+        <v>121</v>
+      </c>
+      <c r="B23" s="146"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="228">
+        <v>110</v>
+      </c>
+      <c r="B24" s="215">
         <v>12100000000</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="229">
+        <v>102</v>
+      </c>
+      <c r="B25" s="216">
         <v>77590000</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="230">
+        <v>120</v>
+      </c>
+      <c r="B26" s="217">
         <v>0.8</v>
       </c>
     </row>
@@ -7936,282 +7998,282 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="196">
+        <v>104</v>
+      </c>
+      <c r="B28" s="183">
         <v>21600</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B29" s="30">
         <f>B28 *(1- B26)</f>
         <v>4319.9999999999991</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="K29" s="147"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="K29" s="134"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B30" s="123">
         <f>(B25/B24)</f>
         <v>6.4123966942148765E-3</v>
       </c>
-      <c r="C30" s="147"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="106"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="K30" s="147"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="K30" s="134"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B31" s="33">
         <f>B29*B30*(1-B30)</f>
         <v>27.523920367515874</v>
       </c>
-      <c r="C31" s="147"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="K31" s="147"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="K31" s="134"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B32" s="33">
         <f>SQRT(B31)</f>
         <v>5.246324462661061</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="K32" s="147"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="K32" s="134"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B33" s="33">
         <f>B32*3</f>
         <v>15.738973387983183</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="K33" s="147"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="K33" s="134"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="K34" s="147"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="K34" s="134"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="148"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="K35" s="147"/>
+        <v>98</v>
+      </c>
+      <c r="C35" s="135"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="K35" s="134"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>0</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" ref="B36:B46" si="7">_xlfn.BINOM.DIST(A36,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B36:B46" si="16">_xlfn.BINOM.DIST(A36,$B$29,$B$30,FALSE)</f>
         <v>8.5787424742408191E-13</v>
       </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="K36" s="147"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="K36" s="134"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3912283567281832E-11</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="K37" s="147"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="K37" s="134"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>3.3318689539006466E-10</v>
       </c>
-      <c r="C38" s="147"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="K38" s="147"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="K38" s="134"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>3</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>3.0943036026853557E-9</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="K39" s="147"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="K39" s="134"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>4</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.1547584123184318E-8</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="K40" s="147"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="K40" s="134"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>5</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.2001170280981276E-7</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="K41" s="147"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="K41" s="134"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>6</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5.5688652001625354E-7</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="K42" s="147"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="K42" s="134"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>7</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.2144319602761825E-6</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="K43" s="147"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="K43" s="134"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>8</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>7.7030962307082967E-6</v>
       </c>
-      <c r="C44" s="147"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="K44" s="147"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="K44" s="134"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>9</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3813051651289058E-5</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="K45" s="147"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="K45" s="134"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>10</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>6.6237897896988962E-5</v>
       </c>
       <c r="C46" s="22"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="K46" s="147"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="K46" s="134"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>11</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" ref="B47:B71" si="8">_xlfn.BINOM.DIST(A47,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B47:B71" si="17">_xlfn.BINOM.DIST(A47,$B$29,$B$30,FALSE)</f>
         <v>1.674574862288478E-4</v>
       </c>
     </row>
@@ -8220,7 +8282,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.8798347935082645E-4</v>
       </c>
     </row>
@@ -8229,7 +8291,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>8.2958133101376514E-4</v>
       </c>
     </row>
@@ -8238,7 +8300,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.6467177892207671E-3</v>
       </c>
     </row>
@@ -8247,7 +8309,7 @@
         <v>15</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0501085179459515E-3</v>
       </c>
     </row>
@@ -8256,7 +8318,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.2951929317913539E-3</v>
       </c>
     </row>
@@ -8265,7 +8327,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>8.6500462652800043E-3</v>
       </c>
     </row>
@@ -8274,7 +8336,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.334229530051086E-2</v>
       </c>
     </row>
@@ -8283,7 +8345,7 @@
         <v>19</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.949218871419426E-2</v>
       </c>
     </row>
@@ -8292,7 +8354,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.7046637762468788E-2</v>
       </c>
     </row>
@@ -8301,7 +8363,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.573350789041467E-2</v>
       </c>
     </row>
@@ -8310,7 +8372,7 @@
         <v>22</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.5054025419195766E-2</v>
       </c>
     </row>
@@ -8319,7 +8381,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.4323198720908183E-2</v>
       </c>
     </row>
@@ -8328,7 +8390,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.2755613973171212E-2</v>
       </c>
     </row>
@@ -8337,7 +8399,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.9580886822944887E-2</v>
       </c>
     </row>
@@ -8346,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4163952827374716E-2</v>
       </c>
     </row>
@@ -8355,7 +8417,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.6103426424509277E-2</v>
       </c>
     </row>
@@ -8364,7 +8426,7 @@
         <v>28</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.5287020427280027E-2</v>
       </c>
     </row>
@@ -8373,7 +8435,7 @@
         <v>29</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.1894363583656473E-2</v>
       </c>
     </row>
@@ -8382,7 +8444,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.6350637257853881E-2</v>
       </c>
     </row>
@@ -8391,7 +8453,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.9245267949752711E-2</v>
       </c>
     </row>
@@ -8400,7 +8462,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.1235701127282783E-2</v>
       </c>
     </row>
@@ -8409,7 +8471,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.2956258234079163E-2</v>
       </c>
     </row>
@@ -8418,7 +8480,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.494732279471547E-2</v>
       </c>
     </row>
@@ -8427,7 +8489,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.7612829454388844E-2</v>
       </c>
     </row>
@@ -8436,7 +8498,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" ref="B72:B85" si="9">_xlfn.BINOM.DIST(A72,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B72:B85" si="18">_xlfn.BINOM.DIST(A72,$B$29,$B$30,FALSE)</f>
         <v>2.1206650999804288E-2</v>
       </c>
     </row>
@@ -8445,7 +8507,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.5842826158980177E-2</v>
       </c>
     </row>
@@ -8454,7 +8516,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.1521524306282416E-2</v>
       </c>
     </row>
@@ -8463,7 +8525,7 @@
         <v>39</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.1621538840906289E-3</v>
       </c>
     </row>
@@ -8472,7 +8534,7 @@
         <v>40</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.6364125517034749E-3</v>
       </c>
     </row>
@@ -8481,7 +8543,7 @@
         <v>41</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.79643020777615E-3</v>
       </c>
     </row>
@@ -8490,7 +8552,7 @@
         <v>42</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.4956353430518972E-3</v>
       </c>
     </row>
@@ -8499,7 +8561,7 @@
         <v>43</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.6020133814552014E-3</v>
       </c>
     </row>
@@ -8508,7 +8570,7 @@
         <v>44</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.0047670318675311E-3</v>
       </c>
     </row>
@@ -8517,7 +8579,7 @@
         <v>45</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.1603189628761028E-4</v>
       </c>
     </row>
@@ -8526,7 +8588,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.6939762818308795E-4</v>
       </c>
     </row>
@@ -8535,7 +8597,7 @@
         <v>47</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.1674213884455729E-4</v>
       </c>
     </row>
@@ -8544,7 +8606,7 @@
         <v>48</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.2449375850702871E-4</v>
       </c>
     </row>
@@ -8553,7 +8615,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.0031799722954235E-5</v>
       </c>
     </row>
@@ -8562,7 +8624,7 @@
         <v>50</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" ref="B86:B96" si="10">_xlfn.BINOM.DIST(A86,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B86:B96" si="19">_xlfn.BINOM.DIST(A86,$B$29,$B$30,FALSE)</f>
         <v>3.859822871446303E-5</v>
       </c>
     </row>
@@ -8571,7 +8633,7 @@
         <v>51</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2.0851512904328676E-5</v>
       </c>
     </row>
@@ -8580,7 +8642,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.1045181467362338E-5</v>
       </c>
     </row>
@@ -8589,7 +8651,7 @@
         <v>53</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5.7389685665080539E-6</v>
       </c>
     </row>
@@ -8598,7 +8660,7 @@
         <v>54</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2.926005610768005E-6</v>
       </c>
     </row>
@@ -8607,7 +8669,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.4643527860552566E-6</v>
       </c>
     </row>
@@ -8616,7 +8678,7 @@
         <v>56</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7.1959660231094889E-7</v>
       </c>
     </row>
@@ -8625,7 +8687,7 @@
         <v>57</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.4733120122062147E-7</v>
       </c>
     </row>
@@ -8634,7 +8696,7 @@
         <v>58</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.6471891289187305E-7</v>
       </c>
     </row>
@@ -8643,7 +8705,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7.6774537199950821E-8</v>
       </c>
     </row>
@@ -8652,7 +8714,7 @@
         <v>60</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.5179508953316216E-8</v>
       </c>
     </row>
@@ -8667,8 +8729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1630D5C-5921-48B6-BAF0-B53CE33B013A}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8719,7 +8781,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>60</v>
@@ -10954,10 +11016,10 @@
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>54</v>
@@ -10969,25 +11031,25 @@
         <v>62</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J83" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
@@ -11177,7 +11239,7 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J92" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K92" s="31">
         <v>44</v>
@@ -11188,7 +11250,7 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J93" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K93" s="31">
         <v>1200</v>
@@ -11222,16 +11284,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="143" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="K2" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
+      <c r="E2" s="218" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="219"/>
+      <c r="G2" s="220"/>
+      <c r="K2" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="219"/>
+      <c r="M2" s="220"/>
     </row>
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="129" t="s">
@@ -11240,7 +11302,7 @@
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -11257,8 +11319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D04CE86-1F0E-4166-A6F8-93105C878FF5}">
   <dimension ref="A1:AT234"/>
   <sheetViews>
-    <sheetView topLeftCell="B44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="D60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11296,7 +11358,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="E1" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1" s="31">
         <f>$C$27</f>
@@ -11362,7 +11424,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="E2" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F2" s="71">
         <f>$C$39</f>
@@ -11412,7 +11474,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="E3" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F3" s="72">
         <f>$C$41</f>
@@ -11512,11 +11574,11 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="E5" s="94" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" s="103">
         <f>$C$28</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -11568,30 +11630,30 @@
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
       <c r="Z6" s="111"/>
       <c r="AA6" s="110"/>
       <c r="AB6" s="111"/>
@@ -11622,12 +11684,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="106">
+        <f>nOps</f>
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="138"/>
+      <c r="E7" s="221"/>
       <c r="F7" s="9">
         <f>C46</f>
         <v>4.3002606489227886E-2</v>
@@ -11739,13 +11802,13 @@
       <c r="D8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="138"/>
+      <c r="E8" s="221"/>
       <c r="F8" s="12">
         <f t="shared" ref="F8:F24" si="1">Y65*$C$36</f>
         <v>686401.71390719013</v>
       </c>
       <c r="G8" s="13">
-        <f t="dataTable" ref="G8:X24" dt2D="1" dtr="1" r1="C42" r2="C43" ca="1"/>
+        <f t="dataTable" ref="G8:X24" dt2D="1" dtr="1" r1="C42" r2="C43"/>
         <v>4.2987982061279677E-2</v>
       </c>
       <c r="H8" s="13">
@@ -11834,7 +11897,7 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="138"/>
+      <c r="E9" s="221"/>
       <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>1716004.2847679756</v>
@@ -11929,7 +11992,7 @@
       <c r="D10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="221"/>
       <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>6864017.1390719023</v>
@@ -12024,7 +12087,7 @@
       <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="138"/>
+      <c r="E11" s="221"/>
       <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>10296025.708607852</v>
@@ -12119,7 +12182,7 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="138"/>
+      <c r="E12" s="221"/>
       <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>20592051.417215705</v>
@@ -12214,7 +12277,7 @@
       <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="138"/>
+      <c r="E13" s="221"/>
       <c r="F13" s="12">
         <f t="shared" si="1"/>
         <v>33000000</v>
@@ -12309,7 +12372,7 @@
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="138"/>
+      <c r="E14" s="221"/>
       <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>44000000</v>
@@ -12393,7 +12456,7 @@
     <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="E15" s="138"/>
+      <c r="E15" s="221"/>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>55000000</v>
@@ -12485,7 +12548,7 @@
         <f>(1-C13/C12)</f>
         <v>0.6473181818181819</v>
       </c>
-      <c r="E16" s="138"/>
+      <c r="E16" s="221"/>
       <c r="F16" s="12">
         <f t="shared" si="1"/>
         <v>66000000</v>
@@ -12577,7 +12640,7 @@
         <f>C14 *C16</f>
         <v>4.9039256198347116E-6</v>
       </c>
-      <c r="E17" s="138"/>
+      <c r="E17" s="221"/>
       <c r="F17" s="12">
         <f t="shared" si="1"/>
         <v>88000000</v>
@@ -12669,7 +12732,7 @@
         <f>C13-C17</f>
         <v>2.3463081955922864E-3</v>
       </c>
-      <c r="E18" s="138"/>
+      <c r="E18" s="221"/>
       <c r="F18" s="12">
         <f t="shared" si="1"/>
         <v>110000000</v>
@@ -12761,7 +12824,7 @@
         <f>C18/C12</f>
         <v>0.35194622933884295</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="221"/>
       <c r="F19" s="12">
         <f t="shared" si="1"/>
         <v>132000000</v>
@@ -12853,7 +12916,7 @@
         <f>C14 * C8 *C19</f>
         <v>7.9987779395191582E-7</v>
       </c>
-      <c r="E20" s="138"/>
+      <c r="E20" s="221"/>
       <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>154000000</v>
@@ -12945,7 +13008,7 @@
         <f>C13+C20</f>
         <v>2.352011999006073E-3</v>
       </c>
-      <c r="E21" s="138"/>
+      <c r="E21" s="221"/>
       <c r="F21" s="12">
         <f t="shared" si="1"/>
         <v>176000000</v>
@@ -13037,7 +13100,7 @@
         <f>C9/(1+C8)</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="E22" s="138"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="12">
         <f t="shared" si="1"/>
         <v>187000000</v>
@@ -13130,7 +13193,7 @@
         <f>C22 * C21</f>
         <v>1.8092399992354405E-3</v>
       </c>
-      <c r="E23" s="138"/>
+      <c r="E23" s="221"/>
       <c r="F23" s="12">
         <f t="shared" si="1"/>
         <v>198000000</v>
@@ -13216,7 +13279,7 @@
       <c r="A24" s="126"/>
       <c r="B24" s="3"/>
       <c r="C24" s="98"/>
-      <c r="E24" s="138"/>
+      <c r="E24" s="221"/>
       <c r="F24" s="27">
         <f t="shared" si="1"/>
         <v>220000000</v>
@@ -13403,7 +13466,7 @@
     </row>
     <row r="26" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6"/>
       <c r="E26" s="17" t="s">
@@ -13504,7 +13567,7 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C27" s="105">
         <v>1</v>
@@ -13536,8 +13599,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="128">
-        <f>F170</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
@@ -13862,7 +13924,7 @@
         <v>12100000000</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F34" s="31">
         <f>$C$27</f>
@@ -13890,14 +13952,14 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C35" s="29">
         <f>CHOOSE(C27,C58,C59,C60,C61,C62)</f>
         <v>31578500.521042779</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F35" s="71">
         <f>$C$39</f>
@@ -13932,7 +13994,7 @@
         <v>220000000</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F36" s="72">
         <f>$C$41</f>
@@ -13996,32 +14058,32 @@
         <v>340</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F38" s="103">
         <f>$C$28</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="141" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="142"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
-      <c r="O38" s="142"/>
-      <c r="P38" s="142"/>
-      <c r="Q38" s="142"/>
-      <c r="R38" s="142"/>
-      <c r="S38" s="142"/>
-      <c r="T38" s="142"/>
-      <c r="U38" s="142"/>
-      <c r="V38" s="142"/>
-      <c r="W38" s="142"/>
-      <c r="X38" s="142"/>
+        <v>150</v>
+      </c>
+      <c r="G38" s="223" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="224"/>
+      <c r="N38" s="224"/>
+      <c r="O38" s="224"/>
+      <c r="P38" s="224"/>
+      <c r="Q38" s="224"/>
+      <c r="R38" s="224"/>
+      <c r="S38" s="224"/>
+      <c r="T38" s="224"/>
+      <c r="U38" s="224"/>
+      <c r="V38" s="224"/>
+      <c r="W38" s="224"/>
+      <c r="X38" s="224"/>
       <c r="Y38" s="6"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
@@ -14031,30 +14093,30 @@
       <c r="C39" s="127">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="133" t="s">
+      <c r="F39" s="228" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="133"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="133"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="134"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="228"/>
+      <c r="J39" s="228"/>
+      <c r="K39" s="228"/>
+      <c r="L39" s="228"/>
+      <c r="M39" s="228"/>
+      <c r="N39" s="228"/>
+      <c r="O39" s="228"/>
+      <c r="P39" s="228"/>
+      <c r="Q39" s="228"/>
+      <c r="R39" s="228"/>
+      <c r="S39" s="228"/>
+      <c r="T39" s="228"/>
+      <c r="U39" s="228"/>
+      <c r="V39" s="228"/>
+      <c r="W39" s="228"/>
+      <c r="X39" s="229"/>
       <c r="Y39" s="6"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
@@ -14064,7 +14126,7 @@
       <c r="C40" s="69">
         <v>1</v>
       </c>
-      <c r="E40" s="136"/>
+      <c r="E40" s="226"/>
       <c r="F40" s="9">
         <f>C46</f>
         <v>4.3002606489227886E-2</v>
@@ -14132,7 +14194,7 @@
       <c r="C41" s="69">
         <v>0.05</v>
       </c>
-      <c r="E41" s="136"/>
+      <c r="E41" s="226"/>
       <c r="F41" s="12">
         <v>500000</v>
       </c>
@@ -14141,55 +14203,55 @@
         <v>4.3017169785303455E-2</v>
       </c>
       <c r="H41" s="13">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3022047358620204E-2</v>
       </c>
       <c r="I41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3026928632692966E-2</v>
       </c>
       <c r="J41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3031813607521778E-2</v>
       </c>
       <c r="K41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3036702283106597E-2</v>
       </c>
       <c r="L41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3041594659447471E-2</v>
       </c>
       <c r="M41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3046490736544367E-2</v>
       </c>
       <c r="N41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3051390514397297E-2</v>
       </c>
       <c r="O41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3056293993006263E-2</v>
       </c>
       <c r="P41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3061201172371243E-2</v>
       </c>
       <c r="Q41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.3066112052492271E-2</v>
       </c>
       <c r="R41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>4.0712723484165075E-2</v>
       </c>
       <c r="S41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>3.6649761739317575E-2</v>
       </c>
       <c r="T41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>3.0555319122046329E-2</v>
       </c>
       <c r="U41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>2.6202145823995427E-2</v>
       </c>
       <c r="V41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>2.2937265850457255E-2</v>
       </c>
       <c r="W41" s="41">
-        <v>4.3017169785303455E-2</v>
+        <v>2.0397914759927572E-2</v>
       </c>
       <c r="X41" s="42">
-        <v>4.3017169785303455E-2</v>
+        <v>1.8366433887503818E-2</v>
       </c>
       <c r="Y41" s="6"/>
     </row>
@@ -14200,7 +14262,7 @@
       <c r="C42" s="70">
         <v>250000</v>
       </c>
-      <c r="E42" s="136"/>
+      <c r="E42" s="226"/>
       <c r="F42" s="12">
         <v>1000000</v>
       </c>
@@ -14208,55 +14270,55 @@
         <v>4.3046112981836686E-2</v>
       </c>
       <c r="H42" s="13">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3055853279180628E-2</v>
       </c>
       <c r="I42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3065608379548696E-2</v>
       </c>
       <c r="J42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.307537828294089E-2</v>
       </c>
       <c r="K42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3085162989357211E-2</v>
       </c>
       <c r="L42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3094962498797657E-2</v>
       </c>
       <c r="M42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3104776811262221E-2</v>
       </c>
       <c r="N42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3114605926750919E-2</v>
       </c>
       <c r="O42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3124449845263743E-2</v>
       </c>
       <c r="P42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3134308566800686E-2</v>
       </c>
       <c r="Q42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.3144182091361762E-2</v>
       </c>
       <c r="R42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>4.0795829519855144E-2</v>
       </c>
       <c r="S42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>3.6732867775007637E-2</v>
       </c>
       <c r="T42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>3.063842515773639E-2</v>
       </c>
       <c r="U42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>2.6285251859685495E-2</v>
       </c>
       <c r="V42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>2.3020371886147323E-2</v>
       </c>
       <c r="W42" s="41">
-        <v>4.3046112981836686E-2</v>
+        <v>2.0481020795617637E-2</v>
       </c>
       <c r="X42" s="42">
-        <v>4.3046112981836686E-2</v>
+        <v>1.8449539923193883E-2</v>
       </c>
       <c r="Y42" s="6"/>
     </row>
@@ -14267,7 +14329,7 @@
       <c r="C43" s="132">
         <v>77590000</v>
       </c>
-      <c r="E43" s="136"/>
+      <c r="E43" s="226"/>
       <c r="F43" s="12">
         <v>1500000</v>
       </c>
@@ -14275,55 +14337,55 @@
         <v>4.3074811650879362E-2</v>
       </c>
       <c r="H43" s="13">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3089399822960964E-2</v>
       </c>
       <c r="I43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3104021301846859E-2</v>
       </c>
       <c r="J43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3118676087537021E-2</v>
       </c>
       <c r="K43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3133364180031483E-2</v>
       </c>
       <c r="L43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3148085579330225E-2</v>
       </c>
       <c r="M43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.316284028543324E-2</v>
       </c>
       <c r="N43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3177628298340542E-2</v>
       </c>
       <c r="O43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3192449618052131E-2</v>
       </c>
       <c r="P43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3207304244567993E-2</v>
       </c>
       <c r="Q43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.3222192177888148E-2</v>
       </c>
       <c r="R43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>4.0878935555545198E-2</v>
       </c>
       <c r="S43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>3.6815973810697705E-2</v>
       </c>
       <c r="T43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>3.0721531193426452E-2</v>
       </c>
       <c r="U43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>2.636835789537556E-2</v>
       </c>
       <c r="V43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>2.3103477921837388E-2</v>
       </c>
       <c r="W43" s="41">
-        <v>4.3074811650879362E-2</v>
+        <v>2.0564126831307695E-2</v>
       </c>
       <c r="X43" s="42">
-        <v>4.3074811650879362E-2</v>
+        <v>1.8532645958883952E-2</v>
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="31"/>
@@ -14336,7 +14398,7 @@
         <f>C23 * C35 * (1-C30) *C40</f>
         <v>45706.469006838241</v>
       </c>
-      <c r="E44" s="136"/>
+      <c r="E44" s="226"/>
       <c r="F44" s="12">
         <v>3000000</v>
       </c>
@@ -14344,55 +14406,55 @@
         <v>4.3159440493064111E-2</v>
       </c>
       <c r="H44" s="13">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3188483193621466E-2</v>
       </c>
       <c r="I44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3217659121395968E-2</v>
       </c>
       <c r="J44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3246968276387597E-2</v>
       </c>
       <c r="K44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3276410658596366E-2</v>
       </c>
       <c r="L44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3305986268022255E-2</v>
       </c>
       <c r="M44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3335695104665284E-2</v>
       </c>
       <c r="N44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3365537168525446E-2</v>
       </c>
       <c r="O44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3395512459602735E-2</v>
       </c>
       <c r="P44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3425620977897157E-2</v>
       </c>
       <c r="Q44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.3455862723408706E-2</v>
       </c>
       <c r="R44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>4.112825366261539E-2</v>
       </c>
       <c r="S44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>3.7065291917767904E-2</v>
       </c>
       <c r="T44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>3.097084930049664E-2</v>
       </c>
       <c r="U44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>2.6617676002445745E-2</v>
       </c>
       <c r="V44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>2.3352796028907576E-2</v>
       </c>
       <c r="W44" s="41">
-        <v>4.3159440493064111E-2</v>
+        <v>2.0813444938377886E-2</v>
       </c>
       <c r="X44" s="42">
-        <v>4.3159440493064111E-2</v>
+        <v>1.8781964065954136E-2</v>
       </c>
       <c r="Y44" s="6"/>
       <c r="Z44" s="31"/>
@@ -14401,7 +14463,7 @@
       <c r="B45" s="22"/>
       <c r="C45" s="76"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="136"/>
+      <c r="E45" s="226"/>
       <c r="F45" s="12">
         <v>5000000</v>
       </c>
@@ -14409,55 +14471,55 @@
         <v>4.3268855564442717E-2</v>
       </c>
       <c r="H45" s="13">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3316963079580904E-2</v>
       </c>
       <c r="I45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3365440670322213E-2</v>
       </c>
       <c r="J45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3414288336666697E-2</v>
       </c>
       <c r="K45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3463506078614315E-2</v>
       </c>
       <c r="L45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3513093896165075E-2</v>
       </c>
       <c r="M45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.356305178931897E-2</v>
       </c>
       <c r="N45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3613379758076012E-2</v>
       </c>
       <c r="O45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.366407780243621E-2</v>
       </c>
       <c r="P45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3715145922399549E-2</v>
       </c>
       <c r="Q45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.3766584117966037E-2</v>
       </c>
       <c r="R45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>4.1460677805375643E-2</v>
       </c>
       <c r="S45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>3.7397716060528136E-2</v>
       </c>
       <c r="T45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>3.1303273443256882E-2</v>
       </c>
       <c r="U45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>2.6950100145205994E-2</v>
       </c>
       <c r="V45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>2.3685220171667822E-2</v>
       </c>
       <c r="W45" s="41">
-        <v>4.3268855564442717E-2</v>
+        <v>2.1145869081138132E-2</v>
       </c>
       <c r="X45" s="42">
-        <v>4.3268855564442717E-2</v>
+        <v>1.9114388208714382E-2</v>
       </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="31"/>
@@ -14471,7 +14533,7 @@
         <v>4.3002606489227886E-2</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="136"/>
+      <c r="E46" s="226"/>
       <c r="F46" s="12">
         <v>10000000</v>
       </c>
@@ -14479,55 +14541,55 @@
         <v>4.3525276318550764E-2</v>
       </c>
       <c r="H46" s="13">
-        <v>4.3525276318550764E-2</v>
+        <v>4.3620006419873299E-2</v>
       </c>
       <c r="I46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.3716216823608413E-2</v>
       </c>
       <c r="J46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.3813907529756106E-2</v>
       </c>
       <c r="K46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.3913078538316386E-2</v>
       </c>
       <c r="L46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.4013729849289231E-2</v>
       </c>
       <c r="M46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.4115861462674662E-2</v>
       </c>
       <c r="N46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.4219473378472672E-2</v>
       </c>
       <c r="O46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.4324565596683255E-2</v>
       </c>
       <c r="P46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.4431138117306417E-2</v>
       </c>
       <c r="Q46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.4539190940342172E-2</v>
       </c>
       <c r="R46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>4.2291738162276264E-2</v>
       </c>
       <c r="S46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>3.8228776417428764E-2</v>
       </c>
       <c r="T46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>3.2134333800157518E-2</v>
       </c>
       <c r="U46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>2.7781160502106623E-2</v>
       </c>
       <c r="V46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>2.4516280528568454E-2</v>
       </c>
       <c r="W46" s="41">
-        <v>4.3525276318550764E-2</v>
+        <v>2.1976929438038757E-2</v>
       </c>
       <c r="X46" s="42">
-        <v>4.3525276318550764E-2</v>
+        <v>1.9945448565615014E-2</v>
       </c>
       <c r="Y46" s="6"/>
       <c r="Z46" s="31"/>
@@ -14541,7 +14603,7 @@
         <v>4.0548583910610024E-2</v>
       </c>
       <c r="D47" s="18"/>
-      <c r="E47" s="136"/>
+      <c r="E47" s="226"/>
       <c r="F47" s="12">
         <v>15000000</v>
       </c>
@@ -14549,69 +14611,69 @@
         <v>4.3757244323603783E-2</v>
       </c>
       <c r="H47" s="13">
-        <v>4.3757244323603783E-2</v>
+        <v>4.3897112082156874E-2</v>
       </c>
       <c r="I47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.4040310521138243E-2</v>
       </c>
       <c r="J47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.4186839640547919E-2</v>
       </c>
       <c r="K47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.4336699440385902E-2</v>
       </c>
       <c r="L47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.4489889920652184E-2</v>
       </c>
       <c r="M47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.464641108134676E-2</v>
       </c>
       <c r="N47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.4806262922469642E-2</v>
       </c>
       <c r="O47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.4969445444020838E-2</v>
       </c>
       <c r="P47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.5135958646000326E-2</v>
       </c>
       <c r="Q47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.5305802528408108E-2</v>
       </c>
       <c r="R47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>4.3122798519176893E-2</v>
       </c>
       <c r="S47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>3.9059836774329393E-2</v>
       </c>
       <c r="T47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>3.2965394157058139E-2</v>
       </c>
       <c r="U47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>2.8612220859007248E-2</v>
       </c>
       <c r="V47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>2.5347340885469073E-2</v>
       </c>
       <c r="W47" s="41">
-        <v>4.3757244323603783E-2</v>
+        <v>2.2807989794939386E-2</v>
       </c>
       <c r="X47" s="42">
-        <v>4.3757244323603783E-2</v>
+        <v>2.0776508922515636E-2</v>
       </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="31"/>
     </row>
     <row r="48" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C48" s="40">
         <f>C46-C47</f>
         <v>2.4540225786178621E-3</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="136"/>
+      <c r="E48" s="226"/>
       <c r="F48" s="12">
         <v>20000000</v>
       </c>
@@ -14619,55 +14681,55 @@
         <v>4.3964759579601817E-2</v>
       </c>
       <c r="H48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.4148280066431608E-2</v>
       </c>
       <c r="I48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.433772176291171E-2</v>
       </c>
       <c r="J48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.4533084669042128E-2</v>
       </c>
       <c r="K48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.473436878482287E-2</v>
       </c>
       <c r="L48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.4941574110253908E-2</v>
       </c>
       <c r="M48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.5154700645335263E-2</v>
       </c>
       <c r="N48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.5373748390066936E-2</v>
       </c>
       <c r="O48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.5598717344448939E-2</v>
       </c>
       <c r="P48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.5829607508481231E-2</v>
       </c>
       <c r="Q48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.6066418882163854E-2</v>
       </c>
       <c r="R48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>4.3953858876077515E-2</v>
       </c>
       <c r="S48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>3.9890897131230028E-2</v>
       </c>
       <c r="T48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>3.3796454513958775E-2</v>
       </c>
       <c r="U48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>2.9443281215907873E-2</v>
       </c>
       <c r="V48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>2.6178401242369698E-2</v>
       </c>
       <c r="W48" s="13">
-        <v>4.3964759579601817E-2</v>
+        <v>2.3639050151840011E-2</v>
       </c>
       <c r="X48" s="16">
-        <v>4.3964759579601817E-2</v>
+        <v>2.1607569279416258E-2</v>
       </c>
       <c r="Y48" s="6"/>
       <c r="Z48" s="31"/>
@@ -14676,7 +14738,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="136"/>
+      <c r="E49" s="226"/>
       <c r="F49" s="12">
         <v>32000000</v>
       </c>
@@ -14684,55 +14746,55 @@
         <v>4.4363028977852673E-2</v>
       </c>
       <c r="H49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.4645257502414999E-2</v>
       </c>
       <c r="I49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.4942644323682113E-2</v>
       </c>
       <c r="J49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.5255189441654034E-2</v>
       </c>
       <c r="K49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.5582892856330763E-2</v>
       </c>
       <c r="L49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.5925754567712293E-2</v>
       </c>
       <c r="M49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.6283774575798617E-2</v>
       </c>
       <c r="N49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.6656952880589762E-2</v>
       </c>
       <c r="O49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.7045289482085695E-2</v>
       </c>
       <c r="P49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.7448784380286442E-2</v>
       </c>
       <c r="Q49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.786743757519199E-2</v>
       </c>
       <c r="R49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.5948403732639018E-2</v>
       </c>
       <c r="S49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>4.1885441987791518E-2</v>
       </c>
       <c r="T49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>3.5790999370520264E-2</v>
       </c>
       <c r="U49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>3.1437826072469373E-2</v>
       </c>
       <c r="V49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>2.8172946098931201E-2</v>
       </c>
       <c r="W49" s="13">
-        <v>4.4363028977852673E-2</v>
+        <v>2.5633595008401518E-2</v>
       </c>
       <c r="X49" s="46">
-        <v>4.4363028977852673E-2</v>
+        <v>2.3602114135977757E-2</v>
       </c>
       <c r="Y49" s="6"/>
       <c r="Z49" s="31"/>
@@ -14742,7 +14804,7 @@
         <v>70</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="E50" s="136"/>
+      <c r="E50" s="226"/>
       <c r="F50" s="12">
         <v>50000000</v>
       </c>
@@ -14750,55 +14812,55 @@
         <v>4.469634338543492E-2</v>
       </c>
       <c r="H50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.5110596733894753E-2</v>
       </c>
       <c r="I50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.556185764266904E-2</v>
       </c>
       <c r="J50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.6050126111757794E-2</v>
       </c>
       <c r="K50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.6575402141161001E-2</v>
       </c>
       <c r="L50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.7137685730878683E-2</v>
       </c>
       <c r="M50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.7736976880910831E-2</v>
       </c>
       <c r="N50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.8373275591257418E-2</v>
       </c>
       <c r="O50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.9046581861918494E-2</v>
       </c>
       <c r="P50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.9756895692894022E-2</v>
       </c>
       <c r="Q50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>5.0504217084183997E-2</v>
       </c>
       <c r="R50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.8940221017481265E-2</v>
       </c>
       <c r="S50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>4.4877259272633759E-2</v>
       </c>
       <c r="T50" s="13">
-        <v>4.469634338543492E-2</v>
+        <v>3.8782816655362519E-2</v>
       </c>
       <c r="U50" s="43">
-        <v>4.469634338543492E-2</v>
+        <v>3.3954751724796978E-2</v>
       </c>
       <c r="V50" s="43">
-        <v>4.469634338543492E-2</v>
+        <v>2.9710407759197359E-2</v>
       </c>
       <c r="W50" s="43">
-        <v>4.469634338543492E-2</v>
+        <v>2.6409251341508753E-2</v>
       </c>
       <c r="X50" s="46">
-        <v>4.469634338543492E-2</v>
+        <v>2.3768326207357884E-2</v>
       </c>
       <c r="Y50" s="6"/>
       <c r="Z50" s="31"/>
@@ -14811,7 +14873,7 @@
         <f>150 * 220000000</f>
         <v>33000000000</v>
       </c>
-      <c r="E51" s="136"/>
+      <c r="E51" s="226"/>
       <c r="F51" s="12">
         <v>76000000</v>
       </c>
@@ -14819,55 +14881,55 @@
         <v>4.4618318631341899E-2</v>
       </c>
       <c r="H51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>4.5189299328745811E-2</v>
       </c>
       <c r="I51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>4.5845782293500247E-2</v>
       </c>
       <c r="J51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>4.6587767525605228E-2</v>
       </c>
       <c r="K51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>4.7415255025060749E-2</v>
       </c>
       <c r="L51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>4.8328244791866787E-2</v>
       </c>
       <c r="M51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>4.9326736826023357E-2</v>
       </c>
       <c r="N51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>5.0410731127530486E-2</v>
       </c>
       <c r="O51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>5.158022769638812E-2</v>
       </c>
       <c r="P51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>5.2835226532596306E-2</v>
       </c>
       <c r="Q51" s="13">
-        <v>4.4618318631341899E-2</v>
+        <v>5.4175727636155031E-2</v>
       </c>
       <c r="R51" s="43">
-        <v>4.4618318631341899E-2</v>
+        <v>5.2818502683017507E-2</v>
       </c>
       <c r="S51" s="43">
-        <v>4.4618318631341899E-2</v>
+        <v>4.7536652414715767E-2</v>
       </c>
       <c r="T51" s="43">
-        <v>4.4618318631341899E-2</v>
+        <v>3.9613877012263134E-2</v>
       </c>
       <c r="U51" s="43">
-        <v>4.4618318631341899E-2</v>
+        <v>3.3954751724796978E-2</v>
       </c>
       <c r="V51" s="43">
-        <v>4.4618318631341899E-2</v>
+        <v>2.9710407759197359E-2</v>
       </c>
       <c r="W51" s="43">
-        <v>4.4618318631341899E-2</v>
+        <v>2.6409251341508753E-2</v>
       </c>
       <c r="X51" s="46">
-        <v>4.4618318631341899E-2</v>
+        <v>2.3768326207357884E-2</v>
       </c>
       <c r="Y51" s="6"/>
       <c r="Z51" s="31"/>
@@ -14880,7 +14942,7 @@
         <f>rho!F85</f>
         <v>35363311901.882751</v>
       </c>
-      <c r="E52" s="136"/>
+      <c r="E52" s="226"/>
       <c r="F52" s="12">
         <v>83000000</v>
       </c>
@@ -14949,7 +15011,7 @@
         <f>rho!F86</f>
         <v>36881611880.350235</v>
       </c>
-      <c r="E53" s="136"/>
+      <c r="E53" s="226"/>
       <c r="F53" s="12">
         <v>150000000</v>
       </c>
@@ -15018,7 +15080,7 @@
         <f>rho!F87</f>
         <v>38100893824.672676</v>
       </c>
-      <c r="E54" s="136"/>
+      <c r="E54" s="226"/>
       <c r="F54" s="12">
         <v>175000000</v>
       </c>
@@ -15087,7 +15149,7 @@
         <f>rho!F88</f>
         <v>39080047141.431122</v>
       </c>
-      <c r="E55" s="136"/>
+      <c r="E55" s="226"/>
       <c r="F55" s="12">
         <v>185000000</v>
       </c>
@@ -15153,7 +15215,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="31"/>
       <c r="D56" s="74"/>
-      <c r="E56" s="136"/>
+      <c r="E56" s="226"/>
       <c r="F56" s="12">
         <v>195000000</v>
       </c>
@@ -15223,7 +15285,7 @@
         <v>76</v>
       </c>
       <c r="C57" s="31"/>
-      <c r="E57" s="137"/>
+      <c r="E57" s="227"/>
       <c r="F57" s="27">
         <v>209968861</v>
       </c>
@@ -15364,7 +15426,7 @@
         <v>16702492.387978667</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F60" s="31">
         <f>$C$27</f>
@@ -15403,7 +15465,7 @@
         <v>13413059.13367733</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F61" s="71">
         <f>$C$39</f>
@@ -15442,7 +15504,7 @@
         <v>10771455.609404285</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F62" s="72">
         <f>$C$41</f>
@@ -15502,90 +15564,80 @@
     </row>
     <row r="64" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C64" s="75">
         <v>21600</v>
       </c>
       <c r="E64" s="94" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F64" s="103">
         <f>$C$28</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="140"/>
-      <c r="S64" s="140"/>
-      <c r="T64" s="140"/>
-      <c r="U64" s="140"/>
-      <c r="V64" s="140"/>
-      <c r="W64" s="140"/>
-      <c r="X64" s="140"/>
+        <v>150</v>
+      </c>
+      <c r="G64" s="230" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="230"/>
+      <c r="I64" s="230"/>
+      <c r="J64" s="230"/>
+      <c r="K64" s="230"/>
+      <c r="L64" s="230"/>
+      <c r="M64" s="230"/>
+      <c r="N64" s="230"/>
+      <c r="O64" s="230"/>
+      <c r="P64" s="230"/>
+      <c r="Q64" s="230"/>
+      <c r="R64" s="230"/>
+      <c r="S64" s="230"/>
+      <c r="T64" s="230"/>
+      <c r="U64" s="230"/>
+      <c r="V64" s="230"/>
+      <c r="W64" s="230"/>
+      <c r="X64" s="230"/>
       <c r="Y64" s="88">
         <v>0</v>
       </c>
       <c r="Z64" s="31"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="47">
-        <v>1</v>
-      </c>
       <c r="B65" s="6"/>
       <c r="C65" s="31"/>
-      <c r="E65" s="135" t="s">
+      <c r="E65" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="133" t="s">
+      <c r="F65" s="228" t="s">
         <v>66</v>
       </c>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="133"/>
-      <c r="P65" s="133"/>
-      <c r="Q65" s="133"/>
-      <c r="R65" s="133"/>
-      <c r="S65" s="133"/>
-      <c r="T65" s="133"/>
-      <c r="U65" s="133"/>
-      <c r="V65" s="133"/>
-      <c r="W65" s="133"/>
-      <c r="X65" s="134"/>
+      <c r="G65" s="228"/>
+      <c r="H65" s="228"/>
+      <c r="I65" s="228"/>
+      <c r="J65" s="228"/>
+      <c r="K65" s="228"/>
+      <c r="L65" s="228"/>
+      <c r="M65" s="228"/>
+      <c r="N65" s="228"/>
+      <c r="O65" s="228"/>
+      <c r="P65" s="228"/>
+      <c r="Q65" s="228"/>
+      <c r="R65" s="228"/>
+      <c r="S65" s="228"/>
+      <c r="T65" s="228"/>
+      <c r="U65" s="228"/>
+      <c r="V65" s="228"/>
+      <c r="W65" s="228"/>
+      <c r="X65" s="229"/>
       <c r="Y65" s="88">
         <v>3.1200077904872279E-3</v>
       </c>
       <c r="Z65" s="31"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="47">
-        <v>2</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="30">
-        <f>C58/$C$64 * (1-$C$30)</f>
-        <v>1169.5740933719549</v>
-      </c>
-      <c r="E66" s="136"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="30"/>
+      <c r="E66" s="226"/>
       <c r="F66" s="52">
         <f>C44</f>
         <v>45706.469006838241</v>
@@ -15668,74 +15720,67 @@
       <c r="Z66" s="31"/>
     </row>
     <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="47">
-        <v>3</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="30">
-        <f>C59/$C$64 * (1-$C$30)</f>
-        <v>770.31962377852938</v>
-      </c>
-      <c r="E67" s="136"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="30"/>
+      <c r="E67" s="226"/>
       <c r="F67" s="12">
         <v>500000</v>
       </c>
       <c r="G67" s="53">
-        <f t="dataTable" ref="G67:X83" dt2D="1" dtr="1" r1="C28" r2="C43"/>
+        <f t="dataTable" ref="G67:X83" dt2D="1" dtr="1" r1="C28" r2="C43" ca="1"/>
         <v>294.48853569605535</v>
       </c>
       <c r="H67" s="53">
-        <v>294.48853569605535</v>
+        <v>294.49694160851374</v>
       </c>
       <c r="I67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.50535385788322</v>
       </c>
       <c r="J67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.51377244416364</v>
       </c>
       <c r="K67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.52219736735509</v>
       </c>
       <c r="L67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.53062862745759</v>
       </c>
       <c r="M67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.53906622447101</v>
       </c>
       <c r="N67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.54751015839554</v>
       </c>
       <c r="O67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.55596042923099</v>
       </c>
       <c r="P67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.56441703697755</v>
       </c>
       <c r="Q67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.57287998163508</v>
       </c>
       <c r="R67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.58982488168317</v>
       </c>
       <c r="S67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.60679512937531</v>
       </c>
       <c r="T67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.64081166769176</v>
       </c>
       <c r="U67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.67492959658438</v>
       </c>
       <c r="V67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.70914891605327</v>
       </c>
       <c r="W67" s="54">
-        <v>294.48853569605535</v>
+        <v>294.74346962609832</v>
       </c>
       <c r="X67" s="55">
-        <v>294.48853569605535</v>
+        <v>294.77789172671959</v>
       </c>
       <c r="Y67" s="88">
         <v>3.1200077904872284E-2</v>
@@ -15743,17 +15788,10 @@
       <c r="Z67" s="31"/>
     </row>
     <row r="68" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="47">
-        <v>4</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="30">
-        <f>C60/$C$64 * (1-$C$30)</f>
-        <v>618.61082918439513</v>
-      </c>
-      <c r="E68" s="136"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="30"/>
+      <c r="E68" s="226"/>
       <c r="F68" s="90">
         <v>544000</v>
       </c>
@@ -15761,55 +15799,55 @@
         <v>320.40794341080777</v>
       </c>
       <c r="H68" s="91">
-        <v>320.40794341080777</v>
+        <v>320.41782513914569</v>
       </c>
       <c r="I68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.42771376204291</v>
       </c>
       <c r="J68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.43760927949933</v>
       </c>
       <c r="K68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.44751169151482</v>
       </c>
       <c r="L68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.45742099808956</v>
       </c>
       <c r="M68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.46733719922344</v>
       </c>
       <c r="N68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.4772602949165</v>
       </c>
       <c r="O68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.48719028516871</v>
       </c>
       <c r="P68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.49712716998027</v>
       </c>
       <c r="Q68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.50707094935086</v>
       </c>
       <c r="R68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.52697919176967</v>
       </c>
       <c r="S68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.54691501242519</v>
       </c>
       <c r="T68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.58686938844647</v>
       </c>
       <c r="U68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.62693407741466</v>
       </c>
       <c r="V68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.66710907932969</v>
       </c>
       <c r="W68" s="92">
-        <v>320.40794341080777</v>
+        <v>320.70739439419162</v>
       </c>
       <c r="X68" s="93">
-        <v>320.40794341080777</v>
+        <v>320.74779002200057</v>
       </c>
       <c r="Y68" s="88">
         <v>4.6800116857308421E-2</v>
@@ -15817,17 +15855,10 @@
       <c r="Z68" s="31"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="47">
-        <v>5</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="30">
-        <f>C61/$C$64 * (1-$C$30)</f>
-        <v>496.77996791397521</v>
-      </c>
-      <c r="E69" s="136"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="30"/>
+      <c r="E69" s="226"/>
       <c r="F69" s="12">
         <v>1000000</v>
       </c>
@@ -15835,55 +15866,55 @@
         <v>589.02725972733163</v>
       </c>
       <c r="H69" s="53">
-        <v>589.02725972733163</v>
+        <v>589.05243627478535</v>
       </c>
       <c r="I69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.07762549606105</v>
       </c>
       <c r="J69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.10282739115871</v>
       </c>
       <c r="K69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.12804196007846</v>
       </c>
       <c r="L69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.1532692028203</v>
       </c>
       <c r="M69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.1785091193841</v>
       </c>
       <c r="N69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.20376170976988</v>
       </c>
       <c r="O69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.22902697397762</v>
       </c>
       <c r="P69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.25430491200757</v>
       </c>
       <c r="Q69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.27959552385937</v>
       </c>
       <c r="R69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.33021476902923</v>
       </c>
       <c r="S69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.3808847094873</v>
       </c>
       <c r="T69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.48237667626734</v>
       </c>
       <c r="U69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.58407142420003</v>
       </c>
       <c r="V69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.68596895328517</v>
       </c>
       <c r="W69" s="54">
-        <v>589.02725972733163</v>
+        <v>589.78806926352252</v>
       </c>
       <c r="X69" s="55">
-        <v>589.02725972733163</v>
+        <v>589.8903723549123</v>
       </c>
       <c r="Y69" s="88">
         <v>9.3600233714616843E-2</v>
@@ -15891,14 +15922,10 @@
       <c r="Z69" s="31"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B70" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="30">
-        <f>C62/$C$64 * (1-$C$30)</f>
-        <v>398.94280034830689</v>
-      </c>
-      <c r="E70" s="136"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="30"/>
+      <c r="E70" s="226"/>
       <c r="F70" s="12">
         <v>1458717</v>
       </c>
@@ -15906,55 +15933,55 @@
         <v>859.24709947024166</v>
       </c>
       <c r="H70" s="53">
-        <v>859.24709947024166</v>
+        <v>859.2876619684414</v>
       </c>
       <c r="I70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.32824295416106</v>
       </c>
       <c r="J70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.36884242740041</v>
       </c>
       <c r="K70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.40946038815912</v>
       </c>
       <c r="L70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.45009683643752</v>
       </c>
       <c r="M70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.49075177223574</v>
       </c>
       <c r="N70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.53142519555331</v>
       </c>
       <c r="O70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.57211710639081</v>
       </c>
       <c r="P70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.61282750474788</v>
       </c>
       <c r="Q70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.65355639062443</v>
       </c>
       <c r="R70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.73506962493673</v>
       </c>
       <c r="S70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.8166568093277</v>
       </c>
       <c r="T70" s="54">
-        <v>859.24709947024166</v>
+        <v>859.98005302834486</v>
       </c>
       <c r="U70" s="54">
-        <v>859.24709947024166</v>
+        <v>860.14374504767682</v>
       </c>
       <c r="V70" s="54">
-        <v>859.24709947024166</v>
+        <v>860.30773286732301</v>
       </c>
       <c r="W70" s="54">
-        <v>859.24709947024166</v>
+        <v>860.47201648728321</v>
       </c>
       <c r="X70" s="55">
-        <v>859.24709947024166</v>
+        <v>860.63659590755788</v>
       </c>
       <c r="Y70" s="88">
         <v>0.15</v>
@@ -15964,7 +15991,7 @@
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="31"/>
-      <c r="E71" s="136"/>
+      <c r="E71" s="226"/>
       <c r="F71" s="12">
         <v>5000000</v>
       </c>
@@ -15972,55 +15999,55 @@
         <v>2945.3370519775422</v>
       </c>
       <c r="H71" s="53">
-        <v>2945.3370519775422</v>
+        <v>2945.496393604958</v>
       </c>
       <c r="I71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2945.6557986014841</v>
       </c>
       <c r="J71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2945.8152669671199</v>
       </c>
       <c r="K71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2945.9747987018654</v>
       </c>
       <c r="L71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2946.1343938057216</v>
       </c>
       <c r="M71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2946.294052278688</v>
       </c>
       <c r="N71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2946.4537741207646</v>
       </c>
       <c r="O71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2946.6135593319505</v>
       </c>
       <c r="P71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2946.7734079122474</v>
       </c>
       <c r="Q71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2946.9333198616541</v>
       </c>
       <c r="R71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2947.2533338677986</v>
       </c>
       <c r="S71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2947.5736013503829</v>
       </c>
       <c r="T71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2948.2148967448729</v>
       </c>
       <c r="U71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2948.8572060451256</v>
       </c>
       <c r="V71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2949.5005292511396</v>
       </c>
       <c r="W71" s="54">
-        <v>2945.3370519775422</v>
+        <v>2950.1448663629162</v>
       </c>
       <c r="X71" s="55">
-        <v>2945.3370519775422</v>
+        <v>2950.790217380455</v>
       </c>
       <c r="Y71" s="88">
         <v>0.2</v>
@@ -16031,7 +16058,7 @@
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="136"/>
+      <c r="E72" s="226"/>
       <c r="F72" s="12">
         <v>10000000</v>
       </c>
@@ -16039,55 +16066,55 @@
         <v>5890.724292290306</v>
       </c>
       <c r="H72" s="53">
-        <v>5890.724292290306</v>
+        <v>5891.0513402676743</v>
       </c>
       <c r="I72" s="54">
-        <v>5890.724292290306</v>
+        <v>5891.3785149832629</v>
       </c>
       <c r="J72" s="54">
-        <v>5890.724292290306</v>
+        <v>5891.7058164370719</v>
       </c>
       <c r="K72" s="54">
-        <v>5890.724292290306</v>
+        <v>5892.0332446290995</v>
       </c>
       <c r="L72" s="54">
-        <v>5890.724292290306</v>
+        <v>5892.3607995593484</v>
       </c>
       <c r="M72" s="54">
-        <v>5890.724292290306</v>
+        <v>5892.6884812278186</v>
       </c>
       <c r="N72" s="54">
-        <v>5890.724292290306</v>
+        <v>5893.0162896345073</v>
       </c>
       <c r="O72" s="54">
-        <v>5890.724292290306</v>
+        <v>5893.3442247794183</v>
       </c>
       <c r="P72" s="54">
-        <v>5890.724292290306</v>
+        <v>5893.6722866625478</v>
       </c>
       <c r="Q72" s="54">
-        <v>5890.724292290306</v>
+        <v>5894.0004752838977</v>
       </c>
       <c r="R72" s="54">
-        <v>5890.724292290306</v>
+        <v>5894.6572327412596</v>
       </c>
       <c r="S72" s="54">
-        <v>5890.724292290306</v>
+        <v>5895.3144971515021</v>
       </c>
       <c r="T72" s="54">
-        <v>5890.724292290306</v>
+        <v>5896.6305468306309</v>
       </c>
       <c r="U72" s="54">
-        <v>5890.724292290306</v>
+        <v>5897.9486243212814</v>
       </c>
       <c r="V72" s="54">
-        <v>5890.724292290306</v>
+        <v>5899.2687296234581</v>
       </c>
       <c r="W72" s="54">
-        <v>5890.724292290306</v>
+        <v>5900.5908627371582</v>
       </c>
       <c r="X72" s="55">
-        <v>5890.724292290306</v>
+        <v>5901.9150236623827</v>
       </c>
       <c r="Y72" s="88">
         <v>0.25</v>
@@ -16097,7 +16124,7 @@
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="E73" s="136"/>
+      <c r="E73" s="226"/>
       <c r="F73" s="12">
         <v>15000000</v>
       </c>
@@ -16105,55 +16132,55 @@
         <v>8836.1115326030686</v>
       </c>
       <c r="H73" s="53">
-        <v>8836.1115326030686</v>
+        <v>8836.6062869303896</v>
       </c>
       <c r="I73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8837.1012313650408</v>
       </c>
       <c r="J73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8837.5963659070239</v>
       </c>
       <c r="K73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8838.0916905563336</v>
       </c>
       <c r="L73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8838.5872053129751</v>
       </c>
       <c r="M73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8839.0829101769486</v>
       </c>
       <c r="N73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8839.5788051482505</v>
       </c>
       <c r="O73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8840.0748902268861</v>
       </c>
       <c r="P73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8840.5711654128481</v>
       </c>
       <c r="Q73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8841.0676307061422</v>
       </c>
       <c r="R73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8842.0611316147206</v>
       </c>
       <c r="S73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8843.0553929526213</v>
       </c>
       <c r="T73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8845.0461969163862</v>
       </c>
       <c r="U73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8847.0400425974403</v>
       </c>
       <c r="V73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8849.0369299957765</v>
       </c>
       <c r="W73" s="54">
-        <v>8836.1115326030686</v>
+        <v>8851.0368591114002</v>
       </c>
       <c r="X73" s="55">
-        <v>8836.1115326030686</v>
+        <v>8853.0398299443114</v>
       </c>
       <c r="Y73" s="88">
         <v>0.3</v>
@@ -16163,7 +16190,7 @@
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="E74" s="136"/>
+      <c r="E74" s="226"/>
       <c r="F74" s="12">
         <v>20000000</v>
       </c>
@@ -16171,55 +16198,55 @@
         <v>11781.498772915833</v>
       </c>
       <c r="H74" s="53">
-        <v>11781.498772915833</v>
+        <v>11782.161233593106</v>
       </c>
       <c r="I74" s="53">
-        <v>11781.498772915833</v>
+        <v>11782.82394774682</v>
       </c>
       <c r="J74" s="53">
-        <v>11781.498772915833</v>
+        <v>11783.486915376974</v>
       </c>
       <c r="K74" s="53">
-        <v>11781.498772915833</v>
+        <v>11784.150136483569</v>
       </c>
       <c r="L74" s="53">
-        <v>11781.498772915833</v>
+        <v>11784.813611066602</v>
       </c>
       <c r="M74" s="53">
-        <v>11781.498772915833</v>
+        <v>11785.477339126079</v>
       </c>
       <c r="N74" s="53">
-        <v>11781.498772915833</v>
+        <v>11786.141320661995</v>
       </c>
       <c r="O74" s="53">
-        <v>11781.498772915833</v>
+        <v>11786.805555674351</v>
       </c>
       <c r="P74" s="53">
-        <v>11781.498772915833</v>
+        <v>11787.470044163148</v>
       </c>
       <c r="Q74" s="53">
-        <v>11781.498772915833</v>
+        <v>11788.134786128385</v>
       </c>
       <c r="R74" s="53">
-        <v>11781.498772915833</v>
+        <v>11789.465030488182</v>
       </c>
       <c r="S74" s="53">
-        <v>11781.498772915833</v>
+        <v>11790.796288753741</v>
       </c>
       <c r="T74" s="53">
-        <v>11781.498772915833</v>
+        <v>11793.461847002145</v>
       </c>
       <c r="U74" s="53">
-        <v>11781.498772915833</v>
+        <v>11796.131460873596</v>
       </c>
       <c r="V74" s="53">
-        <v>11781.498772915833</v>
+        <v>11798.805130368095</v>
       </c>
       <c r="W74" s="53">
-        <v>11781.498772915833</v>
+        <v>11801.482855485643</v>
       </c>
       <c r="X74" s="56">
-        <v>11781.498772915833</v>
+        <v>11804.16463622624</v>
       </c>
       <c r="Y74" s="88">
         <v>0.4</v>
@@ -16229,7 +16256,7 @@
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="E75" s="136"/>
+      <c r="E75" s="226"/>
       <c r="F75" s="12">
         <v>32000000</v>
       </c>
@@ -16237,55 +16264,55 @@
         <v>18850.428149666466</v>
       </c>
       <c r="H75" s="53">
-        <v>18850.428149666466</v>
+        <v>18851.493105583624</v>
       </c>
       <c r="I75" s="53">
-        <v>18850.428149666466</v>
+        <v>18852.558467063089</v>
       </c>
       <c r="J75" s="53">
-        <v>18850.428149666466</v>
+        <v>18853.624234104853</v>
       </c>
       <c r="K75" s="53">
-        <v>18850.428149666466</v>
+        <v>18854.690406708931</v>
       </c>
       <c r="L75" s="53">
-        <v>18850.428149666466</v>
+        <v>18855.756984875305</v>
       </c>
       <c r="M75" s="53">
-        <v>18850.428149666466</v>
+        <v>18856.823968603992</v>
       </c>
       <c r="N75" s="53">
-        <v>18850.428149666466</v>
+        <v>18857.89135789498</v>
       </c>
       <c r="O75" s="53">
-        <v>18850.428149666466</v>
+        <v>18858.95915274827</v>
       </c>
       <c r="P75" s="53">
-        <v>18850.428149666466</v>
+        <v>18860.027353163867</v>
       </c>
       <c r="Q75" s="53">
-        <v>18850.428149666466</v>
+        <v>18861.09595914177</v>
       </c>
       <c r="R75" s="53">
-        <v>18850.428149666466</v>
+        <v>18863.234387784491</v>
       </c>
       <c r="S75" s="53">
-        <v>18850.428149666466</v>
+        <v>18865.374438676427</v>
       </c>
       <c r="T75" s="53">
-        <v>18850.428149666466</v>
+        <v>18869.659407207957</v>
       </c>
       <c r="U75" s="53">
-        <v>18850.428149666466</v>
+        <v>18873.950864736369</v>
       </c>
       <c r="V75" s="53">
-        <v>18850.428149666466</v>
+        <v>18878.248811261659</v>
       </c>
       <c r="W75" s="53">
-        <v>18850.428149666466</v>
+        <v>18882.553246783824</v>
       </c>
       <c r="X75" s="56">
-        <v>18850.428149666466</v>
+        <v>18886.864171302863</v>
       </c>
       <c r="Y75" s="88">
         <v>0.5</v>
@@ -16295,7 +16322,7 @@
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="E76" s="136"/>
+      <c r="E76" s="226"/>
       <c r="F76" s="12">
         <v>50000000</v>
       </c>
@@ -16303,55 +16330,55 @@
         <v>29453.822214792413</v>
       </c>
       <c r="H76" s="57">
-        <v>29453.822214792413</v>
+        <v>29455.4909135694</v>
       </c>
       <c r="I76" s="57">
-        <v>29453.822214792413</v>
+        <v>29457.160246037496</v>
       </c>
       <c r="J76" s="57">
-        <v>29453.822214792413</v>
+        <v>29458.830212196681</v>
       </c>
       <c r="K76" s="57">
-        <v>29453.822214792413</v>
+        <v>29460.500812046972</v>
       </c>
       <c r="L76" s="57">
-        <v>29453.822214792413</v>
+        <v>29462.172045588366</v>
       </c>
       <c r="M76" s="57">
-        <v>29453.822214792413</v>
+        <v>29463.843912820856</v>
       </c>
       <c r="N76" s="57">
-        <v>29453.822214792413</v>
+        <v>29465.516413744452</v>
       </c>
       <c r="O76" s="57">
-        <v>29453.822214792413</v>
+        <v>29467.189548359154</v>
       </c>
       <c r="P76" s="57">
-        <v>29453.822214792413</v>
+        <v>29468.863316664952</v>
       </c>
       <c r="Q76" s="57">
-        <v>29453.822214792413</v>
+        <v>29470.537718661846</v>
       </c>
       <c r="R76" s="57">
-        <v>29453.822214792413</v>
+        <v>29473.888423728949</v>
       </c>
       <c r="S76" s="57">
-        <v>29453.822214792413</v>
+        <v>29477.24166356046</v>
       </c>
       <c r="T76" s="57">
-        <v>29453.822214792413</v>
+        <v>29483.955747516688</v>
       </c>
       <c r="U76" s="57">
-        <v>29453.822214792413</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V76" s="57">
-        <v>29453.822214792413</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W76" s="57">
-        <v>29453.822214792413</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X76" s="58">
-        <v>29453.822214792413</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y76" s="88">
         <v>0.6</v>
@@ -16361,7 +16388,7 @@
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="E77" s="136"/>
+      <c r="E77" s="226"/>
       <c r="F77" s="12">
         <v>75000000</v>
       </c>
@@ -16369,55 +16396,55 @@
         <v>44180.758416356228</v>
       </c>
       <c r="H77" s="57">
-        <v>44180.758416356228</v>
+        <v>44183.265646882981</v>
       </c>
       <c r="I77" s="57">
-        <v>44180.758416356228</v>
+        <v>44185.773827946381</v>
       </c>
       <c r="J77" s="57">
-        <v>44180.758416356228</v>
+        <v>44188.282959546435</v>
       </c>
       <c r="K77" s="57">
-        <v>44180.758416356228</v>
+        <v>44190.793041683144</v>
       </c>
       <c r="L77" s="57">
-        <v>44180.758416356228</v>
+        <v>44193.304074356507</v>
       </c>
       <c r="M77" s="57">
-        <v>44180.758416356228</v>
+        <v>44195.81605756651</v>
       </c>
       <c r="N77" s="57">
-        <v>44180.758416356228</v>
+        <v>44198.328991313174</v>
       </c>
       <c r="O77" s="57">
-        <v>44180.758416356228</v>
+        <v>44200.842875596485</v>
       </c>
       <c r="P77" s="57">
-        <v>44180.758416356228</v>
+        <v>44203.357710416451</v>
       </c>
       <c r="Q77" s="57">
-        <v>44180.758416356228</v>
+        <v>44205.873495773063</v>
       </c>
       <c r="R77" s="57">
-        <v>44180.758416356228</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S77" s="57">
-        <v>44180.758416356228</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T77" s="57">
-        <v>44180.758416356228</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U77" s="57">
-        <v>44180.758416356228</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V77" s="57">
-        <v>44180.758416356228</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W77" s="57">
-        <v>44180.758416356228</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X77" s="58">
-        <v>44180.758416356228</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y77" s="88">
         <v>0.7</v>
@@ -16427,7 +16454,7 @@
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="E78" s="136"/>
+      <c r="E78" s="226"/>
       <c r="F78" s="12">
         <v>100000000</v>
       </c>
@@ -16435,55 +16462,55 @@
         <v>58907.69461792006</v>
       </c>
       <c r="H78" s="57">
-        <v>58907.69461792006</v>
+        <v>58911.040380196559</v>
       </c>
       <c r="I78" s="57">
-        <v>58907.69461792006</v>
+        <v>58914.387409855277</v>
       </c>
       <c r="J78" s="57">
-        <v>58907.69461792006</v>
+        <v>58917.735706896201</v>
       </c>
       <c r="K78" s="57">
-        <v>58907.69461792006</v>
+        <v>58921.085271319316</v>
       </c>
       <c r="L78" s="57">
-        <v>58907.69461792006</v>
+        <v>58924.43610312463</v>
       </c>
       <c r="M78" s="57">
-        <v>58907.69461792006</v>
+        <v>58927.788202312164</v>
       </c>
       <c r="N78" s="57">
-        <v>58907.69461792006</v>
+        <v>58931.141568881896</v>
       </c>
       <c r="O78" s="57">
-        <v>58907.69461792006</v>
+        <v>55566.804013750996</v>
       </c>
       <c r="P78" s="57">
-        <v>58907.69461792006</v>
+        <v>51865.294795167225</v>
       </c>
       <c r="Q78" s="57">
-        <v>58907.69461792006</v>
+        <v>48626.474228906431</v>
       </c>
       <c r="R78" s="57">
-        <v>58907.69461792006</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S78" s="57">
-        <v>58907.69461792006</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T78" s="57">
-        <v>58907.69461792006</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U78" s="57">
-        <v>58907.69461792006</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V78" s="57">
-        <v>58907.69461792006</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W78" s="57">
-        <v>58907.69461792006</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X78" s="58">
-        <v>58907.69461792006</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y78" s="88">
         <v>0.8</v>
@@ -16493,7 +16520,7 @@
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="E79" s="136"/>
+      <c r="E79" s="226"/>
       <c r="F79" s="12">
         <v>150000000</v>
       </c>
@@ -16501,55 +16528,55 @@
         <v>88361.567021047696</v>
       </c>
       <c r="H79" s="57">
-        <v>88361.567021047696</v>
+        <v>88366.589846823714</v>
       </c>
       <c r="I79" s="57">
-        <v>88361.567021047696</v>
+        <v>88371.614573673054</v>
       </c>
       <c r="J79" s="57">
-        <v>88361.567021047696</v>
+        <v>86412.714168615756</v>
       </c>
       <c r="K79" s="57">
-        <v>88361.567021047696</v>
+        <v>77775.859325253623</v>
       </c>
       <c r="L79" s="57">
-        <v>88361.567021047696</v>
+        <v>70709.341726139144</v>
       </c>
       <c r="M79" s="57">
-        <v>88361.567021047696</v>
+        <v>64820.577060210417</v>
       </c>
       <c r="N79" s="57">
-        <v>88361.567021047696</v>
+        <v>59837.776189039956</v>
       </c>
       <c r="O79" s="57">
-        <v>88361.567021047696</v>
+        <v>55566.804013750996</v>
       </c>
       <c r="P79" s="57">
-        <v>88361.567021047696</v>
+        <v>51865.294795167225</v>
       </c>
       <c r="Q79" s="57">
-        <v>88361.567021047696</v>
+        <v>48626.474228906431</v>
       </c>
       <c r="R79" s="57">
-        <v>88361.567021047696</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S79" s="57">
-        <v>88361.567021047696</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T79" s="57">
-        <v>88361.567021047696</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U79" s="57">
-        <v>88361.567021047696</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V79" s="57">
-        <v>88361.567021047696</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W79" s="57">
-        <v>88361.567021047696</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X79" s="58">
-        <v>88361.567021047696</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y79" s="88">
         <v>0.85</v>
@@ -16559,7 +16586,7 @@
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="E80" s="136"/>
+      <c r="E80" s="226"/>
       <c r="F80" s="12">
         <v>175000000</v>
       </c>
@@ -16567,55 +16594,55 @@
         <v>103088.50322261151</v>
       </c>
       <c r="H80" s="57">
-        <v>103088.50322261151</v>
+        <v>103094.36458013731</v>
       </c>
       <c r="I80" s="57">
-        <v>103088.50322261151</v>
+        <v>97208.782722818403</v>
       </c>
       <c r="J80" s="57">
-        <v>103088.50322261151</v>
+        <v>86412.714168615756</v>
       </c>
       <c r="K80" s="57">
-        <v>103088.50322261151</v>
+        <v>77775.859325253623</v>
       </c>
       <c r="L80" s="57">
-        <v>103088.50322261151</v>
+        <v>70709.341726139144</v>
       </c>
       <c r="M80" s="57">
-        <v>103088.50322261151</v>
+        <v>64820.577060210417</v>
       </c>
       <c r="N80" s="57">
-        <v>103088.50322261151</v>
+        <v>59837.776189039956</v>
       </c>
       <c r="O80" s="57">
-        <v>103088.50322261151</v>
+        <v>55566.804013750996</v>
       </c>
       <c r="P80" s="57">
-        <v>103088.50322261151</v>
+        <v>51865.294795167225</v>
       </c>
       <c r="Q80" s="57">
-        <v>103088.50322261151</v>
+        <v>48626.474228906431</v>
       </c>
       <c r="R80" s="57">
-        <v>103088.50322261151</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S80" s="57">
-        <v>103088.50322261151</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T80" s="57">
-        <v>103088.50322261151</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U80" s="57">
-        <v>103088.50322261151</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V80" s="57">
-        <v>103088.50322261151</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W80" s="57">
-        <v>103088.50322261151</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X80" s="58">
-        <v>103088.50322261151</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y80" s="88">
         <v>0.9</v>
@@ -16625,7 +16652,7 @@
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="6"/>
-      <c r="E81" s="136"/>
+      <c r="E81" s="226"/>
       <c r="F81" s="12">
         <v>185000000</v>
       </c>
@@ -16633,55 +16660,55 @@
         <v>108979.27770323702</v>
       </c>
       <c r="H81" s="57">
-        <v>108979.27770323702</v>
+        <v>108985.47447346273</v>
       </c>
       <c r="I81" s="57">
-        <v>108979.27770323702</v>
+        <v>97208.782722818403</v>
       </c>
       <c r="J81" s="57">
-        <v>108979.27770323702</v>
+        <v>86412.714168615756</v>
       </c>
       <c r="K81" s="57">
-        <v>108979.27770323702</v>
+        <v>77775.859325253623</v>
       </c>
       <c r="L81" s="57">
-        <v>108979.27770323702</v>
+        <v>70709.341726139144</v>
       </c>
       <c r="M81" s="57">
-        <v>108979.27770323702</v>
+        <v>64820.577060210417</v>
       </c>
       <c r="N81" s="57">
-        <v>108979.27770323702</v>
+        <v>59837.776189039956</v>
       </c>
       <c r="O81" s="57">
-        <v>108979.27770323702</v>
+        <v>55566.804013750996</v>
       </c>
       <c r="P81" s="57">
-        <v>108979.27770323702</v>
+        <v>51865.294795167225</v>
       </c>
       <c r="Q81" s="57">
-        <v>108979.27770323702</v>
+        <v>48626.474228906431</v>
       </c>
       <c r="R81" s="57">
-        <v>108979.27770323702</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S81" s="57">
-        <v>108979.27770323702</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T81" s="57">
-        <v>108979.27770323702</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U81" s="57">
-        <v>108979.27770323702</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V81" s="57">
-        <v>108979.27770323702</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W81" s="57">
-        <v>108979.27770323702</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X81" s="58">
-        <v>108979.27770323702</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y81" s="89">
         <v>1</v>
@@ -16691,7 +16718,7 @@
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
       <c r="C82" s="101"/>
-      <c r="E82" s="136"/>
+      <c r="E82" s="226"/>
       <c r="F82" s="12">
         <v>195000000</v>
       </c>
@@ -16699,55 +16726,55 @@
         <v>114870.05218386257</v>
       </c>
       <c r="H82" s="57">
-        <v>114870.05218386257</v>
+        <v>111089.44229250753</v>
       </c>
       <c r="I82" s="57">
-        <v>114870.05218386257</v>
+        <v>97208.782722818403</v>
       </c>
       <c r="J82" s="57">
-        <v>114870.05218386257</v>
+        <v>86412.714168615756</v>
       </c>
       <c r="K82" s="57">
-        <v>114870.05218386257</v>
+        <v>77775.859325253623</v>
       </c>
       <c r="L82" s="57">
-        <v>114870.05218386257</v>
+        <v>70709.341726139144</v>
       </c>
       <c r="M82" s="57">
-        <v>114870.05218386257</v>
+        <v>64820.577060210417</v>
       </c>
       <c r="N82" s="57">
-        <v>114870.05218386257</v>
+        <v>59837.776189039956</v>
       </c>
       <c r="O82" s="57">
-        <v>114870.05218386257</v>
+        <v>55566.804013750996</v>
       </c>
       <c r="P82" s="57">
-        <v>114870.05218386257</v>
+        <v>51865.294795167225</v>
       </c>
       <c r="Q82" s="57">
-        <v>114870.05218386257</v>
+        <v>48626.474228906431</v>
       </c>
       <c r="R82" s="57">
-        <v>114870.05218386257</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S82" s="57">
-        <v>114870.05218386257</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T82" s="57">
-        <v>114870.05218386257</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U82" s="57">
-        <v>114870.05218386257</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V82" s="57">
-        <v>114870.05218386257</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W82" s="57">
-        <v>114870.05218386257</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X82" s="58">
-        <v>114870.05218386257</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y82" s="6"/>
       <c r="Z82" s="31"/>
@@ -16755,7 +16782,7 @@
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
       <c r="C83" s="31"/>
-      <c r="E83" s="137"/>
+      <c r="E83" s="227"/>
       <c r="F83" s="27">
         <v>220000000</v>
       </c>
@@ -16763,70 +16790,70 @@
         <v>129596.98838542638</v>
       </c>
       <c r="H83" s="59">
-        <v>129596.98838542638</v>
+        <v>111089.44229250753</v>
       </c>
       <c r="I83" s="59">
-        <v>129596.98838542638</v>
+        <v>97208.782722818403</v>
       </c>
       <c r="J83" s="59">
-        <v>129596.98838542638</v>
+        <v>86412.714168615756</v>
       </c>
       <c r="K83" s="59">
-        <v>129596.98838542638</v>
+        <v>77775.859325253623</v>
       </c>
       <c r="L83" s="59">
-        <v>129596.98838542638</v>
+        <v>70709.341726139144</v>
       </c>
       <c r="M83" s="59">
-        <v>129596.98838542638</v>
+        <v>64820.577060210417</v>
       </c>
       <c r="N83" s="59">
-        <v>129596.98838542638</v>
+        <v>59837.776189039956</v>
       </c>
       <c r="O83" s="59">
-        <v>129596.98838542638</v>
+        <v>55566.804013750996</v>
       </c>
       <c r="P83" s="59">
-        <v>129596.98838542638</v>
+        <v>51865.294795167225</v>
       </c>
       <c r="Q83" s="59">
-        <v>129596.98838542638</v>
+        <v>48626.474228906431</v>
       </c>
       <c r="R83" s="59">
-        <v>129596.98838542638</v>
+        <v>43228.4399518051</v>
       </c>
       <c r="S83" s="59">
-        <v>129596.98838542638</v>
+        <v>38910.01253012404</v>
       </c>
       <c r="T83" s="59">
-        <v>129596.98838542638</v>
+        <v>32432.371397602448</v>
       </c>
       <c r="U83" s="59">
-        <v>129596.98838542638</v>
+        <v>27805.484874372727</v>
       </c>
       <c r="V83" s="59">
-        <v>129596.98838542638</v>
+        <v>24335.319981950452</v>
       </c>
       <c r="W83" s="59">
-        <v>129596.98838542638</v>
+        <v>21636.302843399782</v>
       </c>
       <c r="X83" s="60">
-        <v>129596.98838542638</v>
+        <v>19477.089132559249</v>
       </c>
       <c r="Y83" s="6"/>
       <c r="Z83" s="31"/>
     </row>
-    <row r="84" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="177"/>
-      <c r="C84" s="178"/>
-      <c r="Z84" s="161"/>
-    </row>
-    <row r="85" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="179"/>
-      <c r="Z85" s="161"/>
-    </row>
-    <row r="86" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="179"/>
+    <row r="84" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="164"/>
+      <c r="C84" s="165"/>
+      <c r="Z84" s="148"/>
+    </row>
+    <row r="85" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="166"/>
+      <c r="Z85" s="148"/>
+    </row>
+    <row r="86" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="166"/>
       <c r="E86" s="7"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -16846,192 +16873,192 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
       <c r="X86" s="8"/>
-      <c r="Z86" s="161"/>
-    </row>
-    <row r="87" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="180"/>
-      <c r="Z87" s="161"/>
-    </row>
-    <row r="88" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="181"/>
-      <c r="Z88" s="161"/>
-    </row>
-    <row r="89" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="181"/>
-      <c r="Z89" s="161"/>
-    </row>
-    <row r="90" spans="1:26" s="160" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Z90" s="161"/>
-    </row>
-    <row r="91" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="179"/>
-      <c r="D91" s="182"/>
-      <c r="Z91" s="161"/>
-    </row>
-    <row r="92" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z92" s="161"/>
-    </row>
-    <row r="93" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="179"/>
-      <c r="Z93" s="161"/>
-    </row>
-    <row r="94" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="183"/>
-      <c r="C94" s="184"/>
-      <c r="Z94" s="161"/>
-    </row>
-    <row r="95" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="161"/>
-      <c r="Z95" s="161"/>
-    </row>
-    <row r="96" spans="1:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="179"/>
-      <c r="Z96" s="161"/>
-    </row>
-    <row r="97" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="179"/>
-      <c r="Z97" s="161"/>
-    </row>
-    <row r="98" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="179"/>
-      <c r="Z98" s="161"/>
-    </row>
-    <row r="99" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z86" s="148"/>
+    </row>
+    <row r="87" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="167"/>
+      <c r="Z87" s="148"/>
+    </row>
+    <row r="88" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="168"/>
+      <c r="Z88" s="148"/>
+    </row>
+    <row r="89" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="168"/>
+      <c r="Z89" s="148"/>
+    </row>
+    <row r="90" spans="1:26" s="147" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z90" s="148"/>
+    </row>
+    <row r="91" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="166"/>
+      <c r="D91" s="169"/>
+      <c r="Z91" s="148"/>
+    </row>
+    <row r="92" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z92" s="148"/>
+    </row>
+    <row r="93" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="166"/>
+      <c r="Z93" s="148"/>
+    </row>
+    <row r="94" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="170"/>
+      <c r="C94" s="171"/>
+      <c r="Z94" s="148"/>
+    </row>
+    <row r="95" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="148"/>
+      <c r="Z95" s="148"/>
+    </row>
+    <row r="96" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="166"/>
+      <c r="Z96" s="148"/>
+    </row>
+    <row r="97" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="166"/>
+      <c r="Z97" s="148"/>
+    </row>
+    <row r="98" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="166"/>
+      <c r="Z98" s="148"/>
+    </row>
+    <row r="99" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
-      <c r="C99" s="185"/>
-      <c r="Z99" s="161"/>
-    </row>
-    <row r="100" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z100" s="161"/>
-    </row>
-    <row r="101" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="172"/>
+      <c r="Z99" s="148"/>
+    </row>
+    <row r="100" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z100" s="148"/>
+    </row>
+    <row r="101" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
-      <c r="C101" s="186"/>
-      <c r="Z101" s="161"/>
-    </row>
-    <row r="102" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="187"/>
-      <c r="C102" s="188"/>
-      <c r="Z102" s="161"/>
-    </row>
-    <row r="103" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="189"/>
-      <c r="C103" s="190"/>
-      <c r="Z103" s="161"/>
-    </row>
-    <row r="104" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="189"/>
-      <c r="C104" s="191"/>
-      <c r="Z104" s="161"/>
-    </row>
-    <row r="105" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="187"/>
-      <c r="C105" s="188"/>
-      <c r="Z105" s="161"/>
-    </row>
-    <row r="106" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="187"/>
-      <c r="C106" s="192"/>
-      <c r="Z106" s="161"/>
-    </row>
-    <row r="107" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z107" s="161"/>
-    </row>
-    <row r="108" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="187"/>
-      <c r="C108" s="191"/>
-      <c r="Z108" s="161"/>
-    </row>
-    <row r="109" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z109" s="161"/>
-    </row>
-    <row r="110" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z110" s="161"/>
-    </row>
-    <row r="111" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z111" s="161"/>
-    </row>
-    <row r="112" spans="2:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z112" s="161"/>
-    </row>
-    <row r="113" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z113" s="161"/>
-    </row>
-    <row r="114" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z114" s="161"/>
-    </row>
-    <row r="115" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z115" s="161"/>
-    </row>
-    <row r="116" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z116" s="161"/>
-    </row>
-    <row r="117" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z117" s="161"/>
-    </row>
-    <row r="118" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z118" s="161"/>
-    </row>
-    <row r="119" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z119" s="161"/>
-    </row>
-    <row r="120" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z120" s="161"/>
-    </row>
-    <row r="121" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z121" s="161"/>
-    </row>
-    <row r="122" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z122" s="161"/>
-    </row>
-    <row r="123" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z123" s="161"/>
-    </row>
-    <row r="124" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z124" s="161"/>
-    </row>
-    <row r="125" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z125" s="161"/>
-    </row>
-    <row r="126" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K126" s="162"/>
-      <c r="Z126" s="161"/>
-    </row>
-    <row r="127" spans="11:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z127" s="161"/>
-    </row>
-    <row r="128" spans="11:26" s="160" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Z128" s="161"/>
-    </row>
-    <row r="129" spans="5:26" s="160" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Z129" s="161"/>
-    </row>
-    <row r="130" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z130" s="161"/>
-    </row>
-    <row r="131" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z131" s="161"/>
-    </row>
-    <row r="132" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z132" s="161"/>
-    </row>
-    <row r="133" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z133" s="161"/>
-    </row>
-    <row r="134" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z134" s="161"/>
-    </row>
-    <row r="135" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z135" s="161"/>
-    </row>
-    <row r="136" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z136" s="161"/>
-    </row>
-    <row r="137" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z137" s="161"/>
-    </row>
-    <row r="138" spans="5:26" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Z138" s="161"/>
+      <c r="C101" s="173"/>
+      <c r="Z101" s="148"/>
+    </row>
+    <row r="102" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="174"/>
+      <c r="C102" s="175"/>
+      <c r="Z102" s="148"/>
+    </row>
+    <row r="103" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="176"/>
+      <c r="C103" s="177"/>
+      <c r="Z103" s="148"/>
+    </row>
+    <row r="104" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="176"/>
+      <c r="C104" s="178"/>
+      <c r="Z104" s="148"/>
+    </row>
+    <row r="105" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="174"/>
+      <c r="C105" s="175"/>
+      <c r="Z105" s="148"/>
+    </row>
+    <row r="106" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="174"/>
+      <c r="C106" s="179"/>
+      <c r="Z106" s="148"/>
+    </row>
+    <row r="107" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z107" s="148"/>
+    </row>
+    <row r="108" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="174"/>
+      <c r="C108" s="178"/>
+      <c r="Z108" s="148"/>
+    </row>
+    <row r="109" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z109" s="148"/>
+    </row>
+    <row r="110" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z110" s="148"/>
+    </row>
+    <row r="111" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z111" s="148"/>
+    </row>
+    <row r="112" spans="2:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z112" s="148"/>
+    </row>
+    <row r="113" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z113" s="148"/>
+    </row>
+    <row r="114" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z114" s="148"/>
+    </row>
+    <row r="115" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z115" s="148"/>
+    </row>
+    <row r="116" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z116" s="148"/>
+    </row>
+    <row r="117" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z117" s="148"/>
+    </row>
+    <row r="118" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z118" s="148"/>
+    </row>
+    <row r="119" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z119" s="148"/>
+    </row>
+    <row r="120" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z120" s="148"/>
+    </row>
+    <row r="121" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z121" s="148"/>
+    </row>
+    <row r="122" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z122" s="148"/>
+    </row>
+    <row r="123" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z123" s="148"/>
+    </row>
+    <row r="124" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z124" s="148"/>
+    </row>
+    <row r="125" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z125" s="148"/>
+    </row>
+    <row r="126" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K126" s="149"/>
+      <c r="Z126" s="148"/>
+    </row>
+    <row r="127" spans="11:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z127" s="148"/>
+    </row>
+    <row r="128" spans="11:26" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z128" s="148"/>
+    </row>
+    <row r="129" spans="5:26" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z129" s="148"/>
+    </row>
+    <row r="130" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z130" s="148"/>
+    </row>
+    <row r="131" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z131" s="148"/>
+    </row>
+    <row r="132" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z132" s="148"/>
+    </row>
+    <row r="133" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z133" s="148"/>
+    </row>
+    <row r="134" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z134" s="148"/>
+    </row>
+    <row r="135" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z135" s="148"/>
+    </row>
+    <row r="136" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z136" s="148"/>
+    </row>
+    <row r="137" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z137" s="148"/>
+    </row>
+    <row r="138" spans="5:26" s="147" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z138" s="148"/>
     </row>
     <row r="139" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Z139" s="109"/>
@@ -17043,480 +17070,480 @@
     </row>
     <row r="141" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E141" s="112"/>
-      <c r="F141" s="168"/>
-      <c r="G141" s="169"/>
+      <c r="F141" s="155"/>
+      <c r="G141" s="156"/>
       <c r="Z141" s="109"/>
     </row>
     <row r="142" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E142" s="112"/>
-      <c r="F142" s="170"/>
-      <c r="G142" s="169"/>
+      <c r="F142" s="157"/>
+      <c r="G142" s="156"/>
       <c r="Z142" s="109"/>
     </row>
     <row r="143" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E143" s="112"/>
-      <c r="F143" s="171"/>
-      <c r="G143" s="169"/>
+      <c r="F143" s="158"/>
+      <c r="G143" s="156"/>
       <c r="Z143" s="109"/>
     </row>
     <row r="144" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E144" s="112"/>
-      <c r="F144" s="172"/>
-      <c r="G144" s="194"/>
-      <c r="H144" s="194"/>
-      <c r="I144" s="194"/>
-      <c r="J144" s="194"/>
-      <c r="K144" s="194"/>
-      <c r="L144" s="194"/>
-      <c r="M144" s="194"/>
-      <c r="N144" s="194"/>
-      <c r="O144" s="194"/>
-      <c r="P144" s="194"/>
-      <c r="Q144" s="194"/>
-      <c r="R144" s="194"/>
-      <c r="S144" s="194"/>
-      <c r="T144" s="194"/>
-      <c r="U144" s="194"/>
-      <c r="V144" s="194"/>
-      <c r="W144" s="194"/>
-      <c r="X144" s="194"/>
+      <c r="F144" s="159"/>
+      <c r="G144" s="181"/>
+      <c r="H144" s="181"/>
+      <c r="I144" s="181"/>
+      <c r="J144" s="181"/>
+      <c r="K144" s="181"/>
+      <c r="L144" s="181"/>
+      <c r="M144" s="181"/>
+      <c r="N144" s="181"/>
+      <c r="O144" s="181"/>
+      <c r="P144" s="181"/>
+      <c r="Q144" s="181"/>
+      <c r="R144" s="181"/>
+      <c r="S144" s="181"/>
+      <c r="T144" s="181"/>
+      <c r="U144" s="181"/>
+      <c r="V144" s="181"/>
+      <c r="W144" s="181"/>
+      <c r="X144" s="181"/>
       <c r="Z144" s="109"/>
     </row>
     <row r="145" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E145" s="176"/>
-      <c r="F145" s="193"/>
-      <c r="G145" s="193"/>
-      <c r="H145" s="193"/>
-      <c r="I145" s="193"/>
-      <c r="J145" s="193"/>
-      <c r="K145" s="193"/>
-      <c r="L145" s="193"/>
-      <c r="M145" s="193"/>
-      <c r="N145" s="193"/>
-      <c r="O145" s="193"/>
-      <c r="P145" s="193"/>
-      <c r="Q145" s="193"/>
-      <c r="R145" s="193"/>
-      <c r="S145" s="193"/>
-      <c r="T145" s="193"/>
-      <c r="U145" s="193"/>
-      <c r="V145" s="193"/>
-      <c r="W145" s="193"/>
-      <c r="X145" s="193"/>
+      <c r="E145" s="163"/>
+      <c r="F145" s="180"/>
+      <c r="G145" s="180"/>
+      <c r="H145" s="180"/>
+      <c r="I145" s="180"/>
+      <c r="J145" s="180"/>
+      <c r="K145" s="180"/>
+      <c r="L145" s="180"/>
+      <c r="M145" s="180"/>
+      <c r="N145" s="180"/>
+      <c r="O145" s="180"/>
+      <c r="P145" s="180"/>
+      <c r="Q145" s="180"/>
+      <c r="R145" s="180"/>
+      <c r="S145" s="180"/>
+      <c r="T145" s="180"/>
+      <c r="U145" s="180"/>
+      <c r="V145" s="180"/>
+      <c r="W145" s="180"/>
+      <c r="X145" s="180"/>
       <c r="Z145" s="109"/>
     </row>
     <row r="146" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E146" s="176"/>
-      <c r="F146" s="173"/>
-      <c r="G146" s="174"/>
-      <c r="H146" s="174"/>
-      <c r="I146" s="174"/>
-      <c r="J146" s="174"/>
-      <c r="K146" s="174"/>
-      <c r="L146" s="174"/>
-      <c r="M146" s="174"/>
-      <c r="N146" s="174"/>
-      <c r="O146" s="174"/>
-      <c r="P146" s="174"/>
-      <c r="Q146" s="174"/>
-      <c r="R146" s="174"/>
-      <c r="S146" s="174"/>
-      <c r="T146" s="174"/>
-      <c r="U146" s="174"/>
-      <c r="V146" s="174"/>
-      <c r="W146" s="174"/>
-      <c r="X146" s="174"/>
+      <c r="E146" s="163"/>
+      <c r="F146" s="160"/>
+      <c r="G146" s="161"/>
+      <c r="H146" s="161"/>
+      <c r="I146" s="161"/>
+      <c r="J146" s="161"/>
+      <c r="K146" s="161"/>
+      <c r="L146" s="161"/>
+      <c r="M146" s="161"/>
+      <c r="N146" s="161"/>
+      <c r="O146" s="161"/>
+      <c r="P146" s="161"/>
+      <c r="Q146" s="161"/>
+      <c r="R146" s="161"/>
+      <c r="S146" s="161"/>
+      <c r="T146" s="161"/>
+      <c r="U146" s="161"/>
+      <c r="V146" s="161"/>
+      <c r="W146" s="161"/>
+      <c r="X146" s="161"/>
       <c r="Z146" s="109"/>
     </row>
     <row r="147" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E147" s="176"/>
-      <c r="F147" s="174"/>
-      <c r="G147" s="163"/>
-      <c r="H147" s="163"/>
-      <c r="I147" s="164"/>
-      <c r="J147" s="164"/>
-      <c r="K147" s="164"/>
-      <c r="L147" s="164"/>
-      <c r="M147" s="164"/>
-      <c r="N147" s="164"/>
-      <c r="O147" s="164"/>
-      <c r="P147" s="164"/>
-      <c r="Q147" s="164"/>
-      <c r="R147" s="164"/>
-      <c r="S147" s="164"/>
-      <c r="T147" s="164"/>
-      <c r="U147" s="164"/>
-      <c r="V147" s="164"/>
-      <c r="W147" s="164"/>
-      <c r="X147" s="164"/>
+      <c r="E147" s="163"/>
+      <c r="F147" s="161"/>
+      <c r="G147" s="150"/>
+      <c r="H147" s="150"/>
+      <c r="I147" s="151"/>
+      <c r="J147" s="151"/>
+      <c r="K147" s="151"/>
+      <c r="L147" s="151"/>
+      <c r="M147" s="151"/>
+      <c r="N147" s="151"/>
+      <c r="O147" s="151"/>
+      <c r="P147" s="151"/>
+      <c r="Q147" s="151"/>
+      <c r="R147" s="151"/>
+      <c r="S147" s="151"/>
+      <c r="T147" s="151"/>
+      <c r="U147" s="151"/>
+      <c r="V147" s="151"/>
+      <c r="W147" s="151"/>
+      <c r="X147" s="151"/>
       <c r="Z147" s="109"/>
     </row>
     <row r="148" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E148" s="176"/>
-      <c r="F148" s="174"/>
-      <c r="G148" s="163"/>
-      <c r="H148" s="163"/>
-      <c r="I148" s="164"/>
-      <c r="J148" s="164"/>
-      <c r="K148" s="164"/>
-      <c r="L148" s="164"/>
-      <c r="M148" s="164"/>
-      <c r="N148" s="164"/>
-      <c r="O148" s="164"/>
-      <c r="P148" s="164"/>
-      <c r="Q148" s="164"/>
-      <c r="R148" s="164"/>
-      <c r="S148" s="164"/>
-      <c r="T148" s="164"/>
-      <c r="U148" s="164"/>
-      <c r="V148" s="164"/>
-      <c r="W148" s="164"/>
-      <c r="X148" s="164"/>
+      <c r="E148" s="163"/>
+      <c r="F148" s="161"/>
+      <c r="G148" s="150"/>
+      <c r="H148" s="150"/>
+      <c r="I148" s="151"/>
+      <c r="J148" s="151"/>
+      <c r="K148" s="151"/>
+      <c r="L148" s="151"/>
+      <c r="M148" s="151"/>
+      <c r="N148" s="151"/>
+      <c r="O148" s="151"/>
+      <c r="P148" s="151"/>
+      <c r="Q148" s="151"/>
+      <c r="R148" s="151"/>
+      <c r="S148" s="151"/>
+      <c r="T148" s="151"/>
+      <c r="U148" s="151"/>
+      <c r="V148" s="151"/>
+      <c r="W148" s="151"/>
+      <c r="X148" s="151"/>
       <c r="Z148" s="109"/>
     </row>
     <row r="149" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E149" s="176"/>
-      <c r="F149" s="174"/>
-      <c r="G149" s="163"/>
-      <c r="H149" s="163"/>
-      <c r="I149" s="164"/>
-      <c r="J149" s="164"/>
-      <c r="K149" s="164"/>
-      <c r="L149" s="164"/>
-      <c r="M149" s="164"/>
-      <c r="N149" s="164"/>
-      <c r="O149" s="164"/>
-      <c r="P149" s="164"/>
-      <c r="Q149" s="164"/>
-      <c r="R149" s="164"/>
-      <c r="S149" s="164"/>
-      <c r="T149" s="164"/>
-      <c r="U149" s="164"/>
-      <c r="V149" s="164"/>
-      <c r="W149" s="164"/>
-      <c r="X149" s="164"/>
+      <c r="E149" s="163"/>
+      <c r="F149" s="161"/>
+      <c r="G149" s="150"/>
+      <c r="H149" s="150"/>
+      <c r="I149" s="151"/>
+      <c r="J149" s="151"/>
+      <c r="K149" s="151"/>
+      <c r="L149" s="151"/>
+      <c r="M149" s="151"/>
+      <c r="N149" s="151"/>
+      <c r="O149" s="151"/>
+      <c r="P149" s="151"/>
+      <c r="Q149" s="151"/>
+      <c r="R149" s="151"/>
+      <c r="S149" s="151"/>
+      <c r="T149" s="151"/>
+      <c r="U149" s="151"/>
+      <c r="V149" s="151"/>
+      <c r="W149" s="151"/>
+      <c r="X149" s="151"/>
       <c r="Z149" s="109"/>
     </row>
     <row r="150" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E150" s="176"/>
-      <c r="F150" s="174"/>
-      <c r="G150" s="163"/>
-      <c r="H150" s="163"/>
-      <c r="I150" s="164"/>
-      <c r="J150" s="164"/>
-      <c r="K150" s="164"/>
-      <c r="L150" s="164"/>
-      <c r="M150" s="164"/>
-      <c r="N150" s="164"/>
-      <c r="O150" s="164"/>
-      <c r="P150" s="164"/>
-      <c r="Q150" s="164"/>
-      <c r="R150" s="164"/>
-      <c r="S150" s="164"/>
-      <c r="T150" s="164"/>
-      <c r="U150" s="164"/>
-      <c r="V150" s="164"/>
-      <c r="W150" s="164"/>
-      <c r="X150" s="164"/>
+      <c r="E150" s="163"/>
+      <c r="F150" s="161"/>
+      <c r="G150" s="150"/>
+      <c r="H150" s="150"/>
+      <c r="I150" s="151"/>
+      <c r="J150" s="151"/>
+      <c r="K150" s="151"/>
+      <c r="L150" s="151"/>
+      <c r="M150" s="151"/>
+      <c r="N150" s="151"/>
+      <c r="O150" s="151"/>
+      <c r="P150" s="151"/>
+      <c r="Q150" s="151"/>
+      <c r="R150" s="151"/>
+      <c r="S150" s="151"/>
+      <c r="T150" s="151"/>
+      <c r="U150" s="151"/>
+      <c r="V150" s="151"/>
+      <c r="W150" s="151"/>
+      <c r="X150" s="151"/>
       <c r="Z150" s="109"/>
     </row>
     <row r="151" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E151" s="176"/>
-      <c r="F151" s="174"/>
-      <c r="G151" s="163"/>
-      <c r="H151" s="163"/>
-      <c r="I151" s="164"/>
-      <c r="J151" s="164"/>
-      <c r="K151" s="164"/>
-      <c r="L151" s="164"/>
-      <c r="M151" s="164"/>
-      <c r="N151" s="164"/>
-      <c r="O151" s="164"/>
-      <c r="P151" s="164"/>
-      <c r="Q151" s="164"/>
-      <c r="R151" s="164"/>
-      <c r="S151" s="164"/>
-      <c r="T151" s="164"/>
-      <c r="U151" s="164"/>
-      <c r="V151" s="164"/>
-      <c r="W151" s="164"/>
-      <c r="X151" s="164"/>
+      <c r="E151" s="163"/>
+      <c r="F151" s="161"/>
+      <c r="G151" s="150"/>
+      <c r="H151" s="150"/>
+      <c r="I151" s="151"/>
+      <c r="J151" s="151"/>
+      <c r="K151" s="151"/>
+      <c r="L151" s="151"/>
+      <c r="M151" s="151"/>
+      <c r="N151" s="151"/>
+      <c r="O151" s="151"/>
+      <c r="P151" s="151"/>
+      <c r="Q151" s="151"/>
+      <c r="R151" s="151"/>
+      <c r="S151" s="151"/>
+      <c r="T151" s="151"/>
+      <c r="U151" s="151"/>
+      <c r="V151" s="151"/>
+      <c r="W151" s="151"/>
+      <c r="X151" s="151"/>
       <c r="Z151" s="109"/>
     </row>
     <row r="152" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E152" s="176"/>
-      <c r="F152" s="174"/>
-      <c r="G152" s="163"/>
-      <c r="H152" s="163"/>
-      <c r="I152" s="164"/>
-      <c r="J152" s="164"/>
-      <c r="K152" s="164"/>
-      <c r="L152" s="164"/>
-      <c r="M152" s="164"/>
-      <c r="N152" s="164"/>
-      <c r="O152" s="164"/>
-      <c r="P152" s="164"/>
-      <c r="Q152" s="164"/>
-      <c r="R152" s="164"/>
-      <c r="S152" s="164"/>
-      <c r="T152" s="164"/>
-      <c r="U152" s="164"/>
-      <c r="V152" s="164"/>
-      <c r="W152" s="164"/>
-      <c r="X152" s="164"/>
+      <c r="E152" s="163"/>
+      <c r="F152" s="161"/>
+      <c r="G152" s="150"/>
+      <c r="H152" s="150"/>
+      <c r="I152" s="151"/>
+      <c r="J152" s="151"/>
+      <c r="K152" s="151"/>
+      <c r="L152" s="151"/>
+      <c r="M152" s="151"/>
+      <c r="N152" s="151"/>
+      <c r="O152" s="151"/>
+      <c r="P152" s="151"/>
+      <c r="Q152" s="151"/>
+      <c r="R152" s="151"/>
+      <c r="S152" s="151"/>
+      <c r="T152" s="151"/>
+      <c r="U152" s="151"/>
+      <c r="V152" s="151"/>
+      <c r="W152" s="151"/>
+      <c r="X152" s="151"/>
       <c r="Z152" s="109"/>
     </row>
     <row r="153" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E153" s="176"/>
-      <c r="F153" s="174"/>
-      <c r="G153" s="163"/>
-      <c r="H153" s="163"/>
-      <c r="I153" s="164"/>
-      <c r="J153" s="164"/>
-      <c r="K153" s="164"/>
-      <c r="L153" s="164"/>
-      <c r="M153" s="164"/>
-      <c r="N153" s="164"/>
-      <c r="O153" s="164"/>
-      <c r="P153" s="164"/>
-      <c r="Q153" s="164"/>
-      <c r="R153" s="164"/>
-      <c r="S153" s="164"/>
-      <c r="T153" s="164"/>
-      <c r="U153" s="164"/>
-      <c r="V153" s="164"/>
-      <c r="W153" s="164"/>
-      <c r="X153" s="164"/>
+      <c r="E153" s="163"/>
+      <c r="F153" s="161"/>
+      <c r="G153" s="150"/>
+      <c r="H153" s="150"/>
+      <c r="I153" s="151"/>
+      <c r="J153" s="151"/>
+      <c r="K153" s="151"/>
+      <c r="L153" s="151"/>
+      <c r="M153" s="151"/>
+      <c r="N153" s="151"/>
+      <c r="O153" s="151"/>
+      <c r="P153" s="151"/>
+      <c r="Q153" s="151"/>
+      <c r="R153" s="151"/>
+      <c r="S153" s="151"/>
+      <c r="T153" s="151"/>
+      <c r="U153" s="151"/>
+      <c r="V153" s="151"/>
+      <c r="W153" s="151"/>
+      <c r="X153" s="151"/>
       <c r="Z153" s="109"/>
     </row>
     <row r="154" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E154" s="176"/>
-      <c r="F154" s="174"/>
-      <c r="G154" s="163"/>
-      <c r="H154" s="163"/>
-      <c r="I154" s="163"/>
-      <c r="J154" s="163"/>
-      <c r="K154" s="163"/>
-      <c r="L154" s="163"/>
-      <c r="M154" s="163"/>
-      <c r="N154" s="163"/>
-      <c r="O154" s="163"/>
-      <c r="P154" s="163"/>
-      <c r="Q154" s="163"/>
-      <c r="R154" s="163"/>
-      <c r="S154" s="163"/>
-      <c r="T154" s="163"/>
-      <c r="U154" s="163"/>
-      <c r="V154" s="163"/>
-      <c r="W154" s="163"/>
-      <c r="X154" s="163"/>
+      <c r="E154" s="163"/>
+      <c r="F154" s="161"/>
+      <c r="G154" s="150"/>
+      <c r="H154" s="150"/>
+      <c r="I154" s="150"/>
+      <c r="J154" s="150"/>
+      <c r="K154" s="150"/>
+      <c r="L154" s="150"/>
+      <c r="M154" s="150"/>
+      <c r="N154" s="150"/>
+      <c r="O154" s="150"/>
+      <c r="P154" s="150"/>
+      <c r="Q154" s="150"/>
+      <c r="R154" s="150"/>
+      <c r="S154" s="150"/>
+      <c r="T154" s="150"/>
+      <c r="U154" s="150"/>
+      <c r="V154" s="150"/>
+      <c r="W154" s="150"/>
+      <c r="X154" s="150"/>
       <c r="Z154" s="109"/>
     </row>
     <row r="155" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E155" s="176"/>
-      <c r="F155" s="174"/>
-      <c r="G155" s="163"/>
-      <c r="H155" s="163"/>
-      <c r="I155" s="163"/>
-      <c r="J155" s="163"/>
-      <c r="K155" s="163"/>
-      <c r="L155" s="163"/>
-      <c r="M155" s="163"/>
-      <c r="N155" s="163"/>
-      <c r="O155" s="163"/>
-      <c r="P155" s="163"/>
-      <c r="Q155" s="163"/>
-      <c r="R155" s="163"/>
-      <c r="S155" s="163"/>
-      <c r="T155" s="163"/>
-      <c r="U155" s="163"/>
-      <c r="V155" s="163"/>
-      <c r="W155" s="163"/>
-      <c r="X155" s="163"/>
+      <c r="E155" s="163"/>
+      <c r="F155" s="161"/>
+      <c r="G155" s="150"/>
+      <c r="H155" s="150"/>
+      <c r="I155" s="150"/>
+      <c r="J155" s="150"/>
+      <c r="K155" s="150"/>
+      <c r="L155" s="150"/>
+      <c r="M155" s="150"/>
+      <c r="N155" s="150"/>
+      <c r="O155" s="150"/>
+      <c r="P155" s="150"/>
+      <c r="Q155" s="150"/>
+      <c r="R155" s="150"/>
+      <c r="S155" s="150"/>
+      <c r="T155" s="150"/>
+      <c r="U155" s="150"/>
+      <c r="V155" s="150"/>
+      <c r="W155" s="150"/>
+      <c r="X155" s="150"/>
       <c r="Z155" s="109"/>
     </row>
     <row r="156" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E156" s="176"/>
-      <c r="F156" s="174"/>
-      <c r="G156" s="165"/>
-      <c r="H156" s="165"/>
-      <c r="I156" s="165"/>
-      <c r="J156" s="165"/>
-      <c r="K156" s="165"/>
-      <c r="L156" s="165"/>
-      <c r="M156" s="165"/>
-      <c r="N156" s="165"/>
-      <c r="O156" s="165"/>
-      <c r="P156" s="165"/>
-      <c r="Q156" s="165"/>
-      <c r="R156" s="165"/>
-      <c r="S156" s="165"/>
-      <c r="T156" s="165"/>
-      <c r="U156" s="165"/>
-      <c r="V156" s="165"/>
-      <c r="W156" s="165"/>
-      <c r="X156" s="165"/>
+      <c r="E156" s="163"/>
+      <c r="F156" s="161"/>
+      <c r="G156" s="152"/>
+      <c r="H156" s="152"/>
+      <c r="I156" s="152"/>
+      <c r="J156" s="152"/>
+      <c r="K156" s="152"/>
+      <c r="L156" s="152"/>
+      <c r="M156" s="152"/>
+      <c r="N156" s="152"/>
+      <c r="O156" s="152"/>
+      <c r="P156" s="152"/>
+      <c r="Q156" s="152"/>
+      <c r="R156" s="152"/>
+      <c r="S156" s="152"/>
+      <c r="T156" s="152"/>
+      <c r="U156" s="152"/>
+      <c r="V156" s="152"/>
+      <c r="W156" s="152"/>
+      <c r="X156" s="152"/>
       <c r="Z156" s="109"/>
     </row>
     <row r="157" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E157" s="176"/>
-      <c r="F157" s="174"/>
-      <c r="G157" s="165"/>
-      <c r="H157" s="165"/>
-      <c r="I157" s="165"/>
-      <c r="J157" s="165"/>
-      <c r="K157" s="165"/>
-      <c r="L157" s="165"/>
-      <c r="M157" s="165"/>
-      <c r="N157" s="165"/>
-      <c r="O157" s="165"/>
-      <c r="P157" s="165"/>
-      <c r="Q157" s="165"/>
-      <c r="R157" s="165"/>
-      <c r="S157" s="165"/>
-      <c r="T157" s="165"/>
-      <c r="U157" s="165"/>
-      <c r="V157" s="165"/>
-      <c r="W157" s="165"/>
-      <c r="X157" s="165"/>
+      <c r="E157" s="163"/>
+      <c r="F157" s="161"/>
+      <c r="G157" s="152"/>
+      <c r="H157" s="152"/>
+      <c r="I157" s="152"/>
+      <c r="J157" s="152"/>
+      <c r="K157" s="152"/>
+      <c r="L157" s="152"/>
+      <c r="M157" s="152"/>
+      <c r="N157" s="152"/>
+      <c r="O157" s="152"/>
+      <c r="P157" s="152"/>
+      <c r="Q157" s="152"/>
+      <c r="R157" s="152"/>
+      <c r="S157" s="152"/>
+      <c r="T157" s="152"/>
+      <c r="U157" s="152"/>
+      <c r="V157" s="152"/>
+      <c r="W157" s="152"/>
+      <c r="X157" s="152"/>
       <c r="Z157" s="109"/>
     </row>
     <row r="158" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E158" s="176"/>
-      <c r="F158" s="174"/>
-      <c r="G158" s="165"/>
-      <c r="H158" s="165"/>
-      <c r="I158" s="165"/>
-      <c r="J158" s="165"/>
-      <c r="K158" s="165"/>
-      <c r="L158" s="165"/>
-      <c r="M158" s="165"/>
-      <c r="N158" s="165"/>
-      <c r="O158" s="165"/>
-      <c r="P158" s="165"/>
-      <c r="Q158" s="165"/>
-      <c r="R158" s="165"/>
-      <c r="S158" s="165"/>
-      <c r="T158" s="165"/>
-      <c r="U158" s="165"/>
-      <c r="V158" s="165"/>
-      <c r="W158" s="165"/>
-      <c r="X158" s="165"/>
+      <c r="E158" s="163"/>
+      <c r="F158" s="161"/>
+      <c r="G158" s="152"/>
+      <c r="H158" s="152"/>
+      <c r="I158" s="152"/>
+      <c r="J158" s="152"/>
+      <c r="K158" s="152"/>
+      <c r="L158" s="152"/>
+      <c r="M158" s="152"/>
+      <c r="N158" s="152"/>
+      <c r="O158" s="152"/>
+      <c r="P158" s="152"/>
+      <c r="Q158" s="152"/>
+      <c r="R158" s="152"/>
+      <c r="S158" s="152"/>
+      <c r="T158" s="152"/>
+      <c r="U158" s="152"/>
+      <c r="V158" s="152"/>
+      <c r="W158" s="152"/>
+      <c r="X158" s="152"/>
       <c r="Z158" s="109"/>
     </row>
     <row r="159" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E159" s="176"/>
-      <c r="F159" s="174"/>
-      <c r="G159" s="165"/>
-      <c r="H159" s="165"/>
-      <c r="I159" s="165"/>
-      <c r="J159" s="165"/>
-      <c r="K159" s="165"/>
-      <c r="L159" s="165"/>
-      <c r="M159" s="165"/>
-      <c r="N159" s="165"/>
-      <c r="O159" s="165"/>
-      <c r="P159" s="165"/>
-      <c r="Q159" s="165"/>
-      <c r="R159" s="165"/>
-      <c r="S159" s="165"/>
-      <c r="T159" s="165"/>
-      <c r="U159" s="165"/>
-      <c r="V159" s="165"/>
-      <c r="W159" s="165"/>
-      <c r="X159" s="165"/>
+      <c r="E159" s="163"/>
+      <c r="F159" s="161"/>
+      <c r="G159" s="152"/>
+      <c r="H159" s="152"/>
+      <c r="I159" s="152"/>
+      <c r="J159" s="152"/>
+      <c r="K159" s="152"/>
+      <c r="L159" s="152"/>
+      <c r="M159" s="152"/>
+      <c r="N159" s="152"/>
+      <c r="O159" s="152"/>
+      <c r="P159" s="152"/>
+      <c r="Q159" s="152"/>
+      <c r="R159" s="152"/>
+      <c r="S159" s="152"/>
+      <c r="T159" s="152"/>
+      <c r="U159" s="152"/>
+      <c r="V159" s="152"/>
+      <c r="W159" s="152"/>
+      <c r="X159" s="152"/>
       <c r="Z159" s="109"/>
     </row>
     <row r="160" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E160" s="176"/>
-      <c r="F160" s="174"/>
-      <c r="G160" s="165"/>
-      <c r="H160" s="165"/>
-      <c r="I160" s="165"/>
-      <c r="J160" s="165"/>
-      <c r="K160" s="165"/>
-      <c r="L160" s="165"/>
-      <c r="M160" s="165"/>
-      <c r="N160" s="165"/>
-      <c r="O160" s="165"/>
-      <c r="P160" s="165"/>
-      <c r="Q160" s="165"/>
-      <c r="R160" s="165"/>
-      <c r="S160" s="165"/>
-      <c r="T160" s="165"/>
-      <c r="U160" s="165"/>
-      <c r="V160" s="165"/>
-      <c r="W160" s="165"/>
-      <c r="X160" s="165"/>
+      <c r="E160" s="163"/>
+      <c r="F160" s="161"/>
+      <c r="G160" s="152"/>
+      <c r="H160" s="152"/>
+      <c r="I160" s="152"/>
+      <c r="J160" s="152"/>
+      <c r="K160" s="152"/>
+      <c r="L160" s="152"/>
+      <c r="M160" s="152"/>
+      <c r="N160" s="152"/>
+      <c r="O160" s="152"/>
+      <c r="P160" s="152"/>
+      <c r="Q160" s="152"/>
+      <c r="R160" s="152"/>
+      <c r="S160" s="152"/>
+      <c r="T160" s="152"/>
+      <c r="U160" s="152"/>
+      <c r="V160" s="152"/>
+      <c r="W160" s="152"/>
+      <c r="X160" s="152"/>
       <c r="Z160" s="109"/>
     </row>
     <row r="161" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E161" s="176"/>
-      <c r="F161" s="174"/>
-      <c r="G161" s="165"/>
-      <c r="H161" s="165"/>
-      <c r="I161" s="165"/>
-      <c r="J161" s="165"/>
-      <c r="K161" s="165"/>
-      <c r="L161" s="165"/>
-      <c r="M161" s="165"/>
-      <c r="N161" s="165"/>
-      <c r="O161" s="165"/>
-      <c r="P161" s="165"/>
-      <c r="Q161" s="165"/>
-      <c r="R161" s="165"/>
-      <c r="S161" s="165"/>
-      <c r="T161" s="165"/>
-      <c r="U161" s="165"/>
-      <c r="V161" s="165"/>
-      <c r="W161" s="165"/>
-      <c r="X161" s="165"/>
+      <c r="E161" s="163"/>
+      <c r="F161" s="161"/>
+      <c r="G161" s="152"/>
+      <c r="H161" s="152"/>
+      <c r="I161" s="152"/>
+      <c r="J161" s="152"/>
+      <c r="K161" s="152"/>
+      <c r="L161" s="152"/>
+      <c r="M161" s="152"/>
+      <c r="N161" s="152"/>
+      <c r="O161" s="152"/>
+      <c r="P161" s="152"/>
+      <c r="Q161" s="152"/>
+      <c r="R161" s="152"/>
+      <c r="S161" s="152"/>
+      <c r="T161" s="152"/>
+      <c r="U161" s="152"/>
+      <c r="V161" s="152"/>
+      <c r="W161" s="152"/>
+      <c r="X161" s="152"/>
       <c r="Z161" s="109"/>
     </row>
     <row r="162" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E162" s="176"/>
-      <c r="F162" s="174"/>
-      <c r="G162" s="165"/>
-      <c r="H162" s="165"/>
-      <c r="I162" s="165"/>
-      <c r="J162" s="165"/>
-      <c r="K162" s="165"/>
-      <c r="L162" s="165"/>
-      <c r="M162" s="165"/>
-      <c r="N162" s="165"/>
-      <c r="O162" s="165"/>
-      <c r="P162" s="165"/>
-      <c r="Q162" s="165"/>
-      <c r="R162" s="165"/>
-      <c r="S162" s="165"/>
-      <c r="T162" s="165"/>
-      <c r="U162" s="165"/>
-      <c r="V162" s="165"/>
-      <c r="W162" s="165"/>
-      <c r="X162" s="165"/>
+      <c r="E162" s="163"/>
+      <c r="F162" s="161"/>
+      <c r="G162" s="152"/>
+      <c r="H162" s="152"/>
+      <c r="I162" s="152"/>
+      <c r="J162" s="152"/>
+      <c r="K162" s="152"/>
+      <c r="L162" s="152"/>
+      <c r="M162" s="152"/>
+      <c r="N162" s="152"/>
+      <c r="O162" s="152"/>
+      <c r="P162" s="152"/>
+      <c r="Q162" s="152"/>
+      <c r="R162" s="152"/>
+      <c r="S162" s="152"/>
+      <c r="T162" s="152"/>
+      <c r="U162" s="152"/>
+      <c r="V162" s="152"/>
+      <c r="W162" s="152"/>
+      <c r="X162" s="152"/>
       <c r="Z162" s="109"/>
     </row>
     <row r="163" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E163" s="176"/>
-      <c r="F163" s="174"/>
-      <c r="G163" s="165"/>
-      <c r="H163" s="165"/>
-      <c r="I163" s="165"/>
-      <c r="J163" s="165"/>
-      <c r="K163" s="165"/>
-      <c r="L163" s="165"/>
-      <c r="M163" s="165"/>
-      <c r="N163" s="165"/>
-      <c r="O163" s="165"/>
-      <c r="P163" s="165"/>
-      <c r="Q163" s="165"/>
-      <c r="R163" s="165"/>
-      <c r="S163" s="165"/>
-      <c r="T163" s="165"/>
-      <c r="U163" s="165"/>
-      <c r="V163" s="165"/>
-      <c r="W163" s="165"/>
-      <c r="X163" s="165"/>
+      <c r="E163" s="163"/>
+      <c r="F163" s="161"/>
+      <c r="G163" s="152"/>
+      <c r="H163" s="152"/>
+      <c r="I163" s="152"/>
+      <c r="J163" s="152"/>
+      <c r="K163" s="152"/>
+      <c r="L163" s="152"/>
+      <c r="M163" s="152"/>
+      <c r="N163" s="152"/>
+      <c r="O163" s="152"/>
+      <c r="P163" s="152"/>
+      <c r="Q163" s="152"/>
+      <c r="R163" s="152"/>
+      <c r="S163" s="152"/>
+      <c r="T163" s="152"/>
+      <c r="U163" s="152"/>
+      <c r="V163" s="152"/>
+      <c r="W163" s="152"/>
+      <c r="X163" s="152"/>
       <c r="Z163" s="109"/>
     </row>
     <row r="164" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
@@ -17531,503 +17558,503 @@
     </row>
     <row r="167" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E167" s="112"/>
-      <c r="F167" s="168"/>
-      <c r="G167" s="169"/>
+      <c r="F167" s="155"/>
+      <c r="G167" s="156"/>
       <c r="Z167" s="109"/>
     </row>
     <row r="168" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E168" s="112"/>
-      <c r="F168" s="170"/>
-      <c r="G168" s="169"/>
+      <c r="F168" s="157"/>
+      <c r="G168" s="156"/>
       <c r="Z168" s="109"/>
     </row>
     <row r="169" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E169" s="112"/>
-      <c r="F169" s="171"/>
-      <c r="G169" s="169"/>
+      <c r="F169" s="158"/>
+      <c r="G169" s="156"/>
       <c r="Z169" s="109"/>
     </row>
     <row r="170" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E170" s="112"/>
-      <c r="F170" s="175"/>
-      <c r="G170" s="194"/>
-      <c r="H170" s="194"/>
-      <c r="I170" s="194"/>
-      <c r="J170" s="194"/>
-      <c r="K170" s="194"/>
-      <c r="L170" s="194"/>
-      <c r="M170" s="194"/>
-      <c r="N170" s="194"/>
-      <c r="O170" s="194"/>
-      <c r="P170" s="194"/>
-      <c r="Q170" s="194"/>
-      <c r="R170" s="194"/>
-      <c r="S170" s="194"/>
-      <c r="T170" s="194"/>
-      <c r="U170" s="194"/>
-      <c r="V170" s="194"/>
-      <c r="W170" s="194"/>
-      <c r="X170" s="194"/>
+      <c r="F170" s="162"/>
+      <c r="G170" s="181"/>
+      <c r="H170" s="181"/>
+      <c r="I170" s="181"/>
+      <c r="J170" s="181"/>
+      <c r="K170" s="181"/>
+      <c r="L170" s="181"/>
+      <c r="M170" s="181"/>
+      <c r="N170" s="181"/>
+      <c r="O170" s="181"/>
+      <c r="P170" s="181"/>
+      <c r="Q170" s="181"/>
+      <c r="R170" s="181"/>
+      <c r="S170" s="181"/>
+      <c r="T170" s="181"/>
+      <c r="U170" s="181"/>
+      <c r="V170" s="181"/>
+      <c r="W170" s="181"/>
+      <c r="X170" s="181"/>
       <c r="Z170" s="109"/>
     </row>
     <row r="171" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E171" s="176"/>
-      <c r="F171" s="193"/>
-      <c r="G171" s="193"/>
-      <c r="H171" s="193"/>
-      <c r="I171" s="193"/>
-      <c r="J171" s="193"/>
-      <c r="K171" s="193"/>
-      <c r="L171" s="193"/>
-      <c r="M171" s="193"/>
-      <c r="N171" s="193"/>
-      <c r="O171" s="193"/>
-      <c r="P171" s="193"/>
-      <c r="Q171" s="193"/>
-      <c r="R171" s="193"/>
-      <c r="S171" s="193"/>
-      <c r="T171" s="193"/>
-      <c r="U171" s="193"/>
-      <c r="V171" s="193"/>
-      <c r="W171" s="193"/>
-      <c r="X171" s="193"/>
+      <c r="E171" s="163"/>
+      <c r="F171" s="180"/>
+      <c r="G171" s="180"/>
+      <c r="H171" s="180"/>
+      <c r="I171" s="180"/>
+      <c r="J171" s="180"/>
+      <c r="K171" s="180"/>
+      <c r="L171" s="180"/>
+      <c r="M171" s="180"/>
+      <c r="N171" s="180"/>
+      <c r="O171" s="180"/>
+      <c r="P171" s="180"/>
+      <c r="Q171" s="180"/>
+      <c r="R171" s="180"/>
+      <c r="S171" s="180"/>
+      <c r="T171" s="180"/>
+      <c r="U171" s="180"/>
+      <c r="V171" s="180"/>
+      <c r="W171" s="180"/>
+      <c r="X171" s="180"/>
       <c r="Z171" s="109"/>
     </row>
     <row r="172" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E172" s="176"/>
-      <c r="F172" s="173"/>
-      <c r="G172" s="174"/>
-      <c r="H172" s="174"/>
-      <c r="I172" s="174"/>
-      <c r="J172" s="174"/>
-      <c r="K172" s="174"/>
-      <c r="L172" s="174"/>
-      <c r="M172" s="174"/>
-      <c r="N172" s="174"/>
-      <c r="O172" s="174"/>
-      <c r="P172" s="174"/>
-      <c r="Q172" s="174"/>
-      <c r="R172" s="174"/>
-      <c r="S172" s="174"/>
-      <c r="T172" s="174"/>
-      <c r="U172" s="174"/>
-      <c r="V172" s="174"/>
-      <c r="W172" s="174"/>
-      <c r="X172" s="174"/>
+      <c r="E172" s="163"/>
+      <c r="F172" s="160"/>
+      <c r="G172" s="161"/>
+      <c r="H172" s="161"/>
+      <c r="I172" s="161"/>
+      <c r="J172" s="161"/>
+      <c r="K172" s="161"/>
+      <c r="L172" s="161"/>
+      <c r="M172" s="161"/>
+      <c r="N172" s="161"/>
+      <c r="O172" s="161"/>
+      <c r="P172" s="161"/>
+      <c r="Q172" s="161"/>
+      <c r="R172" s="161"/>
+      <c r="S172" s="161"/>
+      <c r="T172" s="161"/>
+      <c r="U172" s="161"/>
+      <c r="V172" s="161"/>
+      <c r="W172" s="161"/>
+      <c r="X172" s="161"/>
       <c r="Z172" s="109"/>
     </row>
     <row r="173" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E173" s="176"/>
-      <c r="F173" s="174"/>
-      <c r="G173" s="163"/>
-      <c r="H173" s="166"/>
-      <c r="I173" s="166"/>
-      <c r="J173" s="166"/>
-      <c r="K173" s="166"/>
-      <c r="L173" s="166"/>
-      <c r="M173" s="166"/>
-      <c r="N173" s="166"/>
-      <c r="O173" s="166"/>
-      <c r="P173" s="166"/>
-      <c r="Q173" s="166"/>
-      <c r="R173" s="167"/>
-      <c r="S173" s="167"/>
-      <c r="T173" s="167"/>
-      <c r="U173" s="167"/>
-      <c r="V173" s="167"/>
-      <c r="W173" s="167"/>
-      <c r="X173" s="167"/>
+      <c r="E173" s="163"/>
+      <c r="F173" s="161"/>
+      <c r="G173" s="150"/>
+      <c r="H173" s="153"/>
+      <c r="I173" s="153"/>
+      <c r="J173" s="153"/>
+      <c r="K173" s="153"/>
+      <c r="L173" s="153"/>
+      <c r="M173" s="153"/>
+      <c r="N173" s="153"/>
+      <c r="O173" s="153"/>
+      <c r="P173" s="153"/>
+      <c r="Q173" s="153"/>
+      <c r="R173" s="154"/>
+      <c r="S173" s="154"/>
+      <c r="T173" s="154"/>
+      <c r="U173" s="154"/>
+      <c r="V173" s="154"/>
+      <c r="W173" s="154"/>
+      <c r="X173" s="154"/>
       <c r="Z173" s="109"/>
     </row>
     <row r="174" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E174" s="176"/>
-      <c r="F174" s="174"/>
-      <c r="G174" s="163"/>
-      <c r="H174" s="165"/>
-      <c r="I174" s="167"/>
-      <c r="J174" s="166"/>
-      <c r="K174" s="166"/>
-      <c r="L174" s="166"/>
-      <c r="M174" s="166"/>
-      <c r="N174" s="166"/>
-      <c r="O174" s="166"/>
-      <c r="P174" s="166"/>
-      <c r="Q174" s="166"/>
-      <c r="R174" s="167"/>
-      <c r="S174" s="167"/>
-      <c r="T174" s="167"/>
-      <c r="U174" s="167"/>
-      <c r="V174" s="167"/>
-      <c r="W174" s="167"/>
-      <c r="X174" s="167"/>
+      <c r="E174" s="163"/>
+      <c r="F174" s="161"/>
+      <c r="G174" s="150"/>
+      <c r="H174" s="152"/>
+      <c r="I174" s="154"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="153"/>
+      <c r="L174" s="153"/>
+      <c r="M174" s="153"/>
+      <c r="N174" s="153"/>
+      <c r="O174" s="153"/>
+      <c r="P174" s="153"/>
+      <c r="Q174" s="153"/>
+      <c r="R174" s="154"/>
+      <c r="S174" s="154"/>
+      <c r="T174" s="154"/>
+      <c r="U174" s="154"/>
+      <c r="V174" s="154"/>
+      <c r="W174" s="154"/>
+      <c r="X174" s="154"/>
       <c r="Z174" s="109"/>
     </row>
     <row r="175" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E175" s="176"/>
-      <c r="F175" s="174"/>
-      <c r="G175" s="163"/>
-      <c r="H175" s="165"/>
-      <c r="I175" s="164"/>
-      <c r="J175" s="167"/>
-      <c r="K175" s="166"/>
-      <c r="L175" s="166"/>
-      <c r="M175" s="166"/>
-      <c r="N175" s="166"/>
-      <c r="O175" s="166"/>
-      <c r="P175" s="166"/>
-      <c r="Q175" s="166"/>
-      <c r="R175" s="167"/>
-      <c r="S175" s="167"/>
-      <c r="T175" s="167"/>
-      <c r="U175" s="167"/>
-      <c r="V175" s="167"/>
-      <c r="W175" s="167"/>
-      <c r="X175" s="167"/>
+      <c r="E175" s="163"/>
+      <c r="F175" s="161"/>
+      <c r="G175" s="150"/>
+      <c r="H175" s="152"/>
+      <c r="I175" s="151"/>
+      <c r="J175" s="154"/>
+      <c r="K175" s="153"/>
+      <c r="L175" s="153"/>
+      <c r="M175" s="153"/>
+      <c r="N175" s="153"/>
+      <c r="O175" s="153"/>
+      <c r="P175" s="153"/>
+      <c r="Q175" s="153"/>
+      <c r="R175" s="154"/>
+      <c r="S175" s="154"/>
+      <c r="T175" s="154"/>
+      <c r="U175" s="154"/>
+      <c r="V175" s="154"/>
+      <c r="W175" s="154"/>
+      <c r="X175" s="154"/>
       <c r="Z175" s="109"/>
     </row>
     <row r="176" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E176" s="176"/>
-      <c r="F176" s="174"/>
-      <c r="G176" s="163"/>
-      <c r="H176" s="165"/>
-      <c r="I176" s="164"/>
-      <c r="J176" s="164"/>
-      <c r="K176" s="167"/>
-      <c r="L176" s="166"/>
-      <c r="M176" s="166"/>
-      <c r="N176" s="166"/>
-      <c r="O176" s="166"/>
-      <c r="P176" s="166"/>
-      <c r="Q176" s="166"/>
-      <c r="R176" s="167"/>
-      <c r="S176" s="167"/>
-      <c r="T176" s="167"/>
-      <c r="U176" s="167"/>
-      <c r="V176" s="167"/>
-      <c r="W176" s="167"/>
-      <c r="X176" s="167"/>
+      <c r="E176" s="163"/>
+      <c r="F176" s="161"/>
+      <c r="G176" s="150"/>
+      <c r="H176" s="152"/>
+      <c r="I176" s="151"/>
+      <c r="J176" s="151"/>
+      <c r="K176" s="154"/>
+      <c r="L176" s="153"/>
+      <c r="M176" s="153"/>
+      <c r="N176" s="153"/>
+      <c r="O176" s="153"/>
+      <c r="P176" s="153"/>
+      <c r="Q176" s="153"/>
+      <c r="R176" s="154"/>
+      <c r="S176" s="154"/>
+      <c r="T176" s="154"/>
+      <c r="U176" s="154"/>
+      <c r="V176" s="154"/>
+      <c r="W176" s="154"/>
+      <c r="X176" s="154"/>
       <c r="Z176" s="109"/>
     </row>
     <row r="177" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E177" s="176"/>
-      <c r="F177" s="174"/>
-      <c r="G177" s="163"/>
-      <c r="H177" s="165"/>
-      <c r="I177" s="164"/>
-      <c r="J177" s="164"/>
-      <c r="K177" s="164"/>
-      <c r="L177" s="167"/>
-      <c r="M177" s="166"/>
-      <c r="N177" s="166"/>
-      <c r="O177" s="166"/>
-      <c r="P177" s="166"/>
-      <c r="Q177" s="166"/>
-      <c r="R177" s="167"/>
-      <c r="S177" s="167"/>
-      <c r="T177" s="167"/>
-      <c r="U177" s="167"/>
-      <c r="V177" s="167"/>
-      <c r="W177" s="167"/>
-      <c r="X177" s="167"/>
+      <c r="E177" s="163"/>
+      <c r="F177" s="161"/>
+      <c r="G177" s="150"/>
+      <c r="H177" s="152"/>
+      <c r="I177" s="151"/>
+      <c r="J177" s="151"/>
+      <c r="K177" s="151"/>
+      <c r="L177" s="154"/>
+      <c r="M177" s="153"/>
+      <c r="N177" s="153"/>
+      <c r="O177" s="153"/>
+      <c r="P177" s="153"/>
+      <c r="Q177" s="153"/>
+      <c r="R177" s="154"/>
+      <c r="S177" s="154"/>
+      <c r="T177" s="154"/>
+      <c r="U177" s="154"/>
+      <c r="V177" s="154"/>
+      <c r="W177" s="154"/>
+      <c r="X177" s="154"/>
       <c r="Z177" s="109"/>
     </row>
     <row r="178" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="176"/>
-      <c r="F178" s="174"/>
-      <c r="G178" s="163"/>
-      <c r="H178" s="165"/>
-      <c r="I178" s="164"/>
-      <c r="J178" s="164"/>
-      <c r="K178" s="164"/>
-      <c r="L178" s="164"/>
-      <c r="M178" s="167"/>
-      <c r="N178" s="166"/>
-      <c r="O178" s="166"/>
-      <c r="P178" s="166"/>
-      <c r="Q178" s="166"/>
-      <c r="R178" s="167"/>
-      <c r="S178" s="167"/>
-      <c r="T178" s="167"/>
-      <c r="U178" s="167"/>
-      <c r="V178" s="167"/>
-      <c r="W178" s="167"/>
-      <c r="X178" s="167"/>
+      <c r="E178" s="163"/>
+      <c r="F178" s="161"/>
+      <c r="G178" s="150"/>
+      <c r="H178" s="152"/>
+      <c r="I178" s="151"/>
+      <c r="J178" s="151"/>
+      <c r="K178" s="151"/>
+      <c r="L178" s="151"/>
+      <c r="M178" s="154"/>
+      <c r="N178" s="153"/>
+      <c r="O178" s="153"/>
+      <c r="P178" s="153"/>
+      <c r="Q178" s="153"/>
+      <c r="R178" s="154"/>
+      <c r="S178" s="154"/>
+      <c r="T178" s="154"/>
+      <c r="U178" s="154"/>
+      <c r="V178" s="154"/>
+      <c r="W178" s="154"/>
+      <c r="X178" s="154"/>
       <c r="Z178" s="109"/>
     </row>
     <row r="179" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E179" s="176"/>
-      <c r="F179" s="174"/>
-      <c r="G179" s="163"/>
-      <c r="H179" s="165"/>
-      <c r="I179" s="164"/>
-      <c r="J179" s="164"/>
-      <c r="K179" s="164"/>
-      <c r="L179" s="164"/>
-      <c r="M179" s="164"/>
-      <c r="N179" s="167"/>
-      <c r="O179" s="166"/>
-      <c r="P179" s="166"/>
-      <c r="Q179" s="166"/>
-      <c r="R179" s="167"/>
-      <c r="S179" s="167"/>
-      <c r="T179" s="167"/>
-      <c r="U179" s="167"/>
-      <c r="V179" s="167"/>
-      <c r="W179" s="167"/>
-      <c r="X179" s="167"/>
+      <c r="E179" s="163"/>
+      <c r="F179" s="161"/>
+      <c r="G179" s="150"/>
+      <c r="H179" s="152"/>
+      <c r="I179" s="151"/>
+      <c r="J179" s="151"/>
+      <c r="K179" s="151"/>
+      <c r="L179" s="151"/>
+      <c r="M179" s="151"/>
+      <c r="N179" s="154"/>
+      <c r="O179" s="153"/>
+      <c r="P179" s="153"/>
+      <c r="Q179" s="153"/>
+      <c r="R179" s="154"/>
+      <c r="S179" s="154"/>
+      <c r="T179" s="154"/>
+      <c r="U179" s="154"/>
+      <c r="V179" s="154"/>
+      <c r="W179" s="154"/>
+      <c r="X179" s="154"/>
       <c r="Z179" s="109"/>
     </row>
     <row r="180" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E180" s="176"/>
-      <c r="F180" s="174"/>
-      <c r="G180" s="163"/>
-      <c r="H180" s="165"/>
-      <c r="I180" s="163"/>
-      <c r="J180" s="163"/>
-      <c r="K180" s="163"/>
-      <c r="L180" s="163"/>
-      <c r="M180" s="163"/>
-      <c r="N180" s="163"/>
-      <c r="O180" s="166"/>
-      <c r="P180" s="166"/>
-      <c r="Q180" s="166"/>
-      <c r="R180" s="166"/>
-      <c r="S180" s="166"/>
-      <c r="T180" s="166"/>
-      <c r="U180" s="166"/>
-      <c r="V180" s="166"/>
-      <c r="W180" s="166"/>
-      <c r="X180" s="166"/>
+      <c r="E180" s="163"/>
+      <c r="F180" s="161"/>
+      <c r="G180" s="150"/>
+      <c r="H180" s="152"/>
+      <c r="I180" s="150"/>
+      <c r="J180" s="150"/>
+      <c r="K180" s="150"/>
+      <c r="L180" s="150"/>
+      <c r="M180" s="150"/>
+      <c r="N180" s="150"/>
+      <c r="O180" s="153"/>
+      <c r="P180" s="153"/>
+      <c r="Q180" s="153"/>
+      <c r="R180" s="153"/>
+      <c r="S180" s="153"/>
+      <c r="T180" s="153"/>
+      <c r="U180" s="153"/>
+      <c r="V180" s="153"/>
+      <c r="W180" s="153"/>
+      <c r="X180" s="153"/>
       <c r="Z180" s="109"/>
     </row>
     <row r="181" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E181" s="176"/>
-      <c r="F181" s="174"/>
-      <c r="G181" s="163"/>
-      <c r="H181" s="165"/>
-      <c r="I181" s="163"/>
-      <c r="J181" s="163"/>
-      <c r="K181" s="163"/>
-      <c r="L181" s="163"/>
-      <c r="M181" s="163"/>
-      <c r="N181" s="163"/>
-      <c r="O181" s="163"/>
-      <c r="P181" s="166"/>
-      <c r="Q181" s="166"/>
-      <c r="R181" s="166"/>
-      <c r="S181" s="166"/>
-      <c r="T181" s="166"/>
-      <c r="U181" s="166"/>
-      <c r="V181" s="166"/>
-      <c r="W181" s="166"/>
-      <c r="X181" s="166"/>
+      <c r="E181" s="163"/>
+      <c r="F181" s="161"/>
+      <c r="G181" s="150"/>
+      <c r="H181" s="152"/>
+      <c r="I181" s="150"/>
+      <c r="J181" s="150"/>
+      <c r="K181" s="150"/>
+      <c r="L181" s="150"/>
+      <c r="M181" s="150"/>
+      <c r="N181" s="150"/>
+      <c r="O181" s="150"/>
+      <c r="P181" s="153"/>
+      <c r="Q181" s="153"/>
+      <c r="R181" s="153"/>
+      <c r="S181" s="153"/>
+      <c r="T181" s="153"/>
+      <c r="U181" s="153"/>
+      <c r="V181" s="153"/>
+      <c r="W181" s="153"/>
+      <c r="X181" s="153"/>
       <c r="Z181" s="109"/>
     </row>
     <row r="182" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E182" s="176"/>
-      <c r="F182" s="174"/>
-      <c r="G182" s="165"/>
-      <c r="H182" s="165"/>
-      <c r="I182" s="165"/>
-      <c r="J182" s="165"/>
-      <c r="K182" s="165"/>
-      <c r="L182" s="165"/>
-      <c r="M182" s="165"/>
-      <c r="N182" s="165"/>
-      <c r="O182" s="165"/>
-      <c r="P182" s="165"/>
-      <c r="Q182" s="166"/>
-      <c r="R182" s="166"/>
-      <c r="S182" s="166"/>
-      <c r="T182" s="166"/>
-      <c r="U182" s="166"/>
-      <c r="V182" s="166"/>
-      <c r="W182" s="166"/>
-      <c r="X182" s="166"/>
+      <c r="E182" s="163"/>
+      <c r="F182" s="161"/>
+      <c r="G182" s="152"/>
+      <c r="H182" s="152"/>
+      <c r="I182" s="152"/>
+      <c r="J182" s="152"/>
+      <c r="K182" s="152"/>
+      <c r="L182" s="152"/>
+      <c r="M182" s="152"/>
+      <c r="N182" s="152"/>
+      <c r="O182" s="152"/>
+      <c r="P182" s="152"/>
+      <c r="Q182" s="153"/>
+      <c r="R182" s="153"/>
+      <c r="S182" s="153"/>
+      <c r="T182" s="153"/>
+      <c r="U182" s="153"/>
+      <c r="V182" s="153"/>
+      <c r="W182" s="153"/>
+      <c r="X182" s="153"/>
       <c r="Z182" s="109"/>
     </row>
     <row r="183" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E183" s="176"/>
-      <c r="F183" s="174"/>
-      <c r="G183" s="165"/>
-      <c r="H183" s="165"/>
-      <c r="I183" s="165"/>
-      <c r="J183" s="165"/>
-      <c r="K183" s="165"/>
-      <c r="L183" s="165"/>
-      <c r="M183" s="165"/>
-      <c r="N183" s="165"/>
-      <c r="O183" s="165"/>
-      <c r="P183" s="165"/>
-      <c r="Q183" s="165"/>
-      <c r="R183" s="166"/>
-      <c r="S183" s="166"/>
-      <c r="T183" s="166"/>
-      <c r="U183" s="166"/>
-      <c r="V183" s="166"/>
-      <c r="W183" s="166"/>
-      <c r="X183" s="166"/>
+      <c r="E183" s="163"/>
+      <c r="F183" s="161"/>
+      <c r="G183" s="152"/>
+      <c r="H183" s="152"/>
+      <c r="I183" s="152"/>
+      <c r="J183" s="152"/>
+      <c r="K183" s="152"/>
+      <c r="L183" s="152"/>
+      <c r="M183" s="152"/>
+      <c r="N183" s="152"/>
+      <c r="O183" s="152"/>
+      <c r="P183" s="152"/>
+      <c r="Q183" s="152"/>
+      <c r="R183" s="153"/>
+      <c r="S183" s="153"/>
+      <c r="T183" s="153"/>
+      <c r="U183" s="153"/>
+      <c r="V183" s="153"/>
+      <c r="W183" s="153"/>
+      <c r="X183" s="153"/>
       <c r="Z183" s="109"/>
     </row>
     <row r="184" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E184" s="176"/>
-      <c r="F184" s="174"/>
-      <c r="G184" s="165"/>
-      <c r="H184" s="165"/>
-      <c r="I184" s="165"/>
-      <c r="J184" s="165"/>
-      <c r="K184" s="165"/>
-      <c r="L184" s="165"/>
-      <c r="M184" s="165"/>
-      <c r="N184" s="165"/>
-      <c r="O184" s="165"/>
-      <c r="P184" s="165"/>
-      <c r="Q184" s="165"/>
-      <c r="R184" s="165"/>
-      <c r="S184" s="166"/>
-      <c r="T184" s="166"/>
-      <c r="U184" s="166"/>
-      <c r="V184" s="166"/>
-      <c r="W184" s="166"/>
-      <c r="X184" s="166"/>
+      <c r="E184" s="163"/>
+      <c r="F184" s="161"/>
+      <c r="G184" s="152"/>
+      <c r="H184" s="152"/>
+      <c r="I184" s="152"/>
+      <c r="J184" s="152"/>
+      <c r="K184" s="152"/>
+      <c r="L184" s="152"/>
+      <c r="M184" s="152"/>
+      <c r="N184" s="152"/>
+      <c r="O184" s="152"/>
+      <c r="P184" s="152"/>
+      <c r="Q184" s="152"/>
+      <c r="R184" s="152"/>
+      <c r="S184" s="153"/>
+      <c r="T184" s="153"/>
+      <c r="U184" s="153"/>
+      <c r="V184" s="153"/>
+      <c r="W184" s="153"/>
+      <c r="X184" s="153"/>
       <c r="Z184" s="109"/>
     </row>
     <row r="185" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E185" s="176"/>
-      <c r="F185" s="174"/>
-      <c r="G185" s="165"/>
-      <c r="H185" s="165"/>
-      <c r="I185" s="165"/>
-      <c r="J185" s="165"/>
-      <c r="K185" s="165"/>
-      <c r="L185" s="165"/>
-      <c r="M185" s="165"/>
-      <c r="N185" s="165"/>
-      <c r="O185" s="165"/>
-      <c r="P185" s="165"/>
-      <c r="Q185" s="165"/>
-      <c r="R185" s="165"/>
-      <c r="S185" s="165"/>
-      <c r="T185" s="166"/>
-      <c r="U185" s="166"/>
-      <c r="V185" s="166"/>
-      <c r="W185" s="166"/>
-      <c r="X185" s="166"/>
+      <c r="E185" s="163"/>
+      <c r="F185" s="161"/>
+      <c r="G185" s="152"/>
+      <c r="H185" s="152"/>
+      <c r="I185" s="152"/>
+      <c r="J185" s="152"/>
+      <c r="K185" s="152"/>
+      <c r="L185" s="152"/>
+      <c r="M185" s="152"/>
+      <c r="N185" s="152"/>
+      <c r="O185" s="152"/>
+      <c r="P185" s="152"/>
+      <c r="Q185" s="152"/>
+      <c r="R185" s="152"/>
+      <c r="S185" s="152"/>
+      <c r="T185" s="153"/>
+      <c r="U185" s="153"/>
+      <c r="V185" s="153"/>
+      <c r="W185" s="153"/>
+      <c r="X185" s="153"/>
       <c r="Z185" s="109"/>
     </row>
     <row r="186" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E186" s="176"/>
-      <c r="F186" s="174"/>
-      <c r="G186" s="165"/>
-      <c r="H186" s="165"/>
-      <c r="I186" s="165"/>
-      <c r="J186" s="165"/>
-      <c r="K186" s="165"/>
-      <c r="L186" s="165"/>
-      <c r="M186" s="165"/>
-      <c r="N186" s="165"/>
-      <c r="O186" s="165"/>
-      <c r="P186" s="165"/>
-      <c r="Q186" s="165"/>
-      <c r="R186" s="165"/>
-      <c r="S186" s="165"/>
-      <c r="T186" s="165"/>
-      <c r="U186" s="166"/>
-      <c r="V186" s="166"/>
-      <c r="W186" s="166"/>
-      <c r="X186" s="166"/>
+      <c r="E186" s="163"/>
+      <c r="F186" s="161"/>
+      <c r="G186" s="152"/>
+      <c r="H186" s="152"/>
+      <c r="I186" s="152"/>
+      <c r="J186" s="152"/>
+      <c r="K186" s="152"/>
+      <c r="L186" s="152"/>
+      <c r="M186" s="152"/>
+      <c r="N186" s="152"/>
+      <c r="O186" s="152"/>
+      <c r="P186" s="152"/>
+      <c r="Q186" s="152"/>
+      <c r="R186" s="152"/>
+      <c r="S186" s="152"/>
+      <c r="T186" s="152"/>
+      <c r="U186" s="153"/>
+      <c r="V186" s="153"/>
+      <c r="W186" s="153"/>
+      <c r="X186" s="153"/>
       <c r="Z186" s="109"/>
     </row>
     <row r="187" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E187" s="176"/>
-      <c r="F187" s="174"/>
-      <c r="G187" s="165"/>
-      <c r="H187" s="165"/>
-      <c r="I187" s="165"/>
-      <c r="J187" s="165"/>
-      <c r="K187" s="165"/>
-      <c r="L187" s="165"/>
-      <c r="M187" s="165"/>
-      <c r="N187" s="165"/>
-      <c r="O187" s="165"/>
-      <c r="P187" s="165"/>
-      <c r="Q187" s="165"/>
-      <c r="R187" s="165"/>
-      <c r="S187" s="165"/>
-      <c r="T187" s="165"/>
-      <c r="U187" s="165"/>
-      <c r="V187" s="166"/>
-      <c r="W187" s="166"/>
-      <c r="X187" s="166"/>
+      <c r="E187" s="163"/>
+      <c r="F187" s="161"/>
+      <c r="G187" s="152"/>
+      <c r="H187" s="152"/>
+      <c r="I187" s="152"/>
+      <c r="J187" s="152"/>
+      <c r="K187" s="152"/>
+      <c r="L187" s="152"/>
+      <c r="M187" s="152"/>
+      <c r="N187" s="152"/>
+      <c r="O187" s="152"/>
+      <c r="P187" s="152"/>
+      <c r="Q187" s="152"/>
+      <c r="R187" s="152"/>
+      <c r="S187" s="152"/>
+      <c r="T187" s="152"/>
+      <c r="U187" s="152"/>
+      <c r="V187" s="153"/>
+      <c r="W187" s="153"/>
+      <c r="X187" s="153"/>
       <c r="Z187" s="109"/>
     </row>
     <row r="188" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E188" s="176"/>
-      <c r="F188" s="174"/>
-      <c r="G188" s="165"/>
-      <c r="H188" s="165"/>
-      <c r="I188" s="165"/>
-      <c r="J188" s="165"/>
-      <c r="K188" s="165"/>
-      <c r="L188" s="165"/>
-      <c r="M188" s="165"/>
-      <c r="N188" s="165"/>
-      <c r="O188" s="165"/>
-      <c r="P188" s="165"/>
-      <c r="Q188" s="165"/>
-      <c r="R188" s="165"/>
-      <c r="S188" s="165"/>
-      <c r="T188" s="165"/>
-      <c r="U188" s="165"/>
-      <c r="V188" s="165"/>
-      <c r="W188" s="166"/>
-      <c r="X188" s="166"/>
+      <c r="E188" s="163"/>
+      <c r="F188" s="161"/>
+      <c r="G188" s="152"/>
+      <c r="H188" s="152"/>
+      <c r="I188" s="152"/>
+      <c r="J188" s="152"/>
+      <c r="K188" s="152"/>
+      <c r="L188" s="152"/>
+      <c r="M188" s="152"/>
+      <c r="N188" s="152"/>
+      <c r="O188" s="152"/>
+      <c r="P188" s="152"/>
+      <c r="Q188" s="152"/>
+      <c r="R188" s="152"/>
+      <c r="S188" s="152"/>
+      <c r="T188" s="152"/>
+      <c r="U188" s="152"/>
+      <c r="V188" s="152"/>
+      <c r="W188" s="153"/>
+      <c r="X188" s="153"/>
       <c r="Z188" s="109"/>
     </row>
     <row r="189" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E189" s="176"/>
-      <c r="F189" s="174"/>
-      <c r="G189" s="165"/>
-      <c r="H189" s="165"/>
-      <c r="I189" s="165"/>
-      <c r="J189" s="165"/>
-      <c r="K189" s="165"/>
-      <c r="L189" s="165"/>
-      <c r="M189" s="165"/>
-      <c r="N189" s="165"/>
-      <c r="O189" s="165"/>
-      <c r="P189" s="165"/>
-      <c r="Q189" s="165"/>
-      <c r="R189" s="165"/>
-      <c r="S189" s="165"/>
-      <c r="T189" s="165"/>
-      <c r="U189" s="165"/>
-      <c r="V189" s="165"/>
-      <c r="W189" s="165"/>
-      <c r="X189" s="166"/>
+      <c r="E189" s="163"/>
+      <c r="F189" s="161"/>
+      <c r="G189" s="152"/>
+      <c r="H189" s="152"/>
+      <c r="I189" s="152"/>
+      <c r="J189" s="152"/>
+      <c r="K189" s="152"/>
+      <c r="L189" s="152"/>
+      <c r="M189" s="152"/>
+      <c r="N189" s="152"/>
+      <c r="O189" s="152"/>
+      <c r="P189" s="152"/>
+      <c r="Q189" s="152"/>
+      <c r="R189" s="152"/>
+      <c r="S189" s="152"/>
+      <c r="T189" s="152"/>
+      <c r="U189" s="152"/>
+      <c r="V189" s="152"/>
+      <c r="W189" s="152"/>
+      <c r="X189" s="153"/>
       <c r="Z189" s="109"/>
     </row>
     <row r="190" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E190" s="176"/>
-      <c r="F190" s="174"/>
-      <c r="G190" s="165"/>
-      <c r="H190" s="165"/>
-      <c r="I190" s="165"/>
-      <c r="J190" s="165"/>
-      <c r="K190" s="165"/>
-      <c r="L190" s="165"/>
-      <c r="M190" s="165"/>
-      <c r="N190" s="165"/>
-      <c r="O190" s="165"/>
-      <c r="P190" s="165"/>
-      <c r="Q190" s="165"/>
-      <c r="R190" s="165"/>
-      <c r="S190" s="165"/>
-      <c r="T190" s="165"/>
-      <c r="U190" s="165"/>
-      <c r="V190" s="165"/>
-      <c r="W190" s="165"/>
-      <c r="X190" s="165"/>
+      <c r="E190" s="163"/>
+      <c r="F190" s="161"/>
+      <c r="G190" s="152"/>
+      <c r="H190" s="152"/>
+      <c r="I190" s="152"/>
+      <c r="J190" s="152"/>
+      <c r="K190" s="152"/>
+      <c r="L190" s="152"/>
+      <c r="M190" s="152"/>
+      <c r="N190" s="152"/>
+      <c r="O190" s="152"/>
+      <c r="P190" s="152"/>
+      <c r="Q190" s="152"/>
+      <c r="R190" s="152"/>
+      <c r="S190" s="152"/>
+      <c r="T190" s="152"/>
+      <c r="U190" s="152"/>
+      <c r="V190" s="152"/>
+      <c r="W190" s="152"/>
+      <c r="X190" s="152"/>
       <c r="Z190" s="109"/>
     </row>
     <row r="191" spans="5:26" s="110" customFormat="1" x14ac:dyDescent="0.3">
@@ -18164,14 +18191,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E65:E83"/>
+    <mergeCell ref="F65:X65"/>
+    <mergeCell ref="G64:X64"/>
     <mergeCell ref="E6:E24"/>
     <mergeCell ref="F6:X6"/>
     <mergeCell ref="G38:X38"/>
     <mergeCell ref="E39:E57"/>
     <mergeCell ref="F39:X39"/>
-    <mergeCell ref="E65:E83"/>
-    <mergeCell ref="F65:X65"/>
-    <mergeCell ref="G64:X64"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="AB7:AC23">

--- a/shelley_rewards_wdv.xlsx
+++ b/shelley_rewards_wdv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uss\Documents\8. Cardano StakePool\Cardano Staking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7C97D-939D-40F3-8AFD-78405DC8AE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC11FFA-D483-445E-B4FD-EC47F141BFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="3" xr2:uid="{0555CF38-D1C2-4BD8-9E20-82DC46488446}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" xr2:uid="{0555CF38-D1C2-4BD8-9E20-82DC46488446}"/>
   </bookViews>
   <sheets>
     <sheet name="Block Production" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>k</t>
   </si>
@@ -416,9 +416,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>Actual Payout</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -432,6 +429,18 @@
   </si>
   <si>
     <t>Exp. Blocks</t>
+  </si>
+  <si>
+    <t>fixed fee</t>
+  </si>
+  <si>
+    <t>op. fees</t>
+  </si>
+  <si>
+    <t>Pool fees</t>
+  </si>
+  <si>
+    <t>Stakeholder Payout</t>
   </si>
 </sst>
 </file>
@@ -914,7 +923,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,24 +1401,6 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1498,6 +1489,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1512,22 +1521,46 @@
     <xf numFmtId="6" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4746,7 +4779,7 @@
       <xdr:rowOff>178739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>611482</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>75259</xdr:rowOff>
@@ -6467,10 +6500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354DE21C-EC63-427C-89FB-000C12D7D2E3}">
-  <dimension ref="A1:AD96"/>
+  <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6482,25 +6515,26 @@
     <col min="5" max="5" width="16.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="6"/>
-    <col min="17" max="17" width="8.88671875" style="31"/>
-    <col min="18" max="24" width="9.109375" style="31"/>
-    <col min="25" max="30" width="9.109375" style="6"/>
+    <col min="8" max="10" width="12.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5546875" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="6"/>
+    <col min="20" max="20" width="8.88671875" style="31"/>
+    <col min="21" max="27" width="9.109375" style="31"/>
+    <col min="28" max="33" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>115</v>
@@ -6518,53 +6552,62 @@
         <v>117</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="208" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="208" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="214" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="214" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="144" t="s">
+      <c r="U1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="144" t="s">
+      <c r="V1" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="144" t="s">
+      <c r="X1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
       <c r="AC1" s="17"/>
       <c r="AD1" s="17"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+    </row>
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>211</v>
       </c>
@@ -6572,7 +6615,7 @@
         <f>rho!E6 * (1-tr_tax)</f>
         <v>28800000</v>
       </c>
-      <c r="C2" s="182">
+      <c r="C2" s="234">
         <f>150 * 220000000</f>
         <v>33000000000</v>
       </c>
@@ -6588,59 +6631,69 @@
       <c r="G2" s="141">
         <v>16</v>
       </c>
-      <c r="H2" s="185">
-        <f t="shared" ref="H2:H21" si="0">MAX(1,M2*K2)</f>
+      <c r="H2" s="141">
+        <v>340</v>
+      </c>
+      <c r="I2" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J2" s="235">
+        <f>P2*N2 *I2 +H2</f>
+        <v>2910.3845936398311</v>
+      </c>
+      <c r="K2" s="227">
+        <f>P2*N2-J2</f>
+        <v>48497.30727915679</v>
+      </c>
+      <c r="L2" s="228">
+        <f>K2/G2</f>
+        <v>3031.0817049472994</v>
+      </c>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185">
+        <f>(((X2-((1-X2/W2)*Y2))/W2*Y2*S2)+X2) * B2/(1+S2)</f>
         <v>51407.691872796619</v>
       </c>
-      <c r="I2" s="186">
-        <f t="shared" ref="I2:I21" si="1">H2/G2</f>
-        <v>3212.9807420497887</v>
-      </c>
-      <c r="J2" s="184"/>
-      <c r="K2" s="191">
-        <f t="shared" ref="K2:K21" si="2">(((U2-((1-U2/T2)*V2))/T2*V2*P2)+U2) * B2/(1+P2)</f>
-        <v>51407.691872796619</v>
-      </c>
-      <c r="L2" s="192">
-        <f t="shared" ref="L2:L20" si="3">D2/E2 * 21600 * (1-Q2)</f>
+      <c r="O2" s="186">
+        <f>D2/E2 * 21600 * (1-T2)</f>
         <v>16.247224132848576</v>
       </c>
-      <c r="M2" s="193">
-        <f>IF(Q2&gt;=0.8,1,G2/L2)</f>
+      <c r="P2" s="187">
+        <f>IF(T2&gt;=0.8,1,G2/O2)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="141">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="141">
         <v>150</v>
       </c>
-      <c r="P2" s="141">
+      <c r="S2" s="141">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="200">
+      <c r="T2" s="194">
         <v>0.9</v>
       </c>
-      <c r="R2" s="201">
-        <f t="shared" ref="R2:R21" si="4">F2/C2</f>
+      <c r="U2" s="195">
+        <f>F2/C2</f>
         <v>7.5757575757575756E-6</v>
       </c>
-      <c r="S2" s="201">
-        <f t="shared" ref="S2:S21" si="5">D2/C2</f>
+      <c r="V2" s="195">
+        <f>D2/C2</f>
         <v>2.3196969696969699E-3</v>
       </c>
-      <c r="T2" s="202">
-        <f t="shared" ref="T2:T21" si="6">1/O2</f>
+      <c r="W2" s="196">
+        <f t="shared" ref="W2:W21" si="0">1/R2</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="U2" s="203">
-        <f>MIN(S2,T2)</f>
+      <c r="X2" s="197">
+        <f>MIN(V2,W2)</f>
         <v>2.3196969696969699E-3</v>
       </c>
-      <c r="V2" s="204">
-        <f>MIN(R2,T2)</f>
+      <c r="Y2" s="198">
+        <f>MIN(U2,W2)</f>
         <v>7.5757575757575756E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>212</v>
       </c>
@@ -6649,7 +6702,7 @@
         <v>28713600</v>
       </c>
       <c r="C3" s="30">
-        <f t="shared" ref="C3:C21" si="7">C2+(B2/(1-tr_tax))</f>
+        <f t="shared" ref="C3:C21" si="1">C2+(B2/(1-tr_tax))</f>
         <v>33036000000</v>
       </c>
       <c r="D3" s="182">
@@ -6664,59 +6717,69 @@
       <c r="G3" s="141">
         <v>1</v>
       </c>
-      <c r="H3" s="187">
+      <c r="H3" s="141">
+        <v>340</v>
+      </c>
+      <c r="I3" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="236">
+        <f>P3*N3 *I3 +H3</f>
+        <v>2934.6581821928175</v>
+      </c>
+      <c r="K3" s="226">
+        <f>P3*N3-J3</f>
+        <v>48958.505461663532</v>
+      </c>
+      <c r="L3" s="229">
+        <f>K3/G3</f>
+        <v>48958.505461663532</v>
+      </c>
+      <c r="M3" s="184"/>
+      <c r="N3" s="188">
+        <f>(((X3-((1-X3/W3)*Y3))/W3*Y3*S3)+X3) * B3/(1+S3)</f>
+        <v>51893.163643856351</v>
+      </c>
+      <c r="O3" s="189">
+        <f>D3/E3 * 21600 * (1-T3)</f>
+        <v>27.701553719008263</v>
+      </c>
+      <c r="P3" s="190">
+        <f>IF(T3&gt;=0.8,1,G3/O3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="141">
+        <v>150</v>
+      </c>
+      <c r="S3" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T3" s="199">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="130">
+        <f>F3/C3</f>
+        <v>7.5675021189005936E-6</v>
+      </c>
+      <c r="V3" s="130">
+        <f>D3/C3</f>
+        <v>2.3486499576219882E-3</v>
+      </c>
+      <c r="W3" s="200">
         <f t="shared" si="0"/>
-        <v>51893.163643856351</v>
-      </c>
-      <c r="I3" s="188">
-        <f t="shared" si="1"/>
-        <v>51893.163643856351</v>
-      </c>
-      <c r="J3" s="184"/>
-      <c r="K3" s="194">
-        <f t="shared" si="2"/>
-        <v>51893.163643856351</v>
-      </c>
-      <c r="L3" s="195">
-        <f t="shared" si="3"/>
-        <v>27.701553719008263</v>
-      </c>
-      <c r="M3" s="196">
-        <f>IF(Q3&gt;=0.8,1,G3/L3)</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="141">
-        <v>150</v>
-      </c>
-      <c r="P3" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q3" s="205">
-        <v>0.8</v>
-      </c>
-      <c r="R3" s="130">
-        <f t="shared" si="4"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X3" s="201">
+        <f t="shared" ref="X3:X16" si="2">MIN(V3,W3)</f>
+        <v>2.3486499576219882E-3</v>
+      </c>
+      <c r="Y3" s="202">
+        <f t="shared" ref="Y3:Y16" si="3">MIN(U3,W3)</f>
         <v>7.5675021189005936E-6</v>
       </c>
-      <c r="S3" s="130">
-        <f t="shared" si="5"/>
-        <v>2.3486499576219882E-3</v>
-      </c>
-      <c r="T3" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U3" s="207">
-        <f t="shared" ref="U3:U16" si="8">MIN(S3,T3)</f>
-        <v>2.3486499576219882E-3</v>
-      </c>
-      <c r="V3" s="208">
-        <f t="shared" ref="V3:V16" si="9">MIN(R3,T3)</f>
-        <v>7.5675021189005936E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>213</v>
       </c>
@@ -6725,66 +6788,73 @@
         <v>28627459.200000003</v>
       </c>
       <c r="C4" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33071892000</v>
       </c>
       <c r="D4" s="182"/>
       <c r="E4" s="182"/>
       <c r="F4" s="182"/>
       <c r="G4" s="141"/>
-      <c r="H4" s="187" t="e">
+      <c r="H4" s="141">
+        <v>340</v>
+      </c>
+      <c r="I4" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="237"/>
+      <c r="K4" s="226" t="e">
+        <f>P4*N4-J4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="229" t="e">
+        <f>K4/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="184"/>
+      <c r="N4" s="188">
+        <f>(((X4-((1-X4/W4)*Y4))/W4*Y4*S4)+X4) * B4/(1+S4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="189" t="e">
+        <f>D4/E4 * 21600 * (1-T4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="190" t="e">
+        <f>IF(T4&gt;=0.8,1,G4/O4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="141">
+        <v>150</v>
+      </c>
+      <c r="S4" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T4" s="199">
+        <v>0.78</v>
+      </c>
+      <c r="U4" s="130">
+        <f>F4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="130">
+        <f>D4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="184"/>
-      <c r="K4" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X4" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="195" t="e">
+      <c r="Y4" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="196" t="e">
-        <f>IF(Q4&gt;=0.8,1,G4/L4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="141">
-        <v>150</v>
-      </c>
-      <c r="P4" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q4" s="205">
-        <v>0.78</v>
-      </c>
-      <c r="R4" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S4" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U4" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>214</v>
       </c>
@@ -6793,67 +6863,74 @@
         <v>28541576.8224</v>
       </c>
       <c r="C5" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33107676324</v>
       </c>
       <c r="D5" s="145"/>
       <c r="E5" s="182"/>
       <c r="F5" s="182"/>
       <c r="G5" s="141"/>
-      <c r="H5" s="187" t="e">
+      <c r="H5" s="141">
+        <v>340</v>
+      </c>
+      <c r="I5" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="237"/>
+      <c r="K5" s="226" t="e">
+        <f>P5*N5-J5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="229" t="e">
+        <f>K5/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="184"/>
+      <c r="N5" s="188">
+        <f>(((X5-((1-X5/W5)*Y5))/W5*Y5*S5)+X5) * B5/(1+S5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="189" t="e">
+        <f>D5/E5 * 21600 * (1-T5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="190" t="e">
+        <f>IF(OR(A5=212, A5=211),1,G5/O5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="141">
+        <v>150</v>
+      </c>
+      <c r="S5" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T5" s="199">
+        <f>T4-0.02</f>
+        <v>0.76</v>
+      </c>
+      <c r="U5" s="130">
+        <f>F5/C5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="130">
+        <f>D5/C5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="184"/>
-      <c r="K5" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X5" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="195" t="e">
+      <c r="Y5" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="196" t="e">
-        <f t="shared" ref="M5:M21" si="10">IF(OR(A5=212, A5=211),1,G5/L5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="141">
-        <v>150</v>
-      </c>
-      <c r="P5" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q5" s="205">
-        <f>Q4-0.02</f>
-        <v>0.76</v>
-      </c>
-      <c r="R5" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S5" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U5" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>215</v>
       </c>
@@ -6862,67 +6939,74 @@
         <v>28455952.091932803</v>
       </c>
       <c r="C6" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33143353295.028</v>
       </c>
       <c r="D6" s="145"/>
       <c r="E6" s="182"/>
       <c r="F6" s="182"/>
       <c r="G6" s="141"/>
-      <c r="H6" s="187" t="e">
+      <c r="H6" s="141">
+        <v>340</v>
+      </c>
+      <c r="I6" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="237"/>
+      <c r="K6" s="226" t="e">
+        <f>P6*N6-J6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="229" t="e">
+        <f>K6/G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="184"/>
+      <c r="N6" s="188">
+        <f>(((X6-((1-X6/W6)*Y6))/W6*Y6*S6)+X6) * B6/(1+S6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="189" t="e">
+        <f>D6/E6 * 21600 * (1-T6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="190" t="e">
+        <f>IF(OR(A6=212, A6=211),1,G6/O6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="141">
+        <v>150</v>
+      </c>
+      <c r="S6" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="199">
+        <f t="shared" ref="T6:T18" si="4">T5-0.02</f>
+        <v>0.74</v>
+      </c>
+      <c r="U6" s="130">
+        <f>F6/C6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="130">
+        <f>D6/C6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="184"/>
-      <c r="K6" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X6" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="195" t="e">
+      <c r="Y6" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="141">
-        <v>150</v>
-      </c>
-      <c r="P6" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q6" s="205">
-        <f t="shared" ref="Q6:Q18" si="11">Q5-0.02</f>
-        <v>0.74</v>
-      </c>
-      <c r="R6" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S6" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U6" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>216</v>
       </c>
@@ -6931,67 +7015,74 @@
         <v>28370584.235657003</v>
       </c>
       <c r="C7" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33178923235.142918</v>
       </c>
       <c r="D7" s="145"/>
       <c r="E7" s="182"/>
       <c r="F7" s="182"/>
       <c r="G7" s="141"/>
-      <c r="H7" s="187" t="e">
+      <c r="H7" s="141">
+        <v>340</v>
+      </c>
+      <c r="I7" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="237"/>
+      <c r="K7" s="226" t="e">
+        <f>P7*N7-J7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="229" t="e">
+        <f>K7/G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="184"/>
+      <c r="N7" s="188">
+        <f>(((X7-((1-X7/W7)*Y7))/W7*Y7*S7)+X7) * B7/(1+S7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="189" t="e">
+        <f>D7/E7 * 21600 * (1-T7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="190" t="e">
+        <f>IF(OR(A7=212, A7=211),1,G7/O7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="141">
+        <v>150</v>
+      </c>
+      <c r="S7" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T7" s="199">
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="U7" s="130">
+        <f>F7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="130">
+        <f>D7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X7" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="195" t="e">
+      <c r="Y7" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="141">
-        <v>150</v>
-      </c>
-      <c r="P7" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q7" s="205">
-        <f t="shared" si="11"/>
-        <v>0.72</v>
-      </c>
-      <c r="R7" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S7" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U7" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>217</v>
       </c>
@@ -7000,67 +7091,74 @@
         <v>28285472.482950032</v>
       </c>
       <c r="C8" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33214386465.437489</v>
       </c>
       <c r="D8" s="145"/>
       <c r="E8" s="182"/>
       <c r="F8" s="182"/>
       <c r="G8" s="141"/>
-      <c r="H8" s="187" t="e">
+      <c r="H8" s="141">
+        <v>340</v>
+      </c>
+      <c r="I8" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="237"/>
+      <c r="K8" s="226" t="e">
+        <f>P8*N8-J8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="229" t="e">
+        <f>K8/G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="184"/>
+      <c r="N8" s="188">
+        <f>(((X8-((1-X8/W8)*Y8))/W8*Y8*S8)+X8) * B8/(1+S8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="189" t="e">
+        <f>D8/E8 * 21600 * (1-T8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="190" t="e">
+        <f>IF(OR(A8=212, A8=211),1,G8/O8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="141">
+        <v>150</v>
+      </c>
+      <c r="S8" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T8" s="199">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="130">
+        <f>F8/C8</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="130">
+        <f>D8/C8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="184"/>
-      <c r="K8" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X8" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="195" t="e">
+      <c r="Y8" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="141">
-        <v>150</v>
-      </c>
-      <c r="P8" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q8" s="205">
-        <f t="shared" si="11"/>
-        <v>0.7</v>
-      </c>
-      <c r="R8" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U8" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>218</v>
       </c>
@@ -7069,67 +7167,74 @@
         <v>28200616.065501183</v>
       </c>
       <c r="C9" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33249743306.041176</v>
       </c>
       <c r="D9" s="145"/>
       <c r="E9" s="182"/>
       <c r="F9" s="182"/>
       <c r="G9" s="141"/>
-      <c r="H9" s="187" t="e">
+      <c r="H9" s="141">
+        <v>340</v>
+      </c>
+      <c r="I9" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="237"/>
+      <c r="K9" s="226" t="e">
+        <f>P9*N9-J9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="229" t="e">
+        <f>K9/G9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="184"/>
+      <c r="N9" s="188">
+        <f>(((X9-((1-X9/W9)*Y9))/W9*Y9*S9)+X9) * B9/(1+S9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="189" t="e">
+        <f>D9/E9 * 21600 * (1-T9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="190" t="e">
+        <f>IF(OR(A9=212, A9=211),1,G9/O9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="141">
+        <v>150</v>
+      </c>
+      <c r="S9" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T9" s="199">
+        <f t="shared" si="4"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="U9" s="130">
+        <f>F9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="130">
+        <f>D9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="184"/>
-      <c r="K9" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X9" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="195" t="e">
+      <c r="Y9" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="141">
-        <v>150</v>
-      </c>
-      <c r="P9" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q9" s="205">
-        <f t="shared" si="11"/>
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="R9" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S9" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U9" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>219</v>
       </c>
@@ -7138,67 +7243,74 @@
         <v>28116014.217304677</v>
       </c>
       <c r="C10" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33284994076.123051</v>
       </c>
       <c r="D10" s="145"/>
       <c r="E10" s="182"/>
       <c r="F10" s="182"/>
       <c r="G10" s="141"/>
-      <c r="H10" s="187" t="e">
+      <c r="H10" s="141">
+        <v>340</v>
+      </c>
+      <c r="I10" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="237"/>
+      <c r="K10" s="226" t="e">
+        <f>P10*N10-J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="229" t="e">
+        <f>K10/G10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="184"/>
+      <c r="N10" s="188">
+        <f>(((X10-((1-X10/W10)*Y10))/W10*Y10*S10)+X10) * B10/(1+S10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="189" t="e">
+        <f>D10/E10 * 21600 * (1-T10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="190" t="e">
+        <f>IF(OR(A10=212, A10=211),1,G10/O10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="141">
+        <v>150</v>
+      </c>
+      <c r="S10" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T10" s="199">
+        <f t="shared" si="4"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="U10" s="130">
+        <f>F10/C10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="130">
+        <f>D10/C10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="184"/>
-      <c r="K10" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X10" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="195" t="e">
+      <c r="Y10" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="141">
-        <v>150</v>
-      </c>
-      <c r="P10" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q10" s="205">
-        <f t="shared" si="11"/>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="R10" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S10" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U10" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>220</v>
       </c>
@@ -7207,67 +7319,74 @@
         <v>28031666.174652763</v>
       </c>
       <c r="C11" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33320139093.89468</v>
       </c>
       <c r="D11" s="145"/>
       <c r="E11" s="182"/>
       <c r="F11" s="182"/>
       <c r="G11" s="141"/>
-      <c r="H11" s="187" t="e">
+      <c r="H11" s="141">
+        <v>340</v>
+      </c>
+      <c r="I11" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="237"/>
+      <c r="K11" s="226" t="e">
+        <f>P11*N11-J11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="229" t="e">
+        <f>K11/G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="184"/>
+      <c r="N11" s="188">
+        <f>(((X11-((1-X11/W11)*Y11))/W11*Y11*S11)+X11) * B11/(1+S11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="189" t="e">
+        <f>D11/E11 * 21600 * (1-T11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="190" t="e">
+        <f>IF(OR(A11=212, A11=211),1,G11/O11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="141">
+        <v>150</v>
+      </c>
+      <c r="S11" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T11" s="199">
+        <f t="shared" si="4"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="U11" s="130">
+        <f>F11/C11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="130">
+        <f>D11/C11</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="184"/>
-      <c r="K11" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X11" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="195" t="e">
+      <c r="Y11" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="141">
-        <v>150</v>
-      </c>
-      <c r="P11" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q11" s="205">
-        <f t="shared" si="11"/>
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="R11" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U11" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>221</v>
       </c>
@@ -7276,67 +7395,74 @@
         <v>27947571.176128805</v>
       </c>
       <c r="C12" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33355178676.612995</v>
       </c>
       <c r="D12" s="145"/>
       <c r="E12" s="182"/>
       <c r="F12" s="182"/>
       <c r="G12" s="141"/>
-      <c r="H12" s="187" t="e">
+      <c r="H12" s="141">
+        <v>340</v>
+      </c>
+      <c r="I12" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="237"/>
+      <c r="K12" s="226" t="e">
+        <f>P12*N12-J12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="229" t="e">
+        <f>K12/G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="184"/>
+      <c r="N12" s="188">
+        <f>(((X12-((1-X12/W12)*Y12))/W12*Y12*S12)+X12) * B12/(1+S12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="189" t="e">
+        <f>D12/E12 * 21600 * (1-T12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="190" t="e">
+        <f>IF(OR(A12=212, A12=211),1,G12/O12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="141">
+        <v>150</v>
+      </c>
+      <c r="S12" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T12" s="199">
+        <f t="shared" si="4"/>
+        <v>0.61999999999999988</v>
+      </c>
+      <c r="U12" s="130">
+        <f>F12/C12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="130">
+        <f>D12/C12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X12" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="195" t="e">
+      <c r="Y12" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="141">
-        <v>150</v>
-      </c>
-      <c r="P12" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q12" s="205">
-        <f t="shared" si="11"/>
-        <v>0.61999999999999988</v>
-      </c>
-      <c r="R12" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S12" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U12" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>222</v>
       </c>
@@ -7345,67 +7471,74 @@
         <v>27863728.462600425</v>
       </c>
       <c r="C13" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33390113140.583157</v>
       </c>
       <c r="D13" s="145"/>
       <c r="E13" s="182"/>
       <c r="F13" s="182"/>
       <c r="G13" s="141"/>
-      <c r="H13" s="187" t="e">
+      <c r="H13" s="141">
+        <v>340</v>
+      </c>
+      <c r="I13" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="237"/>
+      <c r="K13" s="226" t="e">
+        <f>P13*N13-J13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="229" t="e">
+        <f>K13/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="184"/>
+      <c r="N13" s="188">
+        <f>(((X13-((1-X13/W13)*Y13))/W13*Y13*S13)+X13) * B13/(1+S13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="189" t="e">
+        <f>D13/E13 * 21600 * (1-T13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="190" t="e">
+        <f>IF(OR(A13=212, A13=211),1,G13/O13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="141">
+        <v>150</v>
+      </c>
+      <c r="S13" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T13" s="199">
+        <f t="shared" si="4"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="U13" s="130">
+        <f>F13/C13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="130">
+        <f>D13/C13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="184"/>
-      <c r="K13" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X13" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="195" t="e">
+      <c r="Y13" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="141">
-        <v>150</v>
-      </c>
-      <c r="P13" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q13" s="205">
-        <f t="shared" si="11"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="R13" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U13" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>223</v>
       </c>
@@ -7414,67 +7547,74 @@
         <v>27780137.27721262</v>
       </c>
       <c r="C14" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33424942801.161407</v>
       </c>
       <c r="D14" s="145"/>
       <c r="E14" s="182"/>
       <c r="F14" s="182"/>
       <c r="G14" s="141"/>
-      <c r="H14" s="187" t="e">
+      <c r="H14" s="141">
+        <v>340</v>
+      </c>
+      <c r="I14" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="237"/>
+      <c r="K14" s="226" t="e">
+        <f>P14*N14-J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="229" t="e">
+        <f>K14/G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="184"/>
+      <c r="N14" s="188">
+        <f>(((X14-((1-X14/W14)*Y14))/W14*Y14*S14)+X14) * B14/(1+S14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="189" t="e">
+        <f>D14/E14 * 21600 * (1-T14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="190" t="e">
+        <f>IF(OR(A14=212, A14=211),1,G14/O14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="141">
+        <v>150</v>
+      </c>
+      <c r="S14" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T14" s="199">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="U14" s="130">
+        <f>F14/C14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="130">
+        <f>D14/C14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="184"/>
-      <c r="K14" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X14" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="195" t="e">
+      <c r="Y14" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="141">
-        <v>150</v>
-      </c>
-      <c r="P14" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q14" s="205">
-        <f t="shared" si="11"/>
-        <v>0.57999999999999985</v>
-      </c>
-      <c r="R14" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U14" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>224</v>
       </c>
@@ -7483,67 +7623,74 @@
         <v>27696796.86538098</v>
       </c>
       <c r="C15" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33459667972.757923</v>
       </c>
       <c r="D15" s="145"/>
       <c r="E15" s="182"/>
       <c r="F15" s="182"/>
       <c r="G15" s="141"/>
-      <c r="H15" s="187" t="e">
+      <c r="H15" s="141">
+        <v>340</v>
+      </c>
+      <c r="I15" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="237"/>
+      <c r="K15" s="226" t="e">
+        <f>P15*N15-J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="229" t="e">
+        <f>K15/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="184"/>
+      <c r="N15" s="188">
+        <f>(((X15-((1-X15/W15)*Y15))/W15*Y15*S15)+X15) * B15/(1+S15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="189" t="e">
+        <f>D15/E15 * 21600 * (1-T15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="190" t="e">
+        <f>IF(OR(A15=212, A15=211),1,G15/O15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="141">
+        <v>150</v>
+      </c>
+      <c r="S15" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T15" s="199">
+        <f t="shared" si="4"/>
+        <v>0.55999999999999983</v>
+      </c>
+      <c r="U15" s="130">
+        <f>F15/C15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="130">
+        <f>D15/C15</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="184"/>
-      <c r="K15" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X15" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="195" t="e">
+      <c r="Y15" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="141">
-        <v>150</v>
-      </c>
-      <c r="P15" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q15" s="205">
-        <f t="shared" si="11"/>
-        <v>0.55999999999999983</v>
-      </c>
-      <c r="R15" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U15" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>225</v>
       </c>
@@ -7552,67 +7699,74 @@
         <v>27613706.47478484</v>
       </c>
       <c r="C16" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33494288968.839649</v>
       </c>
       <c r="D16" s="145"/>
       <c r="E16" s="182"/>
       <c r="F16" s="182"/>
       <c r="G16" s="141"/>
-      <c r="H16" s="187" t="e">
+      <c r="H16" s="141">
+        <v>340</v>
+      </c>
+      <c r="I16" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J16" s="237"/>
+      <c r="K16" s="226" t="e">
+        <f>P16*N16-J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="229" t="e">
+        <f>K16/G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="184"/>
+      <c r="N16" s="188">
+        <f>(((X16-((1-X16/W16)*Y16))/W16*Y16*S16)+X16) * B16/(1+S16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="189" t="e">
+        <f>D16/E16 * 21600 * (1-T16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="190" t="e">
+        <f>IF(OR(A16=212, A16=211),1,G16/O16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="141">
+        <v>150</v>
+      </c>
+      <c r="S16" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T16" s="199">
+        <f t="shared" si="4"/>
+        <v>0.53999999999999981</v>
+      </c>
+      <c r="U16" s="130">
+        <f>F16/C16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="130">
+        <f>D16/C16</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="184"/>
-      <c r="K16" s="194">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X16" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="195" t="e">
+      <c r="Y16" s="202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="141">
-        <v>150</v>
-      </c>
-      <c r="P16" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q16" s="205">
-        <f t="shared" si="11"/>
-        <v>0.53999999999999981</v>
-      </c>
-      <c r="R16" s="130">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U16" s="207">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>226</v>
       </c>
@@ -7621,67 +7775,74 @@
         <v>27530865.355360486</v>
       </c>
       <c r="C17" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33528806101.933128</v>
       </c>
       <c r="D17" s="145"/>
       <c r="E17" s="182"/>
       <c r="F17" s="182"/>
       <c r="G17" s="141"/>
-      <c r="H17" s="187" t="e">
+      <c r="H17" s="141">
+        <v>340</v>
+      </c>
+      <c r="I17" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="237"/>
+      <c r="K17" s="226" t="e">
+        <f>P17*N17-J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="229" t="e">
+        <f>K17/G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="184"/>
+      <c r="N17" s="188">
+        <f>(((X17-((1-X17/W17)*Y17))/W17*Y17*S17)+X17) * B17/(1+S17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="189" t="e">
+        <f>D17/E17 * 21600 * (1-T17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="190" t="e">
+        <f>IF(OR(A17=212, A17=211),1,G17/O17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="141">
+        <v>150</v>
+      </c>
+      <c r="S17" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T17" s="199">
+        <f t="shared" si="4"/>
+        <v>0.5199999999999998</v>
+      </c>
+      <c r="U17" s="130">
+        <f>F17/C17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="130">
+        <f>D17/C17</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="184"/>
-      <c r="K17" s="194">
-        <f t="shared" si="2"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X17" s="201">
+        <f t="shared" ref="X17:X20" si="5">MIN(V17,W17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="195" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="141">
-        <v>150</v>
-      </c>
-      <c r="P17" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q17" s="205">
-        <f t="shared" si="11"/>
-        <v>0.5199999999999998</v>
-      </c>
-      <c r="R17" s="130">
-        <f t="shared" si="4"/>
+      <c r="Y17" s="202">
+        <f t="shared" ref="Y17:Y20" si="6">MIN(U17,W17)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="206">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U17" s="207">
-        <f t="shared" ref="U17:U20" si="12">MIN(S17,T17)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="208">
-        <f t="shared" ref="V17:V20" si="13">MIN(R17,T17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>227</v>
       </c>
@@ -7690,67 +7851,74 @@
         <v>27448272.759294406</v>
       </c>
       <c r="C18" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33563219683.627331</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="182"/>
       <c r="F18" s="182"/>
       <c r="G18" s="141"/>
-      <c r="H18" s="187" t="e">
+      <c r="H18" s="141">
+        <v>340</v>
+      </c>
+      <c r="I18" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="237"/>
+      <c r="K18" s="226" t="e">
+        <f>P18*N18-J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="229" t="e">
+        <f>K18/G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="184"/>
+      <c r="N18" s="188">
+        <f>(((X18-((1-X18/W18)*Y18))/W18*Y18*S18)+X18) * B18/(1+S18)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="189" t="e">
+        <f>D18/E18 * 21600 * (1-T18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="190" t="e">
+        <f>IF(OR(A18=212, A18=211),1,G18/O18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="141">
+        <v>150</v>
+      </c>
+      <c r="S18" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T18" s="199">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="U18" s="130">
+        <f>F18/C18</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="130">
+        <f>D18/C18</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="184"/>
-      <c r="K18" s="194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="195" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="141">
-        <v>150</v>
-      </c>
-      <c r="P18" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q18" s="205">
-        <f t="shared" si="11"/>
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="R18" s="130">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="130">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X18" s="201">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="206">
+      <c r="Y18" s="202">
         <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U18" s="207">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V18" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>228</v>
       </c>
@@ -7759,66 +7927,73 @@
         <v>27365927.941016521</v>
       </c>
       <c r="C19" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33597530024.57645</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="182"/>
       <c r="F19" s="182"/>
       <c r="G19" s="141"/>
-      <c r="H19" s="187" t="e">
+      <c r="H19" s="141">
+        <v>340</v>
+      </c>
+      <c r="I19" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="237"/>
+      <c r="K19" s="226" t="e">
+        <f>P19*N19-J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="229" t="e">
+        <f>K19/G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="184"/>
+      <c r="N19" s="188">
+        <f>(((X19-((1-X19/W19)*Y19))/W19*Y19*S19)+X19) * B19/(1+S19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="189" t="e">
+        <f>D19/E19 * 21600 * (1-T19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="190" t="e">
+        <f>IF(OR(A19=212, A19=211),1,G19/O19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="141">
+        <v>150</v>
+      </c>
+      <c r="S19" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T19" s="199">
+        <v>0.5</v>
+      </c>
+      <c r="U19" s="130">
+        <f>F19/C19</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="130">
+        <f>D19/C19</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="184"/>
-      <c r="K19" s="194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="195" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="141">
-        <v>150</v>
-      </c>
-      <c r="P19" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q19" s="205">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="130">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="130">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X19" s="201">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="206">
+      <c r="Y19" s="202">
         <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U19" s="207">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V19" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>229</v>
       </c>
@@ -7827,66 +8002,73 @@
         <v>27283830.157193471</v>
       </c>
       <c r="C20" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33631737434.50272</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="182"/>
       <c r="F20" s="182"/>
       <c r="G20" s="141"/>
-      <c r="H20" s="187" t="e">
+      <c r="H20" s="141">
+        <v>340</v>
+      </c>
+      <c r="I20" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J20" s="237"/>
+      <c r="K20" s="226" t="e">
+        <f>P20*N20-J20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="229" t="e">
+        <f>K20/G20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="184"/>
+      <c r="N20" s="188">
+        <f>(((X20-((1-X20/W20)*Y20))/W20*Y20*S20)+X20) * B20/(1+S20)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="189" t="e">
+        <f>D20/E20 * 21600 * (1-T20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="190" t="e">
+        <f>IF(OR(A20=212, A20=211),1,G20/O20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="141">
+        <v>150</v>
+      </c>
+      <c r="S20" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T20" s="199">
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="130">
+        <f>F20/C20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="130">
+        <f>D20/C20</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="200">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="188" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="184"/>
-      <c r="K20" s="194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="195" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="196" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="141">
-        <v>150</v>
-      </c>
-      <c r="P20" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q20" s="205">
-        <v>0.5</v>
-      </c>
-      <c r="R20" s="130">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="130">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X20" s="201">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="206">
+      <c r="Y20" s="202">
         <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U20" s="207">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V20" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>230</v>
       </c>
@@ -7895,108 +8077,115 @@
         <v>27201978.666721888</v>
       </c>
       <c r="C21" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>33665842222.199211</v>
       </c>
       <c r="D21" s="145"/>
       <c r="E21" s="182"/>
       <c r="F21" s="182"/>
       <c r="G21" s="141"/>
-      <c r="H21" s="189" t="e">
+      <c r="H21" s="141">
+        <v>340</v>
+      </c>
+      <c r="I21" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="J21" s="238"/>
+      <c r="K21" s="230" t="e">
+        <f>P21*N21-J21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="231" t="e">
+        <f>K21/G21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="184"/>
+      <c r="N21" s="191">
+        <f>(((X21-((1-X21/W21)*Y21))/W21*Y21*S21)+X21) * B21/(1+S21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="192" t="e">
+        <f>D21/E21 * 21600 * (1-#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="193" t="e">
+        <f>IF(OR(A21=212, A21=211),1,G21/O21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="141">
+        <v>150</v>
+      </c>
+      <c r="S21" s="141">
+        <v>0.3</v>
+      </c>
+      <c r="T21" s="203">
+        <v>0.5</v>
+      </c>
+      <c r="U21" s="204">
+        <f>F21/C21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="204">
+        <f>D21/C21</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="205">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="190" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="184"/>
-      <c r="K21" s="197">
-        <f t="shared" si="2"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="X21" s="206">
+        <f t="shared" ref="X21" si="7">MIN(V21,W21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="198" t="e">
-        <f>D21/E21 * 21600 * (1-#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="199" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="141">
-        <v>150</v>
-      </c>
-      <c r="P21" s="141">
-        <v>0.3</v>
-      </c>
-      <c r="Q21" s="209">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="210">
-        <f t="shared" si="4"/>
+      <c r="Y21" s="207">
+        <f t="shared" ref="Y21" si="8">MIN(U21,W21)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="210">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="211">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="U21" s="212">
-        <f t="shared" ref="U21" si="14">MIN(S21,T21)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="213">
-        <f t="shared" ref="V21" si="15">MIN(R21,T21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="121"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="146"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="215">
+      <c r="B24" s="209">
         <v>12100000000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="216">
+      <c r="B25" s="210">
         <v>77590000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="217">
+        <v>119</v>
+      </c>
+      <c r="B26" s="211">
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
@@ -8004,7 +8193,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>99</v>
       </c>
@@ -8017,9 +8206,12 @@
       <c r="E29" s="133"/>
       <c r="F29" s="134"/>
       <c r="G29" s="134"/>
-      <c r="K29" s="134"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="N29" s="134"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>103</v>
       </c>
@@ -8032,9 +8224,12 @@
       <c r="E30" s="134"/>
       <c r="F30" s="134"/>
       <c r="G30" s="134"/>
-      <c r="K30" s="134"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="N30" s="134"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>96</v>
       </c>
@@ -8047,9 +8242,12 @@
       <c r="E31" s="142"/>
       <c r="F31" s="134"/>
       <c r="G31" s="134"/>
-      <c r="K31" s="134"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="N31" s="134"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
@@ -8062,9 +8260,12 @@
       <c r="E32" s="134"/>
       <c r="F32" s="134"/>
       <c r="G32" s="134"/>
-      <c r="K32" s="134"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="N32" s="134"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>101</v>
       </c>
@@ -8077,9 +8278,12 @@
       <c r="E33" s="134"/>
       <c r="F33" s="134"/>
       <c r="G33" s="134"/>
-      <c r="K33" s="134"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="N33" s="134"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="31"/>
       <c r="C34" s="134"/>
@@ -8087,9 +8291,12 @@
       <c r="E34" s="134"/>
       <c r="F34" s="134"/>
       <c r="G34" s="134"/>
-      <c r="K34" s="134"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="N34" s="134"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -8101,14 +8308,17 @@
       <c r="E35" s="134"/>
       <c r="F35" s="134"/>
       <c r="G35" s="134"/>
-      <c r="K35" s="134"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="N35" s="134"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>0</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" ref="B36:B46" si="16">_xlfn.BINOM.DIST(A36,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B36:B46" si="9">_xlfn.BINOM.DIST(A36,$B$29,$B$30,FALSE)</f>
         <v>8.5787424742408191E-13</v>
       </c>
       <c r="C36" s="134"/>
@@ -8116,14 +8326,17 @@
       <c r="E36" s="134"/>
       <c r="F36" s="134"/>
       <c r="G36" s="134"/>
-      <c r="K36" s="134"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="N36" s="134"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2.3912283567281832E-11</v>
       </c>
       <c r="C37" s="22"/>
@@ -8131,14 +8344,17 @@
       <c r="E37" s="134"/>
       <c r="F37" s="134"/>
       <c r="G37" s="134"/>
-      <c r="K37" s="134"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="N37" s="134"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>3.3318689539006466E-10</v>
       </c>
       <c r="C38" s="134"/>
@@ -8146,14 +8362,17 @@
       <c r="E38" s="134"/>
       <c r="F38" s="134"/>
       <c r="G38" s="134"/>
-      <c r="K38" s="134"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="N38" s="134"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>3</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>3.0943036026853557E-9</v>
       </c>
       <c r="C39" s="134"/>
@@ -8161,14 +8380,17 @@
       <c r="E39" s="134"/>
       <c r="F39" s="134"/>
       <c r="G39" s="134"/>
-      <c r="K39" s="134"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="N39" s="134"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>4</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2.1547584123184318E-8</v>
       </c>
       <c r="C40" s="134"/>
@@ -8176,14 +8398,17 @@
       <c r="E40" s="134"/>
       <c r="F40" s="134"/>
       <c r="G40" s="134"/>
-      <c r="K40" s="134"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="N40" s="134"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>5</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1.2001170280981276E-7</v>
       </c>
       <c r="C41" s="134"/>
@@ -8191,14 +8416,17 @@
       <c r="E41" s="134"/>
       <c r="F41" s="134"/>
       <c r="G41" s="134"/>
-      <c r="K41" s="134"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="N41" s="134"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>6</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>5.5688652001625354E-7</v>
       </c>
       <c r="C42" s="134"/>
@@ -8206,14 +8434,17 @@
       <c r="E42" s="134"/>
       <c r="F42" s="134"/>
       <c r="G42" s="134"/>
-      <c r="K42" s="134"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="N42" s="134"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>7</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2.2144319602761825E-6</v>
       </c>
       <c r="C43" s="134"/>
@@ -8221,14 +8452,17 @@
       <c r="E43" s="134"/>
       <c r="F43" s="134"/>
       <c r="G43" s="134"/>
-      <c r="K43" s="134"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="N43" s="134"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>8</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>7.7030962307082967E-6</v>
       </c>
       <c r="C44" s="134"/>
@@ -8236,14 +8470,17 @@
       <c r="E44" s="134"/>
       <c r="F44" s="134"/>
       <c r="G44" s="134"/>
-      <c r="K44" s="134"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="N44" s="134"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>9</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2.3813051651289058E-5</v>
       </c>
       <c r="C45" s="133"/>
@@ -8251,14 +8488,17 @@
       <c r="E45" s="134"/>
       <c r="F45" s="134"/>
       <c r="G45" s="134"/>
-      <c r="K45" s="134"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="N45" s="134"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>10</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6.6237897896988962E-5</v>
       </c>
       <c r="C46" s="22"/>
@@ -8266,23 +8506,26 @@
       <c r="E46" s="134"/>
       <c r="F46" s="134"/>
       <c r="G46" s="134"/>
-      <c r="K46" s="134"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="N46" s="134"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>11</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" ref="B47:B71" si="17">_xlfn.BINOM.DIST(A47,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B47:B71" si="10">_xlfn.BINOM.DIST(A47,$B$29,$B$30,FALSE)</f>
         <v>1.674574862288478E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <v>12</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3.8798347935082645E-4</v>
       </c>
     </row>
@@ -8291,7 +8534,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>8.2958133101376514E-4</v>
       </c>
     </row>
@@ -8300,7 +8543,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>1.6467177892207671E-3</v>
       </c>
     </row>
@@ -8309,7 +8552,7 @@
         <v>15</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3.0501085179459515E-3</v>
       </c>
     </row>
@@ -8318,7 +8561,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>5.2951929317913539E-3</v>
       </c>
     </row>
@@ -8327,7 +8570,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>8.6500462652800043E-3</v>
       </c>
     </row>
@@ -8336,7 +8579,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>1.334229530051086E-2</v>
       </c>
     </row>
@@ -8345,7 +8588,7 @@
         <v>19</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>1.949218871419426E-2</v>
       </c>
     </row>
@@ -8354,7 +8597,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>2.7046637762468788E-2</v>
       </c>
     </row>
@@ -8363,7 +8606,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3.573350789041467E-2</v>
       </c>
     </row>
@@ -8372,7 +8615,7 @@
         <v>22</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>4.5054025419195766E-2</v>
       </c>
     </row>
@@ -8381,7 +8624,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>5.4323198720908183E-2</v>
       </c>
     </row>
@@ -8390,7 +8633,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>6.2755613973171212E-2</v>
       </c>
     </row>
@@ -8399,7 +8642,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>6.9580886822944887E-2</v>
       </c>
     </row>
@@ -8408,7 +8651,7 @@
         <v>26</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>7.4163952827374716E-2</v>
       </c>
     </row>
@@ -8417,7 +8660,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>7.6103426424509277E-2</v>
       </c>
     </row>
@@ -8426,7 +8669,7 @@
         <v>28</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>7.5287020427280027E-2</v>
       </c>
     </row>
@@ -8435,7 +8678,7 @@
         <v>29</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>7.1894363583656473E-2</v>
       </c>
     </row>
@@ -8444,7 +8687,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>6.6350637257853881E-2</v>
       </c>
     </row>
@@ -8453,7 +8696,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>5.9245267949752711E-2</v>
       </c>
     </row>
@@ -8462,7 +8705,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>5.1235701127282783E-2</v>
       </c>
     </row>
@@ -8471,7 +8714,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>4.2956258234079163E-2</v>
       </c>
     </row>
@@ -8480,7 +8723,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3.494732279471547E-2</v>
       </c>
     </row>
@@ -8489,7 +8732,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>2.7612829454388844E-2</v>
       </c>
     </row>
@@ -8498,7 +8741,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" ref="B72:B85" si="18">_xlfn.BINOM.DIST(A72,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B72:B85" si="11">_xlfn.BINOM.DIST(A72,$B$29,$B$30,FALSE)</f>
         <v>2.1206650999804288E-2</v>
       </c>
     </row>
@@ -8507,7 +8750,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1.5842826158980177E-2</v>
       </c>
     </row>
@@ -8516,7 +8759,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1.1521524306282416E-2</v>
       </c>
     </row>
@@ -8525,7 +8768,7 @@
         <v>39</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>8.1621538840906289E-3</v>
       </c>
     </row>
@@ -8534,7 +8777,7 @@
         <v>40</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>5.6364125517034749E-3</v>
       </c>
     </row>
@@ -8543,7 +8786,7 @@
         <v>41</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>3.79643020777615E-3</v>
       </c>
     </row>
@@ -8552,7 +8795,7 @@
         <v>42</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>2.4956353430518972E-3</v>
       </c>
     </row>
@@ -8561,7 +8804,7 @@
         <v>43</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1.6020133814552014E-3</v>
       </c>
     </row>
@@ -8570,7 +8813,7 @@
         <v>44</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1.0047670318675311E-3</v>
       </c>
     </row>
@@ -8579,7 +8822,7 @@
         <v>45</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>6.1603189628761028E-4</v>
       </c>
     </row>
@@ -8588,7 +8831,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>3.6939762818308795E-4</v>
       </c>
     </row>
@@ -8597,7 +8840,7 @@
         <v>47</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>2.1674213884455729E-4</v>
       </c>
     </row>
@@ -8606,7 +8849,7 @@
         <v>48</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1.2449375850702871E-4</v>
       </c>
     </row>
@@ -8615,7 +8858,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>7.0031799722954235E-5</v>
       </c>
     </row>
@@ -8624,7 +8867,7 @@
         <v>50</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" ref="B86:B96" si="19">_xlfn.BINOM.DIST(A86,$B$29,$B$30,FALSE)</f>
+        <f t="shared" ref="B86:B96" si="12">_xlfn.BINOM.DIST(A86,$B$29,$B$30,FALSE)</f>
         <v>3.859822871446303E-5</v>
       </c>
     </row>
@@ -8633,7 +8876,7 @@
         <v>51</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>2.0851512904328676E-5</v>
       </c>
     </row>
@@ -8642,7 +8885,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>1.1045181467362338E-5</v>
       </c>
     </row>
@@ -8651,7 +8894,7 @@
         <v>53</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>5.7389685665080539E-6</v>
       </c>
     </row>
@@ -8660,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>2.926005610768005E-6</v>
       </c>
     </row>
@@ -8669,7 +8912,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>1.4643527860552566E-6</v>
       </c>
     </row>
@@ -8678,7 +8921,7 @@
         <v>56</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>7.1959660231094889E-7</v>
       </c>
     </row>
@@ -8687,7 +8930,7 @@
         <v>57</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>3.4733120122062147E-7</v>
       </c>
     </row>
@@ -8696,7 +8939,7 @@
         <v>58</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>1.6471891289187305E-7</v>
       </c>
     </row>
@@ -8705,7 +8948,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>7.6774537199950821E-8</v>
       </c>
     </row>
@@ -8714,13 +8957,16 @@
         <v>60</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>3.5179508953316216E-8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K4:L21" evalError="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8729,7 +8975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1630D5C-5921-48B6-BAF0-B53CE33B013A}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -11284,16 +11530,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="219"/>
-      <c r="G2" s="220"/>
-      <c r="K2" s="218" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="K2" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="219"/>
-      <c r="M2" s="220"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="214"/>
     </row>
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="129" t="s">
@@ -11319,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D04CE86-1F0E-4166-A6F8-93105C878FF5}">
   <dimension ref="A1:AT234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11808,7 +12054,7 @@
         <v>686401.71390719013</v>
       </c>
       <c r="G8" s="13">
-        <f t="dataTable" ref="G8:X24" dt2D="1" dtr="1" r1="C42" r2="C43"/>
+        <f t="dataTable" ref="G8:X24" dt2D="1" dtr="1" r1="C42" r2="C43" ca="1"/>
         <v>4.2987982061279677E-2</v>
       </c>
       <c r="H8" s="13">
@@ -14093,30 +14339,30 @@
       <c r="C39" s="127">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E39" s="225" t="s">
+      <c r="E39" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="228" t="s">
+      <c r="F39" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="228"/>
-      <c r="H39" s="228"/>
-      <c r="I39" s="228"/>
-      <c r="J39" s="228"/>
-      <c r="K39" s="228"/>
-      <c r="L39" s="228"/>
-      <c r="M39" s="228"/>
-      <c r="N39" s="228"/>
-      <c r="O39" s="228"/>
-      <c r="P39" s="228"/>
-      <c r="Q39" s="228"/>
-      <c r="R39" s="228"/>
-      <c r="S39" s="228"/>
-      <c r="T39" s="228"/>
-      <c r="U39" s="228"/>
-      <c r="V39" s="228"/>
-      <c r="W39" s="228"/>
-      <c r="X39" s="229"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
+      <c r="L39" s="218"/>
+      <c r="M39" s="218"/>
+      <c r="N39" s="218"/>
+      <c r="O39" s="218"/>
+      <c r="P39" s="218"/>
+      <c r="Q39" s="218"/>
+      <c r="R39" s="218"/>
+      <c r="S39" s="218"/>
+      <c r="T39" s="218"/>
+      <c r="U39" s="218"/>
+      <c r="V39" s="218"/>
+      <c r="W39" s="218"/>
+      <c r="X39" s="219"/>
       <c r="Y39" s="6"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.3">
@@ -14126,7 +14372,7 @@
       <c r="C40" s="69">
         <v>1</v>
       </c>
-      <c r="E40" s="226"/>
+      <c r="E40" s="216"/>
       <c r="F40" s="9">
         <f>C46</f>
         <v>4.3002606489227886E-2</v>
@@ -14194,7 +14440,7 @@
       <c r="C41" s="69">
         <v>0.05</v>
       </c>
-      <c r="E41" s="226"/>
+      <c r="E41" s="216"/>
       <c r="F41" s="12">
         <v>500000</v>
       </c>
@@ -14262,7 +14508,7 @@
       <c r="C42" s="70">
         <v>250000</v>
       </c>
-      <c r="E42" s="226"/>
+      <c r="E42" s="216"/>
       <c r="F42" s="12">
         <v>1000000</v>
       </c>
@@ -14329,7 +14575,7 @@
       <c r="C43" s="132">
         <v>77590000</v>
       </c>
-      <c r="E43" s="226"/>
+      <c r="E43" s="216"/>
       <c r="F43" s="12">
         <v>1500000</v>
       </c>
@@ -14398,7 +14644,7 @@
         <f>C23 * C35 * (1-C30) *C40</f>
         <v>45706.469006838241</v>
       </c>
-      <c r="E44" s="226"/>
+      <c r="E44" s="216"/>
       <c r="F44" s="12">
         <v>3000000</v>
       </c>
@@ -14463,7 +14709,7 @@
       <c r="B45" s="22"/>
       <c r="C45" s="76"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="226"/>
+      <c r="E45" s="216"/>
       <c r="F45" s="12">
         <v>5000000</v>
       </c>
@@ -14533,7 +14779,7 @@
         <v>4.3002606489227886E-2</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="226"/>
+      <c r="E46" s="216"/>
       <c r="F46" s="12">
         <v>10000000</v>
       </c>
@@ -14603,7 +14849,7 @@
         <v>4.0548583910610024E-2</v>
       </c>
       <c r="D47" s="18"/>
-      <c r="E47" s="226"/>
+      <c r="E47" s="216"/>
       <c r="F47" s="12">
         <v>15000000</v>
       </c>
@@ -14673,7 +14919,7 @@
         <v>2.4540225786178621E-3</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="226"/>
+      <c r="E48" s="216"/>
       <c r="F48" s="12">
         <v>20000000</v>
       </c>
@@ -14738,7 +14984,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="226"/>
+      <c r="E49" s="216"/>
       <c r="F49" s="12">
         <v>32000000</v>
       </c>
@@ -14799,12 +15045,12 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="31"/>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="E50" s="226"/>
+      <c r="C50" s="232"/>
+      <c r="E50" s="216"/>
       <c r="F50" s="12">
         <v>50000000</v>
       </c>
@@ -14865,15 +15111,15 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="31"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B51" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="75">
-        <f>150 * 220000000</f>
+      <c r="C51" s="233">
+        <f>'Block Production'!C2</f>
         <v>33000000000</v>
       </c>
-      <c r="E51" s="226"/>
+      <c r="E51" s="216"/>
       <c r="F51" s="12">
         <v>76000000</v>
       </c>
@@ -14942,7 +15188,7 @@
         <f>rho!F85</f>
         <v>35363311901.882751</v>
       </c>
-      <c r="E52" s="226"/>
+      <c r="E52" s="216"/>
       <c r="F52" s="12">
         <v>83000000</v>
       </c>
@@ -15011,7 +15257,7 @@
         <f>rho!F86</f>
         <v>36881611880.350235</v>
       </c>
-      <c r="E53" s="226"/>
+      <c r="E53" s="216"/>
       <c r="F53" s="12">
         <v>150000000</v>
       </c>
@@ -15080,7 +15326,7 @@
         <f>rho!F87</f>
         <v>38100893824.672676</v>
       </c>
-      <c r="E54" s="226"/>
+      <c r="E54" s="216"/>
       <c r="F54" s="12">
         <v>175000000</v>
       </c>
@@ -15149,7 +15395,7 @@
         <f>rho!F88</f>
         <v>39080047141.431122</v>
       </c>
-      <c r="E55" s="226"/>
+      <c r="E55" s="216"/>
       <c r="F55" s="12">
         <v>185000000</v>
       </c>
@@ -15215,7 +15461,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="31"/>
       <c r="D56" s="74"/>
-      <c r="E56" s="226"/>
+      <c r="E56" s="216"/>
       <c r="F56" s="12">
         <v>195000000</v>
       </c>
@@ -15285,7 +15531,7 @@
         <v>76</v>
       </c>
       <c r="C57" s="31"/>
-      <c r="E57" s="227"/>
+      <c r="E57" s="217"/>
       <c r="F57" s="27">
         <v>209968861</v>
       </c>
@@ -15576,26 +15822,26 @@
         <f>$C$28</f>
         <v>150</v>
       </c>
-      <c r="G64" s="230" t="s">
+      <c r="G64" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="H64" s="230"/>
-      <c r="I64" s="230"/>
-      <c r="J64" s="230"/>
-      <c r="K64" s="230"/>
-      <c r="L64" s="230"/>
-      <c r="M64" s="230"/>
-      <c r="N64" s="230"/>
-      <c r="O64" s="230"/>
-      <c r="P64" s="230"/>
-      <c r="Q64" s="230"/>
-      <c r="R64" s="230"/>
-      <c r="S64" s="230"/>
-      <c r="T64" s="230"/>
-      <c r="U64" s="230"/>
-      <c r="V64" s="230"/>
-      <c r="W64" s="230"/>
-      <c r="X64" s="230"/>
+      <c r="H64" s="220"/>
+      <c r="I64" s="220"/>
+      <c r="J64" s="220"/>
+      <c r="K64" s="220"/>
+      <c r="L64" s="220"/>
+      <c r="M64" s="220"/>
+      <c r="N64" s="220"/>
+      <c r="O64" s="220"/>
+      <c r="P64" s="220"/>
+      <c r="Q64" s="220"/>
+      <c r="R64" s="220"/>
+      <c r="S64" s="220"/>
+      <c r="T64" s="220"/>
+      <c r="U64" s="220"/>
+      <c r="V64" s="220"/>
+      <c r="W64" s="220"/>
+      <c r="X64" s="220"/>
       <c r="Y64" s="88">
         <v>0</v>
       </c>
@@ -15604,30 +15850,30 @@
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" s="6"/>
       <c r="C65" s="31"/>
-      <c r="E65" s="225" t="s">
+      <c r="E65" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="228" t="s">
+      <c r="F65" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="G65" s="228"/>
-      <c r="H65" s="228"/>
-      <c r="I65" s="228"/>
-      <c r="J65" s="228"/>
-      <c r="K65" s="228"/>
-      <c r="L65" s="228"/>
-      <c r="M65" s="228"/>
-      <c r="N65" s="228"/>
-      <c r="O65" s="228"/>
-      <c r="P65" s="228"/>
-      <c r="Q65" s="228"/>
-      <c r="R65" s="228"/>
-      <c r="S65" s="228"/>
-      <c r="T65" s="228"/>
-      <c r="U65" s="228"/>
-      <c r="V65" s="228"/>
-      <c r="W65" s="228"/>
-      <c r="X65" s="229"/>
+      <c r="G65" s="218"/>
+      <c r="H65" s="218"/>
+      <c r="I65" s="218"/>
+      <c r="J65" s="218"/>
+      <c r="K65" s="218"/>
+      <c r="L65" s="218"/>
+      <c r="M65" s="218"/>
+      <c r="N65" s="218"/>
+      <c r="O65" s="218"/>
+      <c r="P65" s="218"/>
+      <c r="Q65" s="218"/>
+      <c r="R65" s="218"/>
+      <c r="S65" s="218"/>
+      <c r="T65" s="218"/>
+      <c r="U65" s="218"/>
+      <c r="V65" s="218"/>
+      <c r="W65" s="218"/>
+      <c r="X65" s="219"/>
       <c r="Y65" s="88">
         <v>3.1200077904872279E-3</v>
       </c>
@@ -15637,7 +15883,7 @@
       <c r="A66" s="47"/>
       <c r="B66" s="6"/>
       <c r="C66" s="30"/>
-      <c r="E66" s="226"/>
+      <c r="E66" s="216"/>
       <c r="F66" s="52">
         <f>C44</f>
         <v>45706.469006838241</v>
@@ -15723,7 +15969,7 @@
       <c r="A67" s="47"/>
       <c r="B67" s="6"/>
       <c r="C67" s="30"/>
-      <c r="E67" s="226"/>
+      <c r="E67" s="216"/>
       <c r="F67" s="12">
         <v>500000</v>
       </c>
@@ -15791,7 +16037,7 @@
       <c r="A68" s="47"/>
       <c r="B68" s="6"/>
       <c r="C68" s="30"/>
-      <c r="E68" s="226"/>
+      <c r="E68" s="216"/>
       <c r="F68" s="90">
         <v>544000</v>
       </c>
@@ -15858,7 +16104,7 @@
       <c r="A69" s="47"/>
       <c r="B69" s="6"/>
       <c r="C69" s="30"/>
-      <c r="E69" s="226"/>
+      <c r="E69" s="216"/>
       <c r="F69" s="12">
         <v>1000000</v>
       </c>
@@ -15925,7 +16171,7 @@
       <c r="A70" s="47"/>
       <c r="B70" s="6"/>
       <c r="C70" s="30"/>
-      <c r="E70" s="226"/>
+      <c r="E70" s="216"/>
       <c r="F70" s="12">
         <v>1458717</v>
       </c>
@@ -15991,7 +16237,7 @@
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="31"/>
-      <c r="E71" s="226"/>
+      <c r="E71" s="216"/>
       <c r="F71" s="12">
         <v>5000000</v>
       </c>
@@ -16058,7 +16304,7 @@
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="226"/>
+      <c r="E72" s="216"/>
       <c r="F72" s="12">
         <v>10000000</v>
       </c>
@@ -16124,7 +16370,7 @@
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="E73" s="226"/>
+      <c r="E73" s="216"/>
       <c r="F73" s="12">
         <v>15000000</v>
       </c>
@@ -16190,7 +16436,7 @@
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="E74" s="226"/>
+      <c r="E74" s="216"/>
       <c r="F74" s="12">
         <v>20000000</v>
       </c>
@@ -16256,7 +16502,7 @@
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="E75" s="226"/>
+      <c r="E75" s="216"/>
       <c r="F75" s="12">
         <v>32000000</v>
       </c>
@@ -16322,7 +16568,7 @@
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="E76" s="226"/>
+      <c r="E76" s="216"/>
       <c r="F76" s="12">
         <v>50000000</v>
       </c>
@@ -16388,7 +16634,7 @@
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="E77" s="226"/>
+      <c r="E77" s="216"/>
       <c r="F77" s="12">
         <v>75000000</v>
       </c>
@@ -16454,7 +16700,7 @@
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="E78" s="226"/>
+      <c r="E78" s="216"/>
       <c r="F78" s="12">
         <v>100000000</v>
       </c>
@@ -16520,7 +16766,7 @@
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="E79" s="226"/>
+      <c r="E79" s="216"/>
       <c r="F79" s="12">
         <v>150000000</v>
       </c>
@@ -16586,7 +16832,7 @@
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="E80" s="226"/>
+      <c r="E80" s="216"/>
       <c r="F80" s="12">
         <v>175000000</v>
       </c>
@@ -16652,7 +16898,7 @@
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="6"/>
-      <c r="E81" s="226"/>
+      <c r="E81" s="216"/>
       <c r="F81" s="12">
         <v>185000000</v>
       </c>
@@ -16718,7 +16964,7 @@
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
       <c r="C82" s="101"/>
-      <c r="E82" s="226"/>
+      <c r="E82" s="216"/>
       <c r="F82" s="12">
         <v>195000000</v>
       </c>
@@ -16782,7 +17028,7 @@
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
       <c r="C83" s="31"/>
-      <c r="E83" s="227"/>
+      <c r="E83" s="217"/>
       <c r="F83" s="27">
         <v>220000000</v>
       </c>

--- a/shelley_rewards_wdv.xlsx
+++ b/shelley_rewards_wdv.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uss\Documents\8. Cardano StakePool\Cardano Staking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB098C-E026-4C3C-A4C7-6D7951236AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA3E38-CA2F-4BEF-9060-5B6F30634B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{0555CF38-D1C2-4BD8-9E20-82DC46488446}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rewards_SKY" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables_SKY" sheetId="1" r:id="rId1"/>
     <sheet name="SKY" sheetId="33" r:id="rId2"/>
     <sheet name="SKY2" sheetId="36" r:id="rId3"/>
     <sheet name="rho" sheetId="22" r:id="rId4"/>
@@ -21,25 +21,25 @@
     <sheet name="2020 Distributions Graph" sheetId="23" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ada_price">Rewards_SKY!$C$39</definedName>
-    <definedName name="av_epoch_rewards">Rewards_SKY!$C$35</definedName>
-    <definedName name="epoch_length">Rewards_SKY!$C$31</definedName>
-    <definedName name="fixed_opex">Rewards_SKY!$C$38</definedName>
-    <definedName name="nOps">Rewards_SKY!$C$28</definedName>
-    <definedName name="op_year">Rewards_SKY!$C$27</definedName>
-    <definedName name="performance_fee">Rewards_SKY!$C$41</definedName>
-    <definedName name="pledge">Rewards_SKY!$C$42</definedName>
-    <definedName name="pool_rewards_AT">Rewards_SKY!$C$44</definedName>
-    <definedName name="pool_size">Rewards_SKY!$C$43</definedName>
-    <definedName name="poop_performance">Rewards_SKY!$C$40</definedName>
-    <definedName name="rho">Rewards_SKY!$C$29</definedName>
-    <definedName name="saturation_point">Rewards_SKY!$C$36</definedName>
-    <definedName name="staked_ada">Rewards_SKY!$C$34</definedName>
-    <definedName name="staking_ratio">Rewards_SKY!$C$33</definedName>
+    <definedName name="ada_price">Tables_SKY!$C$39</definedName>
+    <definedName name="av_epoch_rewards">Tables_SKY!$C$35</definedName>
+    <definedName name="epoch_length">Tables_SKY!$C$31</definedName>
+    <definedName name="fixed_opex">Tables_SKY!$C$38</definedName>
+    <definedName name="nOps">Tables_SKY!$C$28</definedName>
+    <definedName name="op_year">Tables_SKY!$C$27</definedName>
+    <definedName name="performance_fee">Tables_SKY!$C$41</definedName>
+    <definedName name="pledge">Tables_SKY!$C$42</definedName>
+    <definedName name="pool_rewards_AT">Tables_SKY!$C$44</definedName>
+    <definedName name="pool_size">Tables_SKY!$C$43</definedName>
+    <definedName name="poop_performance">Tables_SKY!$C$40</definedName>
+    <definedName name="rho">Tables_SKY!$C$29</definedName>
+    <definedName name="saturation_point">Tables_SKY!$C$36</definedName>
+    <definedName name="staked_ada">Tables_SKY!$C$34</definedName>
+    <definedName name="staking_ratio">Tables_SKY!$C$33</definedName>
     <definedName name="t.blocks" localSheetId="2">'SKY2'!$C$28</definedName>
     <definedName name="t.blocks">SKY!$C$28</definedName>
-    <definedName name="total_supply">Rewards_SKY!$C$32</definedName>
-    <definedName name="tr_tax">Rewards_SKY!$C$30</definedName>
+    <definedName name="total_supply">Tables_SKY!$C$32</definedName>
+    <definedName name="tr_tax">Tables_SKY!$C$30</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -7694,8 +7694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D04CE86-1F0E-4166-A6F8-93105C878FF5}">
   <dimension ref="A1:AT234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15040,7 +15040,7 @@
   <dimension ref="A1:AI148"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15051,7 +15051,7 @@
     <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.140625" style="31" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
@@ -18810,7 +18810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC90BBB-A21A-479B-8293-27459A309C06}">
   <dimension ref="A1:AI170"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -22880,7 +22880,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="83">
-        <f>Rewards_SKY!C29</f>
+        <f>Tables_SKY!C29</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D1" s="233"/>
@@ -25497,7 +25497,7 @@
         <v>2611908846.6047249</v>
       </c>
       <c r="F84" s="30">
-        <f>Rewards_SKY!C51</f>
+        <f>Tables_SKY!C51</f>
         <v>31704823791.377499</v>
       </c>
       <c r="G84" s="4">
@@ -25505,7 +25505,7 @@
         <v>8.2382064754293452E-2</v>
       </c>
       <c r="I84" s="4">
-        <f>SUM(E84+J84)/F84 * (1-Rewards_SKY!$C$30)</f>
+        <f>SUM(E84+J84)/F84 * (1-Tables_SKY!$C$30)</f>
         <v>6.597012148834612E-2</v>
       </c>
       <c r="J84" s="30">
@@ -25536,7 +25536,7 @@
         <v>8552859420.4562445</v>
       </c>
       <c r="E85" s="30">
-        <f>(D84-D85) *(1- Rewards_SKY!$C$30)</f>
+        <f>(D84-D85) *(1- Tables_SKY!$C$30)</f>
         <v>1678010059.6961801</v>
       </c>
       <c r="F85" s="30">
@@ -25548,7 +25548,7 @@
         <v>4.8897722210270562E-2</v>
       </c>
       <c r="I85" s="4">
-        <f>SUM(E85+J85)/F85 * (1-Rewards_SKY!$C$30)</f>
+        <f>SUM(E85+J85)/F85 * (1-Tables_SKY!$C$30)</f>
         <v>4.2096316773410775E-2</v>
       </c>
       <c r="J85" s="30">
@@ -25568,7 +25568,7 @@
         <v>6868436548.4983969</v>
       </c>
       <c r="E86" s="30">
-        <f>(D85-D86) *(1- Rewards_SKY!$C$30)</f>
+        <f>(D85-D86) *(1- Tables_SKY!$C$30)</f>
         <v>1347538297.5662782</v>
       </c>
       <c r="F86" s="30">
@@ -25580,7 +25580,7 @@
         <v>3.7437086545785807E-2</v>
       </c>
       <c r="I86" s="4">
-        <f>SUM(E86+J86)/F86 * (1-Rewards_SKY!$C$30)</f>
+        <f>SUM(E86+J86)/F86 * (1-Tables_SKY!$C$30)</f>
         <v>5.1244445711011888E-2</v>
       </c>
       <c r="J86" s="30">
@@ -25600,7 +25600,7 @@
         <v>5515748394.9656754</v>
       </c>
       <c r="E87" s="30">
-        <f>(D86-D87) *(1- Rewards_SKY!$C$30)</f>
+        <f>(D86-D87) *(1- Tables_SKY!$C$30)</f>
         <v>1082150522.8261774</v>
       </c>
       <c r="F87" s="30">
@@ -25612,7 +25612,7 @@
         <v>2.8979229280717556E-2</v>
       </c>
       <c r="I87" s="4">
-        <f>SUM(E87+J87)/F87 * (1-Rewards_SKY!$C$30)</f>
+        <f>SUM(E87+J87)/F87 * (1-Tables_SKY!$C$30)</f>
         <v>5.3972879121058519E-2</v>
       </c>
       <c r="J87" s="30">
@@ -25632,7 +25632,7 @@
         <v>4429462242.4979258</v>
       </c>
       <c r="E88" s="30">
-        <f>(D87-D88) *(1- Rewards_SKY!$C$30)</f>
+        <f>(D87-D88) *(1- Tables_SKY!$C$30)</f>
         <v>869028921.97419977</v>
       </c>
       <c r="F88" s="30">
@@ -25644,7 +25644,7 @@
         <v>2.2616571999653366E-2</v>
       </c>
       <c r="I88" s="4">
-        <f>SUM(E88+J88)/F88 * (1-Rewards_SKY!$C$30)</f>
+        <f>SUM(E88+J88)/F88 * (1-Tables_SKY!$C$30)</f>
         <v>5.4000099821998188E-2</v>
       </c>
       <c r="J88" s="30">
